--- a/Ng Lab Hallucinations Research Articles.xlsx
+++ b/Ng Lab Hallucinations Research Articles.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Title</t>
   </si>
@@ -92,6 +92,19 @@
   </si>
   <si>
     <t>Unpublished, but has some ideas for future research</t>
+  </si>
+  <si>
+    <t>Detecting hallucinations in large language
+models using semantic entropy</t>
+  </si>
+  <si>
+    <t>Sebastian Farquhar, Jannik Kossen, Lorenz Kuhn, Yarin Gal</t>
+  </si>
+  <si>
+    <t>19 June 2024</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41586-024-07421-0</t>
   </si>
 </sst>
 </file>
@@ -658,10 +671,18 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -30455,7 +30476,8 @@
     <hyperlink r:id="rId4" ref="D5"/>
     <hyperlink r:id="rId5" ref="D6"/>
     <hyperlink r:id="rId6" ref="D7"/>
+    <hyperlink r:id="rId7" ref="D8"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
--- a/Ng Lab Hallucinations Research Articles.xlsx
+++ b/Ng Lab Hallucinations Research Articles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humanish\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EEB03DA-2B19-FD41-A2C7-D7A7F5FFE76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003D1518-3E5F-4777-AB20-D4A65CBE5C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>Title</t>
   </si>
@@ -183,6 +183,41 @@
   <si>
     <t>1. First uses rag to lookup reliability of related articles on news sources. 2. Then uses comments to tie posts with unknown reliability to posts with known reliabilitly to find further increase accuracy of prediction. 3. Prints final score to user.</t>
   </si>
+  <si>
+    <t>https://arxiv.org/abs/2601.04742</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2505.20096</t>
+  </si>
+  <si>
+    <t>One of the most interesting and I think generalizable parts of this paper was the stability score (made up of relevance score and faithfulness score) with judge to determine if answer is valid. If a consensus is reached but the stability score isn’t high enough it is deemed inconclusive and the debate continues. If the debate reaches the maximum number of debates rounds the judge uses the accumulated stability scores and debate history to issue a final decision.
+In this paper, they Separate rag database access and search Api into separate agents. Doing so allows that to reduce shared blind spots and have more useful cross validation. I think this is probably important in general so that agents can have different sets of information and have better debates. The agents also dynamically reformulate their queries based on the opponent’s previous response, allowing retrieval to evolve with the debate instead of remaining static. This adaptive retrieval process is shown through ablations to significantly improve performance. 
+Another interesting result that they came across was that 3 debate rounds seems to be optimal and that longer debates generally result in diminishing returns.
+Overall I think this paper had a number of potentially useful findings that I think could contribute well to a paper. It brought up a number of ideas that I think even isolated from this paper seem practical.</t>
+  </si>
+  <si>
+    <t>This paper proposes MA-RAG, a modular multi-agent framework that decomposes the retrieval-augmented generation pipeline into specialized agents, providing fine-grained control over planning, retrieval, evidence extraction, and answer generation. Rather than relying on fine-tuning, MA-RAG coordinates these agents using chain-of-thought prompting, allowing the system to generalize across domains in a training-free manner. A key strength is that the Planner dynamically determines how many reasoning steps are needed, enabling the system to adapt its effort based on question complexity.
+Through ablation studies, the authors show that the Planner and Extractor are the most critical components: the Planner enables structured multi-hop reasoning, while the Extractor improves grounding by filtering irrelevant retrieved content. The QA agent is also highly sensitive to model capacity, whereas the Step Definer can be implemented with smaller models with minimal performance loss. Notably, MA-RAG using an 8B model outperforms much larger standalone LLMs, highlighting that architectural design can be as important as scale.
+Overall there are some interesting things in this paper. In particular I find the planner and the idea of adapting the number of steps to the complexity of the task to be practical in terms of computation. in addition I think that the idea of separating the rag process most essential parts into their own step could potentially be useful. I don’t think its necessary to do it on the same depth as they did in this paper but perhaps 1 or 2 of the most important pieces might be useful.</t>
+  </si>
+  <si>
+    <t>MAD framework</t>
+  </si>
+  <si>
+    <t>RAG</t>
+  </si>
+  <si>
+    <t>Tool-MAD: A Multi-Agent Debate Framework for Fact Verification with Diverse Tool Augmentation and Adaptive Retrieval</t>
+  </si>
+  <si>
+    <t>MA-RAG: Multi-Agent Retrieval-Augmented Generation via Collaborative Chain-of-Thought Reasoning</t>
+  </si>
+  <si>
+    <t>Jeong et al.</t>
+  </si>
+  <si>
+    <t>Nguyen et al.</t>
+  </si>
 </sst>
 </file>
 
@@ -254,7 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -268,6 +303,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -489,16 +528,16 @@
   </sheetPr>
   <dimension ref="A1:F1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="89" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
@@ -708,20 +747,44 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="10">
+        <v>45778</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
@@ -1059,7 +1122,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="13">
+    <row r="57" spans="1:6" ht="12.75">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
@@ -1067,7 +1130,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="13">
+    <row r="58" spans="1:6" ht="12.75">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
@@ -1075,7 +1138,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" ht="13">
+    <row r="59" spans="1:6" ht="12.75">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
@@ -1083,7 +1146,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="13">
+    <row r="60" spans="1:6" ht="12.75">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
@@ -1091,7 +1154,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="13">
+    <row r="61" spans="1:6" ht="12.75">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
@@ -1099,7 +1162,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" ht="13">
+    <row r="62" spans="1:6" ht="12.75">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
@@ -1107,7 +1170,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" ht="13">
+    <row r="63" spans="1:6" ht="12.75">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -1115,7 +1178,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" ht="13">
+    <row r="64" spans="1:6" ht="12.75">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
@@ -1123,7 +1186,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" ht="13">
+    <row r="65" spans="1:6" ht="12.75">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
@@ -1131,7 +1194,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="13">
+    <row r="66" spans="1:6" ht="12.75">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
@@ -1139,7 +1202,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="13">
+    <row r="67" spans="1:6" ht="12.75">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
@@ -1147,7 +1210,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="13">
+    <row r="68" spans="1:6" ht="12.75">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
@@ -1155,7 +1218,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" ht="13">
+    <row r="69" spans="1:6" ht="12.75">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
@@ -1163,7 +1226,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="13">
+    <row r="70" spans="1:6" ht="12.75">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
@@ -1171,7 +1234,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" ht="13">
+    <row r="71" spans="1:6" ht="12.75">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
@@ -1179,7 +1242,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="13">
+    <row r="72" spans="1:6" ht="12.75">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
@@ -1187,7 +1250,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" ht="13">
+    <row r="73" spans="1:6" ht="12.75">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
@@ -1195,7 +1258,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="13">
+    <row r="74" spans="1:6" ht="12.75">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
@@ -1203,7 +1266,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" ht="13">
+    <row r="75" spans="1:6" ht="12.75">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
@@ -1211,7 +1274,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="13">
+    <row r="76" spans="1:6" ht="12.75">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
@@ -1219,7 +1282,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="13">
+    <row r="77" spans="1:6" ht="12.75">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
@@ -1227,7 +1290,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" ht="13">
+    <row r="78" spans="1:6" ht="12.75">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
@@ -1235,7 +1298,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" ht="13">
+    <row r="79" spans="1:6" ht="12.75">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
@@ -1243,7 +1306,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" ht="13">
+    <row r="80" spans="1:6" ht="12.75">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
@@ -1251,7 +1314,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" ht="13">
+    <row r="81" spans="1:6" ht="12.75">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
@@ -1259,7 +1322,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" ht="13">
+    <row r="82" spans="1:6" ht="12.75">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
@@ -1267,7 +1330,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" ht="13">
+    <row r="83" spans="1:6" ht="12.75">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
@@ -1275,7 +1338,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" ht="13">
+    <row r="84" spans="1:6" ht="12.75">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
@@ -1283,7 +1346,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" ht="13">
+    <row r="85" spans="1:6" ht="12.75">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
@@ -1291,7 +1354,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" ht="13">
+    <row r="86" spans="1:6" ht="12.75">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
@@ -1299,7 +1362,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" ht="13">
+    <row r="87" spans="1:6" ht="12.75">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
@@ -1307,7 +1370,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" ht="13">
+    <row r="88" spans="1:6" ht="12.75">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
@@ -1315,7 +1378,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" ht="13">
+    <row r="89" spans="1:6" ht="12.75">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
@@ -1323,7 +1386,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" ht="13">
+    <row r="90" spans="1:6" ht="12.75">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
@@ -1331,7 +1394,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" ht="13">
+    <row r="91" spans="1:6" ht="12.75">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
@@ -1339,7 +1402,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" ht="13">
+    <row r="92" spans="1:6" ht="12.75">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
@@ -1347,7 +1410,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" ht="13">
+    <row r="93" spans="1:6" ht="12.75">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
@@ -1355,7 +1418,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" ht="13">
+    <row r="94" spans="1:6" ht="12.75">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
@@ -1363,7 +1426,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" ht="13">
+    <row r="95" spans="1:6" ht="12.75">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
@@ -1371,7 +1434,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" ht="13">
+    <row r="96" spans="1:6" ht="12.75">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
@@ -1379,7 +1442,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" ht="13">
+    <row r="97" spans="1:6" ht="12.75">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
@@ -1387,7 +1450,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="13">
+    <row r="98" spans="1:6" ht="12.75">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
@@ -1395,7 +1458,7 @@
       <c r="E98" s="1"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" ht="13">
+    <row r="99" spans="1:6" ht="12.75">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
@@ -1403,7 +1466,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" ht="13">
+    <row r="100" spans="1:6" ht="12.75">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
@@ -1411,7 +1474,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" ht="13">
+    <row r="101" spans="1:6" ht="12.75">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
@@ -1419,7 +1482,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" ht="13">
+    <row r="102" spans="1:6" ht="12.75">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2"/>
@@ -1427,7 +1490,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" ht="13">
+    <row r="103" spans="1:6" ht="12.75">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2"/>
@@ -1435,7 +1498,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" ht="13">
+    <row r="104" spans="1:6" ht="12.75">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
@@ -1443,7 +1506,7 @@
       <c r="E104" s="1"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" ht="13">
+    <row r="105" spans="1:6" ht="12.75">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
@@ -1451,7 +1514,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" ht="13">
+    <row r="106" spans="1:6" ht="12.75">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
@@ -1459,7 +1522,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="13">
+    <row r="107" spans="1:6" ht="12.75">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
@@ -1467,7 +1530,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" ht="13">
+    <row r="108" spans="1:6" ht="12.75">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
@@ -1475,7 +1538,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" ht="13">
+    <row r="109" spans="1:6" ht="12.75">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="2"/>
@@ -1483,7 +1546,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="13">
+    <row r="110" spans="1:6" ht="12.75">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
@@ -1491,7 +1554,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" ht="13">
+    <row r="111" spans="1:6" ht="12.75">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2"/>
@@ -1499,7 +1562,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" ht="13">
+    <row r="112" spans="1:6" ht="12.75">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
@@ -1507,7 +1570,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" ht="13">
+    <row r="113" spans="1:6" ht="12.75">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="2"/>
@@ -1515,7 +1578,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" ht="13">
+    <row r="114" spans="1:6" ht="12.75">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="2"/>
@@ -1523,7 +1586,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" ht="13">
+    <row r="115" spans="1:6" ht="12.75">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="2"/>
@@ -1531,7 +1594,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" ht="13">
+    <row r="116" spans="1:6" ht="12.75">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="2"/>
@@ -1539,7 +1602,7 @@
       <c r="E116" s="1"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" ht="13">
+    <row r="117" spans="1:6" ht="12.75">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="2"/>
@@ -1547,7 +1610,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" ht="13">
+    <row r="118" spans="1:6" ht="12.75">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="2"/>
@@ -1555,7 +1618,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" ht="13">
+    <row r="119" spans="1:6" ht="12.75">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2"/>
@@ -1563,7 +1626,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" ht="13">
+    <row r="120" spans="1:6" ht="12.75">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="2"/>
@@ -1571,7 +1634,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" ht="13">
+    <row r="121" spans="1:6" ht="12.75">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="2"/>
@@ -1579,7 +1642,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" ht="13">
+    <row r="122" spans="1:6" ht="12.75">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="2"/>
@@ -1587,7 +1650,7 @@
       <c r="E122" s="1"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" ht="13">
+    <row r="123" spans="1:6" ht="12.75">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="2"/>
@@ -1595,7 +1658,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" ht="13">
+    <row r="124" spans="1:6" ht="12.75">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="2"/>
@@ -1603,7 +1666,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" ht="13">
+    <row r="125" spans="1:6" ht="12.75">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="2"/>
@@ -1611,7 +1674,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:6" ht="13">
+    <row r="126" spans="1:6" ht="12.75">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="2"/>
@@ -1619,7 +1682,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:6" ht="13">
+    <row r="127" spans="1:6" ht="12.75">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="2"/>
@@ -1627,7 +1690,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" ht="13">
+    <row r="128" spans="1:6" ht="12.75">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="2"/>
@@ -1635,7 +1698,7 @@
       <c r="E128" s="1"/>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="1:6" ht="13">
+    <row r="129" spans="1:6" ht="12.75">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="2"/>
@@ -1643,7 +1706,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:6" ht="13">
+    <row r="130" spans="1:6" ht="12.75">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="2"/>
@@ -1651,7 +1714,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:6" ht="13">
+    <row r="131" spans="1:6" ht="12.75">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="2"/>
@@ -1659,7 +1722,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:6" ht="13">
+    <row r="132" spans="1:6" ht="12.75">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="2"/>
@@ -1667,7 +1730,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="1:6" ht="13">
+    <row r="133" spans="1:6" ht="12.75">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="2"/>
@@ -1675,7 +1738,7 @@
       <c r="E133" s="1"/>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:6" ht="13">
+    <row r="134" spans="1:6" ht="12.75">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="2"/>
@@ -1683,7 +1746,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:6" ht="13">
+    <row r="135" spans="1:6" ht="12.75">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="2"/>
@@ -1691,7 +1754,7 @@
       <c r="E135" s="1"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:6" ht="13">
+    <row r="136" spans="1:6" ht="12.75">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="2"/>
@@ -1699,7 +1762,7 @@
       <c r="E136" s="1"/>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:6" ht="13">
+    <row r="137" spans="1:6" ht="12.75">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="2"/>
@@ -1707,7 +1770,7 @@
       <c r="E137" s="1"/>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="1:6" ht="13">
+    <row r="138" spans="1:6" ht="12.75">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="2"/>
@@ -1715,7 +1778,7 @@
       <c r="E138" s="1"/>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:6" ht="13">
+    <row r="139" spans="1:6" ht="12.75">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="2"/>
@@ -1723,7 +1786,7 @@
       <c r="E139" s="1"/>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="1:6" ht="13">
+    <row r="140" spans="1:6" ht="12.75">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="2"/>
@@ -1731,7 +1794,7 @@
       <c r="E140" s="1"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:6" ht="13">
+    <row r="141" spans="1:6" ht="12.75">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="2"/>
@@ -1739,7 +1802,7 @@
       <c r="E141" s="1"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:6" ht="13">
+    <row r="142" spans="1:6" ht="12.75">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="2"/>
@@ -1747,7 +1810,7 @@
       <c r="E142" s="1"/>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="1:6" ht="13">
+    <row r="143" spans="1:6" ht="12.75">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="2"/>
@@ -1755,7 +1818,7 @@
       <c r="E143" s="1"/>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="1:6" ht="13">
+    <row r="144" spans="1:6" ht="12.75">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="2"/>
@@ -1763,7 +1826,7 @@
       <c r="E144" s="1"/>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="1:6" ht="13">
+    <row r="145" spans="1:6" ht="12.75">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="2"/>
@@ -1771,7 +1834,7 @@
       <c r="E145" s="1"/>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="1:6" ht="13">
+    <row r="146" spans="1:6" ht="12.75">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="2"/>
@@ -1779,7 +1842,7 @@
       <c r="E146" s="1"/>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="1:6" ht="13">
+    <row r="147" spans="1:6" ht="12.75">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="2"/>
@@ -1787,7 +1850,7 @@
       <c r="E147" s="1"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:6" ht="13">
+    <row r="148" spans="1:6" ht="12.75">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="2"/>
@@ -1795,7 +1858,7 @@
       <c r="E148" s="1"/>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:6" ht="13">
+    <row r="149" spans="1:6" ht="12.75">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="2"/>
@@ -1803,7 +1866,7 @@
       <c r="E149" s="1"/>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="1:6" ht="13">
+    <row r="150" spans="1:6" ht="12.75">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="2"/>
@@ -1811,7 +1874,7 @@
       <c r="E150" s="1"/>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="1:6" ht="13">
+    <row r="151" spans="1:6" ht="12.75">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="2"/>
@@ -1819,7 +1882,7 @@
       <c r="E151" s="1"/>
       <c r="F151" s="2"/>
     </row>
-    <row r="152" spans="1:6" ht="13">
+    <row r="152" spans="1:6" ht="12.75">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="2"/>
@@ -1827,7 +1890,7 @@
       <c r="E152" s="1"/>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="1:6" ht="13">
+    <row r="153" spans="1:6" ht="12.75">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="2"/>
@@ -1835,7 +1898,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="1:6" ht="13">
+    <row r="154" spans="1:6" ht="12.75">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="2"/>
@@ -1843,7 +1906,7 @@
       <c r="E154" s="1"/>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="1:6" ht="13">
+    <row r="155" spans="1:6" ht="12.75">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="2"/>
@@ -1851,7 +1914,7 @@
       <c r="E155" s="1"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6" ht="13">
+    <row r="156" spans="1:6" ht="12.75">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="2"/>
@@ -1859,7 +1922,7 @@
       <c r="E156" s="1"/>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="1:6" ht="13">
+    <row r="157" spans="1:6" ht="12.75">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="2"/>
@@ -1867,7 +1930,7 @@
       <c r="E157" s="1"/>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="1:6" ht="13">
+    <row r="158" spans="1:6" ht="12.75">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="2"/>
@@ -1875,7 +1938,7 @@
       <c r="E158" s="1"/>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="1:6" ht="13">
+    <row r="159" spans="1:6" ht="12.75">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="2"/>
@@ -1883,7 +1946,7 @@
       <c r="E159" s="1"/>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:6" ht="13">
+    <row r="160" spans="1:6" ht="12.75">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="2"/>
@@ -1891,7 +1954,7 @@
       <c r="E160" s="1"/>
       <c r="F160" s="2"/>
     </row>
-    <row r="161" spans="1:6" ht="13">
+    <row r="161" spans="1:6" ht="12.75">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="2"/>
@@ -1899,7 +1962,7 @@
       <c r="E161" s="1"/>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="1:6" ht="13">
+    <row r="162" spans="1:6" ht="12.75">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="2"/>
@@ -1907,7 +1970,7 @@
       <c r="E162" s="1"/>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="1:6" ht="13">
+    <row r="163" spans="1:6" ht="12.75">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="2"/>
@@ -1915,7 +1978,7 @@
       <c r="E163" s="1"/>
       <c r="F163" s="2"/>
     </row>
-    <row r="164" spans="1:6" ht="13">
+    <row r="164" spans="1:6" ht="12.75">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="2"/>
@@ -1923,7 +1986,7 @@
       <c r="E164" s="1"/>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="1:6" ht="13">
+    <row r="165" spans="1:6" ht="12.75">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="2"/>
@@ -1931,7 +1994,7 @@
       <c r="E165" s="1"/>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="1:6" ht="13">
+    <row r="166" spans="1:6" ht="12.75">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="2"/>
@@ -1939,7 +2002,7 @@
       <c r="E166" s="1"/>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="1:6" ht="13">
+    <row r="167" spans="1:6" ht="12.75">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="2"/>
@@ -1947,7 +2010,7 @@
       <c r="E167" s="1"/>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="1:6" ht="13">
+    <row r="168" spans="1:6" ht="12.75">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="2"/>
@@ -1955,7 +2018,7 @@
       <c r="E168" s="1"/>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="1:6" ht="13">
+    <row r="169" spans="1:6" ht="12.75">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="2"/>
@@ -1963,7 +2026,7 @@
       <c r="E169" s="1"/>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="1:6" ht="13">
+    <row r="170" spans="1:6" ht="12.75">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="2"/>
@@ -1971,7 +2034,7 @@
       <c r="E170" s="1"/>
       <c r="F170" s="2"/>
     </row>
-    <row r="171" spans="1:6" ht="13">
+    <row r="171" spans="1:6" ht="12.75">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="2"/>
@@ -1979,7 +2042,7 @@
       <c r="E171" s="1"/>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="1:6" ht="13">
+    <row r="172" spans="1:6" ht="12.75">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="2"/>
@@ -1987,7 +2050,7 @@
       <c r="E172" s="1"/>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="1:6" ht="13">
+    <row r="173" spans="1:6" ht="12.75">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="2"/>
@@ -1995,7 +2058,7 @@
       <c r="E173" s="1"/>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="1:6" ht="13">
+    <row r="174" spans="1:6" ht="12.75">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="2"/>
@@ -2003,7 +2066,7 @@
       <c r="E174" s="1"/>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="1:6" ht="13">
+    <row r="175" spans="1:6" ht="12.75">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="2"/>
@@ -2011,7 +2074,7 @@
       <c r="E175" s="1"/>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="1:6" ht="13">
+    <row r="176" spans="1:6" ht="12.75">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="2"/>
@@ -2019,7 +2082,7 @@
       <c r="E176" s="1"/>
       <c r="F176" s="2"/>
     </row>
-    <row r="177" spans="1:6" ht="13">
+    <row r="177" spans="1:6" ht="12.75">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="2"/>
@@ -2027,7 +2090,7 @@
       <c r="E177" s="1"/>
       <c r="F177" s="2"/>
     </row>
-    <row r="178" spans="1:6" ht="13">
+    <row r="178" spans="1:6" ht="12.75">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="2"/>
@@ -2035,7 +2098,7 @@
       <c r="E178" s="1"/>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="1:6" ht="13">
+    <row r="179" spans="1:6" ht="12.75">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="2"/>
@@ -2043,7 +2106,7 @@
       <c r="E179" s="1"/>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="1:6" ht="13">
+    <row r="180" spans="1:6" ht="12.75">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="2"/>
@@ -2051,7 +2114,7 @@
       <c r="E180" s="1"/>
       <c r="F180" s="2"/>
     </row>
-    <row r="181" spans="1:6" ht="13">
+    <row r="181" spans="1:6" ht="12.75">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="2"/>
@@ -2059,7 +2122,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="2"/>
     </row>
-    <row r="182" spans="1:6" ht="13">
+    <row r="182" spans="1:6" ht="12.75">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="2"/>
@@ -2067,7 +2130,7 @@
       <c r="E182" s="1"/>
       <c r="F182" s="2"/>
     </row>
-    <row r="183" spans="1:6" ht="13">
+    <row r="183" spans="1:6" ht="12.75">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="2"/>
@@ -2075,7 +2138,7 @@
       <c r="E183" s="1"/>
       <c r="F183" s="2"/>
     </row>
-    <row r="184" spans="1:6" ht="13">
+    <row r="184" spans="1:6" ht="12.75">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="2"/>
@@ -2083,7 +2146,7 @@
       <c r="E184" s="1"/>
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="1:6" ht="13">
+    <row r="185" spans="1:6" ht="12.75">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="2"/>
@@ -2091,7 +2154,7 @@
       <c r="E185" s="1"/>
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="1:6" ht="13">
+    <row r="186" spans="1:6" ht="12.75">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="2"/>
@@ -2099,7 +2162,7 @@
       <c r="E186" s="1"/>
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="1:6" ht="13">
+    <row r="187" spans="1:6" ht="12.75">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="2"/>
@@ -2107,7 +2170,7 @@
       <c r="E187" s="1"/>
       <c r="F187" s="2"/>
     </row>
-    <row r="188" spans="1:6" ht="13">
+    <row r="188" spans="1:6" ht="12.75">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="2"/>
@@ -2115,7 +2178,7 @@
       <c r="E188" s="1"/>
       <c r="F188" s="2"/>
     </row>
-    <row r="189" spans="1:6" ht="13">
+    <row r="189" spans="1:6" ht="12.75">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="2"/>
@@ -2123,7 +2186,7 @@
       <c r="E189" s="1"/>
       <c r="F189" s="2"/>
     </row>
-    <row r="190" spans="1:6" ht="13">
+    <row r="190" spans="1:6" ht="12.75">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="2"/>
@@ -2131,7 +2194,7 @@
       <c r="E190" s="1"/>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="1:6" ht="13">
+    <row r="191" spans="1:6" ht="12.75">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="2"/>
@@ -2139,7 +2202,7 @@
       <c r="E191" s="1"/>
       <c r="F191" s="2"/>
     </row>
-    <row r="192" spans="1:6" ht="13">
+    <row r="192" spans="1:6" ht="12.75">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="2"/>
@@ -2147,7 +2210,7 @@
       <c r="E192" s="1"/>
       <c r="F192" s="2"/>
     </row>
-    <row r="193" spans="1:6" ht="13">
+    <row r="193" spans="1:6" ht="12.75">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="2"/>
@@ -2155,7 +2218,7 @@
       <c r="E193" s="1"/>
       <c r="F193" s="2"/>
     </row>
-    <row r="194" spans="1:6" ht="13">
+    <row r="194" spans="1:6" ht="12.75">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="2"/>
@@ -2163,7 +2226,7 @@
       <c r="E194" s="1"/>
       <c r="F194" s="2"/>
     </row>
-    <row r="195" spans="1:6" ht="13">
+    <row r="195" spans="1:6" ht="12.75">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="2"/>
@@ -2171,7 +2234,7 @@
       <c r="E195" s="1"/>
       <c r="F195" s="2"/>
     </row>
-    <row r="196" spans="1:6" ht="13">
+    <row r="196" spans="1:6" ht="12.75">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="2"/>
@@ -2179,7 +2242,7 @@
       <c r="E196" s="1"/>
       <c r="F196" s="2"/>
     </row>
-    <row r="197" spans="1:6" ht="13">
+    <row r="197" spans="1:6" ht="12.75">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="2"/>
@@ -2187,7 +2250,7 @@
       <c r="E197" s="1"/>
       <c r="F197" s="2"/>
     </row>
-    <row r="198" spans="1:6" ht="13">
+    <row r="198" spans="1:6" ht="12.75">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="2"/>
@@ -2195,7 +2258,7 @@
       <c r="E198" s="1"/>
       <c r="F198" s="2"/>
     </row>
-    <row r="199" spans="1:6" ht="13">
+    <row r="199" spans="1:6" ht="12.75">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="2"/>
@@ -2203,7 +2266,7 @@
       <c r="E199" s="1"/>
       <c r="F199" s="2"/>
     </row>
-    <row r="200" spans="1:6" ht="13">
+    <row r="200" spans="1:6" ht="12.75">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="2"/>
@@ -2211,7 +2274,7 @@
       <c r="E200" s="1"/>
       <c r="F200" s="2"/>
     </row>
-    <row r="201" spans="1:6" ht="13">
+    <row r="201" spans="1:6" ht="12.75">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="2"/>
@@ -2219,7 +2282,7 @@
       <c r="E201" s="1"/>
       <c r="F201" s="2"/>
     </row>
-    <row r="202" spans="1:6" ht="13">
+    <row r="202" spans="1:6" ht="12.75">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="2"/>
@@ -2227,7 +2290,7 @@
       <c r="E202" s="1"/>
       <c r="F202" s="2"/>
     </row>
-    <row r="203" spans="1:6" ht="13">
+    <row r="203" spans="1:6" ht="12.75">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="2"/>
@@ -2235,7 +2298,7 @@
       <c r="E203" s="1"/>
       <c r="F203" s="2"/>
     </row>
-    <row r="204" spans="1:6" ht="13">
+    <row r="204" spans="1:6" ht="12.75">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="2"/>
@@ -2243,7 +2306,7 @@
       <c r="E204" s="1"/>
       <c r="F204" s="2"/>
     </row>
-    <row r="205" spans="1:6" ht="13">
+    <row r="205" spans="1:6" ht="12.75">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="2"/>
@@ -2251,7 +2314,7 @@
       <c r="E205" s="1"/>
       <c r="F205" s="2"/>
     </row>
-    <row r="206" spans="1:6" ht="13">
+    <row r="206" spans="1:6" ht="12.75">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="2"/>
@@ -2259,7 +2322,7 @@
       <c r="E206" s="1"/>
       <c r="F206" s="2"/>
     </row>
-    <row r="207" spans="1:6" ht="13">
+    <row r="207" spans="1:6" ht="12.75">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="2"/>
@@ -2267,7 +2330,7 @@
       <c r="E207" s="1"/>
       <c r="F207" s="2"/>
     </row>
-    <row r="208" spans="1:6" ht="13">
+    <row r="208" spans="1:6" ht="12.75">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="2"/>
@@ -2275,7 +2338,7 @@
       <c r="E208" s="1"/>
       <c r="F208" s="2"/>
     </row>
-    <row r="209" spans="1:6" ht="13">
+    <row r="209" spans="1:6" ht="12.75">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="2"/>
@@ -2283,7 +2346,7 @@
       <c r="E209" s="1"/>
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="1:6" ht="13">
+    <row r="210" spans="1:6" ht="12.75">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="2"/>
@@ -2291,7 +2354,7 @@
       <c r="E210" s="1"/>
       <c r="F210" s="2"/>
     </row>
-    <row r="211" spans="1:6" ht="13">
+    <row r="211" spans="1:6" ht="12.75">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="2"/>
@@ -2299,7 +2362,7 @@
       <c r="E211" s="1"/>
       <c r="F211" s="2"/>
     </row>
-    <row r="212" spans="1:6" ht="13">
+    <row r="212" spans="1:6" ht="12.75">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="2"/>
@@ -2307,7 +2370,7 @@
       <c r="E212" s="1"/>
       <c r="F212" s="2"/>
     </row>
-    <row r="213" spans="1:6" ht="13">
+    <row r="213" spans="1:6" ht="12.75">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="2"/>
@@ -2315,7 +2378,7 @@
       <c r="E213" s="1"/>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="1:6" ht="13">
+    <row r="214" spans="1:6" ht="12.75">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="2"/>
@@ -2323,7 +2386,7 @@
       <c r="E214" s="1"/>
       <c r="F214" s="2"/>
     </row>
-    <row r="215" spans="1:6" ht="13">
+    <row r="215" spans="1:6" ht="12.75">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="2"/>
@@ -2331,7 +2394,7 @@
       <c r="E215" s="1"/>
       <c r="F215" s="2"/>
     </row>
-    <row r="216" spans="1:6" ht="13">
+    <row r="216" spans="1:6" ht="12.75">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="2"/>
@@ -2339,7 +2402,7 @@
       <c r="E216" s="1"/>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="1:6" ht="13">
+    <row r="217" spans="1:6" ht="12.75">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="2"/>
@@ -2347,7 +2410,7 @@
       <c r="E217" s="1"/>
       <c r="F217" s="2"/>
     </row>
-    <row r="218" spans="1:6" ht="13">
+    <row r="218" spans="1:6" ht="12.75">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="2"/>
@@ -2355,7 +2418,7 @@
       <c r="E218" s="1"/>
       <c r="F218" s="2"/>
     </row>
-    <row r="219" spans="1:6" ht="13">
+    <row r="219" spans="1:6" ht="12.75">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="2"/>
@@ -2363,7 +2426,7 @@
       <c r="E219" s="1"/>
       <c r="F219" s="2"/>
     </row>
-    <row r="220" spans="1:6" ht="13">
+    <row r="220" spans="1:6" ht="12.75">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="2"/>
@@ -2371,7 +2434,7 @@
       <c r="E220" s="1"/>
       <c r="F220" s="2"/>
     </row>
-    <row r="221" spans="1:6" ht="13">
+    <row r="221" spans="1:6" ht="12.75">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="2"/>
@@ -2379,7 +2442,7 @@
       <c r="E221" s="1"/>
       <c r="F221" s="2"/>
     </row>
-    <row r="222" spans="1:6" ht="13">
+    <row r="222" spans="1:6" ht="12.75">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="2"/>
@@ -2387,7 +2450,7 @@
       <c r="E222" s="1"/>
       <c r="F222" s="2"/>
     </row>
-    <row r="223" spans="1:6" ht="13">
+    <row r="223" spans="1:6" ht="12.75">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="2"/>
@@ -2395,7 +2458,7 @@
       <c r="E223" s="1"/>
       <c r="F223" s="2"/>
     </row>
-    <row r="224" spans="1:6" ht="13">
+    <row r="224" spans="1:6" ht="12.75">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="2"/>
@@ -2403,7 +2466,7 @@
       <c r="E224" s="1"/>
       <c r="F224" s="2"/>
     </row>
-    <row r="225" spans="1:6" ht="13">
+    <row r="225" spans="1:6" ht="12.75">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="2"/>
@@ -2411,7 +2474,7 @@
       <c r="E225" s="1"/>
       <c r="F225" s="2"/>
     </row>
-    <row r="226" spans="1:6" ht="13">
+    <row r="226" spans="1:6" ht="12.75">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="2"/>
@@ -2419,7 +2482,7 @@
       <c r="E226" s="1"/>
       <c r="F226" s="2"/>
     </row>
-    <row r="227" spans="1:6" ht="13">
+    <row r="227" spans="1:6" ht="12.75">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="2"/>
@@ -2427,7 +2490,7 @@
       <c r="E227" s="1"/>
       <c r="F227" s="2"/>
     </row>
-    <row r="228" spans="1:6" ht="13">
+    <row r="228" spans="1:6" ht="12.75">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="2"/>
@@ -2435,7 +2498,7 @@
       <c r="E228" s="1"/>
       <c r="F228" s="2"/>
     </row>
-    <row r="229" spans="1:6" ht="13">
+    <row r="229" spans="1:6" ht="12.75">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="2"/>
@@ -2443,7 +2506,7 @@
       <c r="E229" s="1"/>
       <c r="F229" s="2"/>
     </row>
-    <row r="230" spans="1:6" ht="13">
+    <row r="230" spans="1:6" ht="12.75">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="2"/>
@@ -2451,7 +2514,7 @@
       <c r="E230" s="1"/>
       <c r="F230" s="2"/>
     </row>
-    <row r="231" spans="1:6" ht="13">
+    <row r="231" spans="1:6" ht="12.75">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="2"/>
@@ -2459,7 +2522,7 @@
       <c r="E231" s="1"/>
       <c r="F231" s="2"/>
     </row>
-    <row r="232" spans="1:6" ht="13">
+    <row r="232" spans="1:6" ht="12.75">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="2"/>
@@ -2467,7 +2530,7 @@
       <c r="E232" s="1"/>
       <c r="F232" s="2"/>
     </row>
-    <row r="233" spans="1:6" ht="13">
+    <row r="233" spans="1:6" ht="12.75">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="2"/>
@@ -2475,7 +2538,7 @@
       <c r="E233" s="1"/>
       <c r="F233" s="2"/>
     </row>
-    <row r="234" spans="1:6" ht="13">
+    <row r="234" spans="1:6" ht="12.75">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="2"/>
@@ -2483,7 +2546,7 @@
       <c r="E234" s="1"/>
       <c r="F234" s="2"/>
     </row>
-    <row r="235" spans="1:6" ht="13">
+    <row r="235" spans="1:6" ht="12.75">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="2"/>
@@ -2491,7 +2554,7 @@
       <c r="E235" s="1"/>
       <c r="F235" s="2"/>
     </row>
-    <row r="236" spans="1:6" ht="13">
+    <row r="236" spans="1:6" ht="12.75">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="2"/>
@@ -2499,7 +2562,7 @@
       <c r="E236" s="1"/>
       <c r="F236" s="2"/>
     </row>
-    <row r="237" spans="1:6" ht="13">
+    <row r="237" spans="1:6" ht="12.75">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="2"/>
@@ -2507,7 +2570,7 @@
       <c r="E237" s="1"/>
       <c r="F237" s="2"/>
     </row>
-    <row r="238" spans="1:6" ht="13">
+    <row r="238" spans="1:6" ht="12.75">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="2"/>
@@ -2515,7 +2578,7 @@
       <c r="E238" s="1"/>
       <c r="F238" s="2"/>
     </row>
-    <row r="239" spans="1:6" ht="13">
+    <row r="239" spans="1:6" ht="12.75">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="2"/>
@@ -2523,7 +2586,7 @@
       <c r="E239" s="1"/>
       <c r="F239" s="2"/>
     </row>
-    <row r="240" spans="1:6" ht="13">
+    <row r="240" spans="1:6" ht="12.75">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="2"/>
@@ -2531,7 +2594,7 @@
       <c r="E240" s="1"/>
       <c r="F240" s="2"/>
     </row>
-    <row r="241" spans="1:6" ht="13">
+    <row r="241" spans="1:6" ht="12.75">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="2"/>
@@ -2539,7 +2602,7 @@
       <c r="E241" s="1"/>
       <c r="F241" s="2"/>
     </row>
-    <row r="242" spans="1:6" ht="13">
+    <row r="242" spans="1:6" ht="12.75">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="2"/>
@@ -2547,7 +2610,7 @@
       <c r="E242" s="1"/>
       <c r="F242" s="2"/>
     </row>
-    <row r="243" spans="1:6" ht="13">
+    <row r="243" spans="1:6" ht="12.75">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="2"/>
@@ -2555,7 +2618,7 @@
       <c r="E243" s="1"/>
       <c r="F243" s="2"/>
     </row>
-    <row r="244" spans="1:6" ht="13">
+    <row r="244" spans="1:6" ht="12.75">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="2"/>
@@ -2563,7 +2626,7 @@
       <c r="E244" s="1"/>
       <c r="F244" s="2"/>
     </row>
-    <row r="245" spans="1:6" ht="13">
+    <row r="245" spans="1:6" ht="12.75">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="2"/>
@@ -2571,7 +2634,7 @@
       <c r="E245" s="1"/>
       <c r="F245" s="2"/>
     </row>
-    <row r="246" spans="1:6" ht="13">
+    <row r="246" spans="1:6" ht="12.75">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="2"/>
@@ -2579,7 +2642,7 @@
       <c r="E246" s="1"/>
       <c r="F246" s="2"/>
     </row>
-    <row r="247" spans="1:6" ht="13">
+    <row r="247" spans="1:6" ht="12.75">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="2"/>
@@ -2587,7 +2650,7 @@
       <c r="E247" s="1"/>
       <c r="F247" s="2"/>
     </row>
-    <row r="248" spans="1:6" ht="13">
+    <row r="248" spans="1:6" ht="12.75">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="2"/>
@@ -2595,7 +2658,7 @@
       <c r="E248" s="1"/>
       <c r="F248" s="2"/>
     </row>
-    <row r="249" spans="1:6" ht="13">
+    <row r="249" spans="1:6" ht="12.75">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="2"/>
@@ -2603,7 +2666,7 @@
       <c r="E249" s="1"/>
       <c r="F249" s="2"/>
     </row>
-    <row r="250" spans="1:6" ht="13">
+    <row r="250" spans="1:6" ht="12.75">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="2"/>
@@ -2611,7 +2674,7 @@
       <c r="E250" s="1"/>
       <c r="F250" s="2"/>
     </row>
-    <row r="251" spans="1:6" ht="13">
+    <row r="251" spans="1:6" ht="12.75">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="2"/>
@@ -2619,7 +2682,7 @@
       <c r="E251" s="1"/>
       <c r="F251" s="2"/>
     </row>
-    <row r="252" spans="1:6" ht="13">
+    <row r="252" spans="1:6" ht="12.75">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="2"/>
@@ -2627,7 +2690,7 @@
       <c r="E252" s="1"/>
       <c r="F252" s="2"/>
     </row>
-    <row r="253" spans="1:6" ht="13">
+    <row r="253" spans="1:6" ht="12.75">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="2"/>
@@ -2635,7 +2698,7 @@
       <c r="E253" s="1"/>
       <c r="F253" s="2"/>
     </row>
-    <row r="254" spans="1:6" ht="13">
+    <row r="254" spans="1:6" ht="12.75">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="2"/>
@@ -2643,7 +2706,7 @@
       <c r="E254" s="1"/>
       <c r="F254" s="2"/>
     </row>
-    <row r="255" spans="1:6" ht="13">
+    <row r="255" spans="1:6" ht="12.75">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="2"/>
@@ -2651,7 +2714,7 @@
       <c r="E255" s="1"/>
       <c r="F255" s="2"/>
     </row>
-    <row r="256" spans="1:6" ht="13">
+    <row r="256" spans="1:6" ht="12.75">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="2"/>
@@ -2659,7 +2722,7 @@
       <c r="E256" s="1"/>
       <c r="F256" s="2"/>
     </row>
-    <row r="257" spans="1:6" ht="13">
+    <row r="257" spans="1:6" ht="12.75">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="2"/>
@@ -2667,7 +2730,7 @@
       <c r="E257" s="1"/>
       <c r="F257" s="2"/>
     </row>
-    <row r="258" spans="1:6" ht="13">
+    <row r="258" spans="1:6" ht="12.75">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="2"/>
@@ -2675,7 +2738,7 @@
       <c r="E258" s="1"/>
       <c r="F258" s="2"/>
     </row>
-    <row r="259" spans="1:6" ht="13">
+    <row r="259" spans="1:6" ht="12.75">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="2"/>
@@ -2683,7 +2746,7 @@
       <c r="E259" s="1"/>
       <c r="F259" s="2"/>
     </row>
-    <row r="260" spans="1:6" ht="13">
+    <row r="260" spans="1:6" ht="12.75">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="2"/>
@@ -2691,7 +2754,7 @@
       <c r="E260" s="1"/>
       <c r="F260" s="2"/>
     </row>
-    <row r="261" spans="1:6" ht="13">
+    <row r="261" spans="1:6" ht="12.75">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="2"/>
@@ -2699,7 +2762,7 @@
       <c r="E261" s="1"/>
       <c r="F261" s="2"/>
     </row>
-    <row r="262" spans="1:6" ht="13">
+    <row r="262" spans="1:6" ht="12.75">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="2"/>
@@ -2707,7 +2770,7 @@
       <c r="E262" s="1"/>
       <c r="F262" s="2"/>
     </row>
-    <row r="263" spans="1:6" ht="13">
+    <row r="263" spans="1:6" ht="12.75">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="2"/>
@@ -2715,7 +2778,7 @@
       <c r="E263" s="1"/>
       <c r="F263" s="2"/>
     </row>
-    <row r="264" spans="1:6" ht="13">
+    <row r="264" spans="1:6" ht="12.75">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="2"/>
@@ -2723,7 +2786,7 @@
       <c r="E264" s="1"/>
       <c r="F264" s="2"/>
     </row>
-    <row r="265" spans="1:6" ht="13">
+    <row r="265" spans="1:6" ht="12.75">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="2"/>
@@ -2731,7 +2794,7 @@
       <c r="E265" s="1"/>
       <c r="F265" s="2"/>
     </row>
-    <row r="266" spans="1:6" ht="13">
+    <row r="266" spans="1:6" ht="12.75">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="2"/>
@@ -2739,7 +2802,7 @@
       <c r="E266" s="1"/>
       <c r="F266" s="2"/>
     </row>
-    <row r="267" spans="1:6" ht="13">
+    <row r="267" spans="1:6" ht="12.75">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="2"/>
@@ -2747,7 +2810,7 @@
       <c r="E267" s="1"/>
       <c r="F267" s="2"/>
     </row>
-    <row r="268" spans="1:6" ht="13">
+    <row r="268" spans="1:6" ht="12.75">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="2"/>
@@ -2755,7 +2818,7 @@
       <c r="E268" s="1"/>
       <c r="F268" s="2"/>
     </row>
-    <row r="269" spans="1:6" ht="13">
+    <row r="269" spans="1:6" ht="12.75">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="2"/>
@@ -2763,7 +2826,7 @@
       <c r="E269" s="1"/>
       <c r="F269" s="2"/>
     </row>
-    <row r="270" spans="1:6" ht="13">
+    <row r="270" spans="1:6" ht="12.75">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="2"/>
@@ -2771,7 +2834,7 @@
       <c r="E270" s="1"/>
       <c r="F270" s="2"/>
     </row>
-    <row r="271" spans="1:6" ht="13">
+    <row r="271" spans="1:6" ht="12.75">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="2"/>
@@ -2779,7 +2842,7 @@
       <c r="E271" s="1"/>
       <c r="F271" s="2"/>
     </row>
-    <row r="272" spans="1:6" ht="13">
+    <row r="272" spans="1:6" ht="12.75">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="2"/>
@@ -2787,7 +2850,7 @@
       <c r="E272" s="1"/>
       <c r="F272" s="2"/>
     </row>
-    <row r="273" spans="1:6" ht="13">
+    <row r="273" spans="1:6" ht="12.75">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="2"/>
@@ -2795,7 +2858,7 @@
       <c r="E273" s="1"/>
       <c r="F273" s="2"/>
     </row>
-    <row r="274" spans="1:6" ht="13">
+    <row r="274" spans="1:6" ht="12.75">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="2"/>
@@ -2803,7 +2866,7 @@
       <c r="E274" s="1"/>
       <c r="F274" s="2"/>
     </row>
-    <row r="275" spans="1:6" ht="13">
+    <row r="275" spans="1:6" ht="12.75">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="2"/>
@@ -2811,7 +2874,7 @@
       <c r="E275" s="1"/>
       <c r="F275" s="2"/>
     </row>
-    <row r="276" spans="1:6" ht="13">
+    <row r="276" spans="1:6" ht="12.75">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="2"/>
@@ -2819,7 +2882,7 @@
       <c r="E276" s="1"/>
       <c r="F276" s="2"/>
     </row>
-    <row r="277" spans="1:6" ht="13">
+    <row r="277" spans="1:6" ht="12.75">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="2"/>
@@ -2827,7 +2890,7 @@
       <c r="E277" s="1"/>
       <c r="F277" s="2"/>
     </row>
-    <row r="278" spans="1:6" ht="13">
+    <row r="278" spans="1:6" ht="12.75">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="2"/>
@@ -2835,7 +2898,7 @@
       <c r="E278" s="1"/>
       <c r="F278" s="2"/>
     </row>
-    <row r="279" spans="1:6" ht="13">
+    <row r="279" spans="1:6" ht="12.75">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="2"/>
@@ -2843,7 +2906,7 @@
       <c r="E279" s="1"/>
       <c r="F279" s="2"/>
     </row>
-    <row r="280" spans="1:6" ht="13">
+    <row r="280" spans="1:6" ht="12.75">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="2"/>
@@ -2851,7 +2914,7 @@
       <c r="E280" s="1"/>
       <c r="F280" s="2"/>
     </row>
-    <row r="281" spans="1:6" ht="13">
+    <row r="281" spans="1:6" ht="12.75">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="2"/>
@@ -2859,7 +2922,7 @@
       <c r="E281" s="1"/>
       <c r="F281" s="2"/>
     </row>
-    <row r="282" spans="1:6" ht="13">
+    <row r="282" spans="1:6" ht="12.75">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="2"/>
@@ -2867,7 +2930,7 @@
       <c r="E282" s="1"/>
       <c r="F282" s="2"/>
     </row>
-    <row r="283" spans="1:6" ht="13">
+    <row r="283" spans="1:6" ht="12.75">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="2"/>
@@ -2875,7 +2938,7 @@
       <c r="E283" s="1"/>
       <c r="F283" s="2"/>
     </row>
-    <row r="284" spans="1:6" ht="13">
+    <row r="284" spans="1:6" ht="12.75">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="2"/>
@@ -2883,7 +2946,7 @@
       <c r="E284" s="1"/>
       <c r="F284" s="2"/>
     </row>
-    <row r="285" spans="1:6" ht="13">
+    <row r="285" spans="1:6" ht="12.75">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="2"/>
@@ -2891,7 +2954,7 @@
       <c r="E285" s="1"/>
       <c r="F285" s="2"/>
     </row>
-    <row r="286" spans="1:6" ht="13">
+    <row r="286" spans="1:6" ht="12.75">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="2"/>
@@ -2899,7 +2962,7 @@
       <c r="E286" s="1"/>
       <c r="F286" s="2"/>
     </row>
-    <row r="287" spans="1:6" ht="13">
+    <row r="287" spans="1:6" ht="12.75">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="2"/>
@@ -2907,7 +2970,7 @@
       <c r="E287" s="1"/>
       <c r="F287" s="2"/>
     </row>
-    <row r="288" spans="1:6" ht="13">
+    <row r="288" spans="1:6" ht="12.75">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="2"/>
@@ -2915,7 +2978,7 @@
       <c r="E288" s="1"/>
       <c r="F288" s="2"/>
     </row>
-    <row r="289" spans="1:6" ht="13">
+    <row r="289" spans="1:6" ht="12.75">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="2"/>
@@ -2923,7 +2986,7 @@
       <c r="E289" s="1"/>
       <c r="F289" s="2"/>
     </row>
-    <row r="290" spans="1:6" ht="13">
+    <row r="290" spans="1:6" ht="12.75">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="2"/>
@@ -2931,7 +2994,7 @@
       <c r="E290" s="1"/>
       <c r="F290" s="2"/>
     </row>
-    <row r="291" spans="1:6" ht="13">
+    <row r="291" spans="1:6" ht="12.75">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="2"/>
@@ -2939,7 +3002,7 @@
       <c r="E291" s="1"/>
       <c r="F291" s="2"/>
     </row>
-    <row r="292" spans="1:6" ht="13">
+    <row r="292" spans="1:6" ht="12.75">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="2"/>
@@ -2947,7 +3010,7 @@
       <c r="E292" s="1"/>
       <c r="F292" s="2"/>
     </row>
-    <row r="293" spans="1:6" ht="13">
+    <row r="293" spans="1:6" ht="12.75">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="2"/>
@@ -2955,7 +3018,7 @@
       <c r="E293" s="1"/>
       <c r="F293" s="2"/>
     </row>
-    <row r="294" spans="1:6" ht="13">
+    <row r="294" spans="1:6" ht="12.75">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="2"/>
@@ -2963,7 +3026,7 @@
       <c r="E294" s="1"/>
       <c r="F294" s="2"/>
     </row>
-    <row r="295" spans="1:6" ht="13">
+    <row r="295" spans="1:6" ht="12.75">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="2"/>
@@ -2971,7 +3034,7 @@
       <c r="E295" s="1"/>
       <c r="F295" s="2"/>
     </row>
-    <row r="296" spans="1:6" ht="13">
+    <row r="296" spans="1:6" ht="12.75">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="2"/>
@@ -2979,7 +3042,7 @@
       <c r="E296" s="1"/>
       <c r="F296" s="2"/>
     </row>
-    <row r="297" spans="1:6" ht="13">
+    <row r="297" spans="1:6" ht="12.75">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="2"/>
@@ -2987,7 +3050,7 @@
       <c r="E297" s="1"/>
       <c r="F297" s="2"/>
     </row>
-    <row r="298" spans="1:6" ht="13">
+    <row r="298" spans="1:6" ht="12.75">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="2"/>
@@ -2995,7 +3058,7 @@
       <c r="E298" s="1"/>
       <c r="F298" s="2"/>
     </row>
-    <row r="299" spans="1:6" ht="13">
+    <row r="299" spans="1:6" ht="12.75">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="2"/>
@@ -3003,7 +3066,7 @@
       <c r="E299" s="1"/>
       <c r="F299" s="2"/>
     </row>
-    <row r="300" spans="1:6" ht="13">
+    <row r="300" spans="1:6" ht="12.75">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="2"/>
@@ -3011,7 +3074,7 @@
       <c r="E300" s="1"/>
       <c r="F300" s="2"/>
     </row>
-    <row r="301" spans="1:6" ht="13">
+    <row r="301" spans="1:6" ht="12.75">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="2"/>
@@ -3019,7 +3082,7 @@
       <c r="E301" s="1"/>
       <c r="F301" s="2"/>
     </row>
-    <row r="302" spans="1:6" ht="13">
+    <row r="302" spans="1:6" ht="12.75">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="2"/>
@@ -3027,7 +3090,7 @@
       <c r="E302" s="1"/>
       <c r="F302" s="2"/>
     </row>
-    <row r="303" spans="1:6" ht="13">
+    <row r="303" spans="1:6" ht="12.75">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="2"/>
@@ -3035,7 +3098,7 @@
       <c r="E303" s="1"/>
       <c r="F303" s="2"/>
     </row>
-    <row r="304" spans="1:6" ht="13">
+    <row r="304" spans="1:6" ht="12.75">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="2"/>
@@ -3043,7 +3106,7 @@
       <c r="E304" s="1"/>
       <c r="F304" s="2"/>
     </row>
-    <row r="305" spans="1:6" ht="13">
+    <row r="305" spans="1:6" ht="12.75">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="2"/>
@@ -3051,7 +3114,7 @@
       <c r="E305" s="1"/>
       <c r="F305" s="2"/>
     </row>
-    <row r="306" spans="1:6" ht="13">
+    <row r="306" spans="1:6" ht="12.75">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="2"/>
@@ -3059,7 +3122,7 @@
       <c r="E306" s="1"/>
       <c r="F306" s="2"/>
     </row>
-    <row r="307" spans="1:6" ht="13">
+    <row r="307" spans="1:6" ht="12.75">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="2"/>
@@ -3067,7 +3130,7 @@
       <c r="E307" s="1"/>
       <c r="F307" s="2"/>
     </row>
-    <row r="308" spans="1:6" ht="13">
+    <row r="308" spans="1:6" ht="12.75">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="2"/>
@@ -3075,7 +3138,7 @@
       <c r="E308" s="1"/>
       <c r="F308" s="2"/>
     </row>
-    <row r="309" spans="1:6" ht="13">
+    <row r="309" spans="1:6" ht="12.75">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="2"/>
@@ -3083,7 +3146,7 @@
       <c r="E309" s="1"/>
       <c r="F309" s="2"/>
     </row>
-    <row r="310" spans="1:6" ht="13">
+    <row r="310" spans="1:6" ht="12.75">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="2"/>
@@ -3091,7 +3154,7 @@
       <c r="E310" s="1"/>
       <c r="F310" s="2"/>
     </row>
-    <row r="311" spans="1:6" ht="13">
+    <row r="311" spans="1:6" ht="12.75">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="2"/>
@@ -3099,7 +3162,7 @@
       <c r="E311" s="1"/>
       <c r="F311" s="2"/>
     </row>
-    <row r="312" spans="1:6" ht="13">
+    <row r="312" spans="1:6" ht="12.75">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="2"/>
@@ -3107,7 +3170,7 @@
       <c r="E312" s="1"/>
       <c r="F312" s="2"/>
     </row>
-    <row r="313" spans="1:6" ht="13">
+    <row r="313" spans="1:6" ht="12.75">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="2"/>
@@ -3115,7 +3178,7 @@
       <c r="E313" s="1"/>
       <c r="F313" s="2"/>
     </row>
-    <row r="314" spans="1:6" ht="13">
+    <row r="314" spans="1:6" ht="12.75">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="2"/>
@@ -3123,7 +3186,7 @@
       <c r="E314" s="1"/>
       <c r="F314" s="2"/>
     </row>
-    <row r="315" spans="1:6" ht="13">
+    <row r="315" spans="1:6" ht="12.75">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="2"/>
@@ -3131,7 +3194,7 @@
       <c r="E315" s="1"/>
       <c r="F315" s="2"/>
     </row>
-    <row r="316" spans="1:6" ht="13">
+    <row r="316" spans="1:6" ht="12.75">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="2"/>
@@ -3139,7 +3202,7 @@
       <c r="E316" s="1"/>
       <c r="F316" s="2"/>
     </row>
-    <row r="317" spans="1:6" ht="13">
+    <row r="317" spans="1:6" ht="12.75">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="2"/>
@@ -3147,7 +3210,7 @@
       <c r="E317" s="1"/>
       <c r="F317" s="2"/>
     </row>
-    <row r="318" spans="1:6" ht="13">
+    <row r="318" spans="1:6" ht="12.75">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="2"/>
@@ -3155,7 +3218,7 @@
       <c r="E318" s="1"/>
       <c r="F318" s="2"/>
     </row>
-    <row r="319" spans="1:6" ht="13">
+    <row r="319" spans="1:6" ht="12.75">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="2"/>
@@ -3163,7 +3226,7 @@
       <c r="E319" s="1"/>
       <c r="F319" s="2"/>
     </row>
-    <row r="320" spans="1:6" ht="13">
+    <row r="320" spans="1:6" ht="12.75">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="2"/>
@@ -3171,7 +3234,7 @@
       <c r="E320" s="1"/>
       <c r="F320" s="2"/>
     </row>
-    <row r="321" spans="1:6" ht="13">
+    <row r="321" spans="1:6" ht="12.75">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="2"/>
@@ -3179,7 +3242,7 @@
       <c r="E321" s="1"/>
       <c r="F321" s="2"/>
     </row>
-    <row r="322" spans="1:6" ht="13">
+    <row r="322" spans="1:6" ht="12.75">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="2"/>
@@ -3187,7 +3250,7 @@
       <c r="E322" s="1"/>
       <c r="F322" s="2"/>
     </row>
-    <row r="323" spans="1:6" ht="13">
+    <row r="323" spans="1:6" ht="12.75">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="2"/>
@@ -3195,7 +3258,7 @@
       <c r="E323" s="1"/>
       <c r="F323" s="2"/>
     </row>
-    <row r="324" spans="1:6" ht="13">
+    <row r="324" spans="1:6" ht="12.75">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="2"/>
@@ -3203,7 +3266,7 @@
       <c r="E324" s="1"/>
       <c r="F324" s="2"/>
     </row>
-    <row r="325" spans="1:6" ht="13">
+    <row r="325" spans="1:6" ht="12.75">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="2"/>
@@ -3211,7 +3274,7 @@
       <c r="E325" s="1"/>
       <c r="F325" s="2"/>
     </row>
-    <row r="326" spans="1:6" ht="13">
+    <row r="326" spans="1:6" ht="12.75">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="2"/>
@@ -3219,7 +3282,7 @@
       <c r="E326" s="1"/>
       <c r="F326" s="2"/>
     </row>
-    <row r="327" spans="1:6" ht="13">
+    <row r="327" spans="1:6" ht="12.75">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="2"/>
@@ -3227,7 +3290,7 @@
       <c r="E327" s="1"/>
       <c r="F327" s="2"/>
     </row>
-    <row r="328" spans="1:6" ht="13">
+    <row r="328" spans="1:6" ht="12.75">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="2"/>
@@ -3235,7 +3298,7 @@
       <c r="E328" s="1"/>
       <c r="F328" s="2"/>
     </row>
-    <row r="329" spans="1:6" ht="13">
+    <row r="329" spans="1:6" ht="12.75">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="2"/>
@@ -3243,7 +3306,7 @@
       <c r="E329" s="1"/>
       <c r="F329" s="2"/>
     </row>
-    <row r="330" spans="1:6" ht="13">
+    <row r="330" spans="1:6" ht="12.75">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="2"/>
@@ -3251,7 +3314,7 @@
       <c r="E330" s="1"/>
       <c r="F330" s="2"/>
     </row>
-    <row r="331" spans="1:6" ht="13">
+    <row r="331" spans="1:6" ht="12.75">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="2"/>
@@ -3259,7 +3322,7 @@
       <c r="E331" s="1"/>
       <c r="F331" s="2"/>
     </row>
-    <row r="332" spans="1:6" ht="13">
+    <row r="332" spans="1:6" ht="12.75">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="2"/>
@@ -3267,7 +3330,7 @@
       <c r="E332" s="1"/>
       <c r="F332" s="2"/>
     </row>
-    <row r="333" spans="1:6" ht="13">
+    <row r="333" spans="1:6" ht="12.75">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="2"/>
@@ -3275,7 +3338,7 @@
       <c r="E333" s="1"/>
       <c r="F333" s="2"/>
     </row>
-    <row r="334" spans="1:6" ht="13">
+    <row r="334" spans="1:6" ht="12.75">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="2"/>
@@ -3283,7 +3346,7 @@
       <c r="E334" s="1"/>
       <c r="F334" s="2"/>
     </row>
-    <row r="335" spans="1:6" ht="13">
+    <row r="335" spans="1:6" ht="12.75">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="2"/>
@@ -3291,7 +3354,7 @@
       <c r="E335" s="1"/>
       <c r="F335" s="2"/>
     </row>
-    <row r="336" spans="1:6" ht="13">
+    <row r="336" spans="1:6" ht="12.75">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="2"/>
@@ -3299,7 +3362,7 @@
       <c r="E336" s="1"/>
       <c r="F336" s="2"/>
     </row>
-    <row r="337" spans="1:6" ht="13">
+    <row r="337" spans="1:6" ht="12.75">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="2"/>
@@ -3307,7 +3370,7 @@
       <c r="E337" s="1"/>
       <c r="F337" s="2"/>
     </row>
-    <row r="338" spans="1:6" ht="13">
+    <row r="338" spans="1:6" ht="12.75">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="2"/>
@@ -3315,7 +3378,7 @@
       <c r="E338" s="1"/>
       <c r="F338" s="2"/>
     </row>
-    <row r="339" spans="1:6" ht="13">
+    <row r="339" spans="1:6" ht="12.75">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="2"/>
@@ -3323,7 +3386,7 @@
       <c r="E339" s="1"/>
       <c r="F339" s="2"/>
     </row>
-    <row r="340" spans="1:6" ht="13">
+    <row r="340" spans="1:6" ht="12.75">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="2"/>
@@ -3331,7 +3394,7 @@
       <c r="E340" s="1"/>
       <c r="F340" s="2"/>
     </row>
-    <row r="341" spans="1:6" ht="13">
+    <row r="341" spans="1:6" ht="12.75">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="2"/>
@@ -3339,7 +3402,7 @@
       <c r="E341" s="1"/>
       <c r="F341" s="2"/>
     </row>
-    <row r="342" spans="1:6" ht="13">
+    <row r="342" spans="1:6" ht="12.75">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="2"/>
@@ -3347,7 +3410,7 @@
       <c r="E342" s="1"/>
       <c r="F342" s="2"/>
     </row>
-    <row r="343" spans="1:6" ht="13">
+    <row r="343" spans="1:6" ht="12.75">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="2"/>
@@ -3355,7 +3418,7 @@
       <c r="E343" s="1"/>
       <c r="F343" s="2"/>
     </row>
-    <row r="344" spans="1:6" ht="13">
+    <row r="344" spans="1:6" ht="12.75">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="2"/>
@@ -3363,7 +3426,7 @@
       <c r="E344" s="1"/>
       <c r="F344" s="2"/>
     </row>
-    <row r="345" spans="1:6" ht="13">
+    <row r="345" spans="1:6" ht="12.75">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="2"/>
@@ -3371,7 +3434,7 @@
       <c r="E345" s="1"/>
       <c r="F345" s="2"/>
     </row>
-    <row r="346" spans="1:6" ht="13">
+    <row r="346" spans="1:6" ht="12.75">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="2"/>
@@ -3379,7 +3442,7 @@
       <c r="E346" s="1"/>
       <c r="F346" s="2"/>
     </row>
-    <row r="347" spans="1:6" ht="13">
+    <row r="347" spans="1:6" ht="12.75">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="2"/>
@@ -3387,7 +3450,7 @@
       <c r="E347" s="1"/>
       <c r="F347" s="2"/>
     </row>
-    <row r="348" spans="1:6" ht="13">
+    <row r="348" spans="1:6" ht="12.75">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="2"/>
@@ -3395,7 +3458,7 @@
       <c r="E348" s="1"/>
       <c r="F348" s="2"/>
     </row>
-    <row r="349" spans="1:6" ht="13">
+    <row r="349" spans="1:6" ht="12.75">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="2"/>
@@ -3403,7 +3466,7 @@
       <c r="E349" s="1"/>
       <c r="F349" s="2"/>
     </row>
-    <row r="350" spans="1:6" ht="13">
+    <row r="350" spans="1:6" ht="12.75">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="2"/>
@@ -3411,7 +3474,7 @@
       <c r="E350" s="1"/>
       <c r="F350" s="2"/>
     </row>
-    <row r="351" spans="1:6" ht="13">
+    <row r="351" spans="1:6" ht="12.75">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="2"/>
@@ -3419,7 +3482,7 @@
       <c r="E351" s="1"/>
       <c r="F351" s="2"/>
     </row>
-    <row r="352" spans="1:6" ht="13">
+    <row r="352" spans="1:6" ht="12.75">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="2"/>
@@ -3427,7 +3490,7 @@
       <c r="E352" s="1"/>
       <c r="F352" s="2"/>
     </row>
-    <row r="353" spans="1:6" ht="13">
+    <row r="353" spans="1:6" ht="12.75">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="2"/>
@@ -3435,7 +3498,7 @@
       <c r="E353" s="1"/>
       <c r="F353" s="2"/>
     </row>
-    <row r="354" spans="1:6" ht="13">
+    <row r="354" spans="1:6" ht="12.75">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="2"/>
@@ -3443,7 +3506,7 @@
       <c r="E354" s="1"/>
       <c r="F354" s="2"/>
     </row>
-    <row r="355" spans="1:6" ht="13">
+    <row r="355" spans="1:6" ht="12.75">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="2"/>
@@ -3451,7 +3514,7 @@
       <c r="E355" s="1"/>
       <c r="F355" s="2"/>
     </row>
-    <row r="356" spans="1:6" ht="13">
+    <row r="356" spans="1:6" ht="12.75">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="2"/>
@@ -3459,7 +3522,7 @@
       <c r="E356" s="1"/>
       <c r="F356" s="2"/>
     </row>
-    <row r="357" spans="1:6" ht="13">
+    <row r="357" spans="1:6" ht="12.75">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="2"/>
@@ -3467,7 +3530,7 @@
       <c r="E357" s="1"/>
       <c r="F357" s="2"/>
     </row>
-    <row r="358" spans="1:6" ht="13">
+    <row r="358" spans="1:6" ht="12.75">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="2"/>
@@ -3475,7 +3538,7 @@
       <c r="E358" s="1"/>
       <c r="F358" s="2"/>
     </row>
-    <row r="359" spans="1:6" ht="13">
+    <row r="359" spans="1:6" ht="12.75">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="2"/>
@@ -3483,7 +3546,7 @@
       <c r="E359" s="1"/>
       <c r="F359" s="2"/>
     </row>
-    <row r="360" spans="1:6" ht="13">
+    <row r="360" spans="1:6" ht="12.75">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="2"/>
@@ -3491,7 +3554,7 @@
       <c r="E360" s="1"/>
       <c r="F360" s="2"/>
     </row>
-    <row r="361" spans="1:6" ht="13">
+    <row r="361" spans="1:6" ht="12.75">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="2"/>
@@ -3499,7 +3562,7 @@
       <c r="E361" s="1"/>
       <c r="F361" s="2"/>
     </row>
-    <row r="362" spans="1:6" ht="13">
+    <row r="362" spans="1:6" ht="12.75">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="2"/>
@@ -3507,7 +3570,7 @@
       <c r="E362" s="1"/>
       <c r="F362" s="2"/>
     </row>
-    <row r="363" spans="1:6" ht="13">
+    <row r="363" spans="1:6" ht="12.75">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="2"/>
@@ -3515,7 +3578,7 @@
       <c r="E363" s="1"/>
       <c r="F363" s="2"/>
     </row>
-    <row r="364" spans="1:6" ht="13">
+    <row r="364" spans="1:6" ht="12.75">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="2"/>
@@ -3523,7 +3586,7 @@
       <c r="E364" s="1"/>
       <c r="F364" s="2"/>
     </row>
-    <row r="365" spans="1:6" ht="13">
+    <row r="365" spans="1:6" ht="12.75">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="2"/>
@@ -3531,7 +3594,7 @@
       <c r="E365" s="1"/>
       <c r="F365" s="2"/>
     </row>
-    <row r="366" spans="1:6" ht="13">
+    <row r="366" spans="1:6" ht="12.75">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="2"/>
@@ -3539,7 +3602,7 @@
       <c r="E366" s="1"/>
       <c r="F366" s="2"/>
     </row>
-    <row r="367" spans="1:6" ht="13">
+    <row r="367" spans="1:6" ht="12.75">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="2"/>
@@ -3547,7 +3610,7 @@
       <c r="E367" s="1"/>
       <c r="F367" s="2"/>
     </row>
-    <row r="368" spans="1:6" ht="13">
+    <row r="368" spans="1:6" ht="12.75">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="2"/>
@@ -3555,7 +3618,7 @@
       <c r="E368" s="1"/>
       <c r="F368" s="2"/>
     </row>
-    <row r="369" spans="1:6" ht="13">
+    <row r="369" spans="1:6" ht="12.75">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="2"/>
@@ -3563,7 +3626,7 @@
       <c r="E369" s="1"/>
       <c r="F369" s="2"/>
     </row>
-    <row r="370" spans="1:6" ht="13">
+    <row r="370" spans="1:6" ht="12.75">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="2"/>
@@ -3571,7 +3634,7 @@
       <c r="E370" s="1"/>
       <c r="F370" s="2"/>
     </row>
-    <row r="371" spans="1:6" ht="13">
+    <row r="371" spans="1:6" ht="12.75">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="2"/>
@@ -3579,7 +3642,7 @@
       <c r="E371" s="1"/>
       <c r="F371" s="2"/>
     </row>
-    <row r="372" spans="1:6" ht="13">
+    <row r="372" spans="1:6" ht="12.75">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="2"/>
@@ -3587,7 +3650,7 @@
       <c r="E372" s="1"/>
       <c r="F372" s="2"/>
     </row>
-    <row r="373" spans="1:6" ht="13">
+    <row r="373" spans="1:6" ht="12.75">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="2"/>
@@ -3595,7 +3658,7 @@
       <c r="E373" s="1"/>
       <c r="F373" s="2"/>
     </row>
-    <row r="374" spans="1:6" ht="13">
+    <row r="374" spans="1:6" ht="12.75">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="2"/>
@@ -3603,7 +3666,7 @@
       <c r="E374" s="1"/>
       <c r="F374" s="2"/>
     </row>
-    <row r="375" spans="1:6" ht="13">
+    <row r="375" spans="1:6" ht="12.75">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="2"/>
@@ -3611,7 +3674,7 @@
       <c r="E375" s="1"/>
       <c r="F375" s="2"/>
     </row>
-    <row r="376" spans="1:6" ht="13">
+    <row r="376" spans="1:6" ht="12.75">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="2"/>
@@ -3619,7 +3682,7 @@
       <c r="E376" s="1"/>
       <c r="F376" s="2"/>
     </row>
-    <row r="377" spans="1:6" ht="13">
+    <row r="377" spans="1:6" ht="12.75">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="2"/>
@@ -3627,7 +3690,7 @@
       <c r="E377" s="1"/>
       <c r="F377" s="2"/>
     </row>
-    <row r="378" spans="1:6" ht="13">
+    <row r="378" spans="1:6" ht="12.75">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="2"/>
@@ -3635,7 +3698,7 @@
       <c r="E378" s="1"/>
       <c r="F378" s="2"/>
     </row>
-    <row r="379" spans="1:6" ht="13">
+    <row r="379" spans="1:6" ht="12.75">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="2"/>
@@ -3643,7 +3706,7 @@
       <c r="E379" s="1"/>
       <c r="F379" s="2"/>
     </row>
-    <row r="380" spans="1:6" ht="13">
+    <row r="380" spans="1:6" ht="12.75">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="2"/>
@@ -3651,7 +3714,7 @@
       <c r="E380" s="1"/>
       <c r="F380" s="2"/>
     </row>
-    <row r="381" spans="1:6" ht="13">
+    <row r="381" spans="1:6" ht="12.75">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="2"/>
@@ -3659,7 +3722,7 @@
       <c r="E381" s="1"/>
       <c r="F381" s="2"/>
     </row>
-    <row r="382" spans="1:6" ht="13">
+    <row r="382" spans="1:6" ht="12.75">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="2"/>
@@ -3667,7 +3730,7 @@
       <c r="E382" s="1"/>
       <c r="F382" s="2"/>
     </row>
-    <row r="383" spans="1:6" ht="13">
+    <row r="383" spans="1:6" ht="12.75">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="2"/>
@@ -3675,7 +3738,7 @@
       <c r="E383" s="1"/>
       <c r="F383" s="2"/>
     </row>
-    <row r="384" spans="1:6" ht="13">
+    <row r="384" spans="1:6" ht="12.75">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="2"/>
@@ -3683,7 +3746,7 @@
       <c r="E384" s="1"/>
       <c r="F384" s="2"/>
     </row>
-    <row r="385" spans="1:6" ht="13">
+    <row r="385" spans="1:6" ht="12.75">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="2"/>
@@ -3691,7 +3754,7 @@
       <c r="E385" s="1"/>
       <c r="F385" s="2"/>
     </row>
-    <row r="386" spans="1:6" ht="13">
+    <row r="386" spans="1:6" ht="12.75">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="2"/>
@@ -3699,7 +3762,7 @@
       <c r="E386" s="1"/>
       <c r="F386" s="2"/>
     </row>
-    <row r="387" spans="1:6" ht="13">
+    <row r="387" spans="1:6" ht="12.75">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="2"/>
@@ -3707,7 +3770,7 @@
       <c r="E387" s="1"/>
       <c r="F387" s="2"/>
     </row>
-    <row r="388" spans="1:6" ht="13">
+    <row r="388" spans="1:6" ht="12.75">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="2"/>
@@ -3715,7 +3778,7 @@
       <c r="E388" s="1"/>
       <c r="F388" s="2"/>
     </row>
-    <row r="389" spans="1:6" ht="13">
+    <row r="389" spans="1:6" ht="12.75">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="2"/>
@@ -3723,7 +3786,7 @@
       <c r="E389" s="1"/>
       <c r="F389" s="2"/>
     </row>
-    <row r="390" spans="1:6" ht="13">
+    <row r="390" spans="1:6" ht="12.75">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="2"/>
@@ -3731,7 +3794,7 @@
       <c r="E390" s="1"/>
       <c r="F390" s="2"/>
     </row>
-    <row r="391" spans="1:6" ht="13">
+    <row r="391" spans="1:6" ht="12.75">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="2"/>
@@ -3739,7 +3802,7 @@
       <c r="E391" s="1"/>
       <c r="F391" s="2"/>
     </row>
-    <row r="392" spans="1:6" ht="13">
+    <row r="392" spans="1:6" ht="12.75">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="2"/>
@@ -3747,7 +3810,7 @@
       <c r="E392" s="1"/>
       <c r="F392" s="2"/>
     </row>
-    <row r="393" spans="1:6" ht="13">
+    <row r="393" spans="1:6" ht="12.75">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="2"/>
@@ -3755,7 +3818,7 @@
       <c r="E393" s="1"/>
       <c r="F393" s="2"/>
     </row>
-    <row r="394" spans="1:6" ht="13">
+    <row r="394" spans="1:6" ht="12.75">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="2"/>
@@ -3763,7 +3826,7 @@
       <c r="E394" s="1"/>
       <c r="F394" s="2"/>
     </row>
-    <row r="395" spans="1:6" ht="13">
+    <row r="395" spans="1:6" ht="12.75">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="2"/>
@@ -3771,7 +3834,7 @@
       <c r="E395" s="1"/>
       <c r="F395" s="2"/>
     </row>
-    <row r="396" spans="1:6" ht="13">
+    <row r="396" spans="1:6" ht="12.75">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="2"/>
@@ -3779,7 +3842,7 @@
       <c r="E396" s="1"/>
       <c r="F396" s="2"/>
     </row>
-    <row r="397" spans="1:6" ht="13">
+    <row r="397" spans="1:6" ht="12.75">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="2"/>
@@ -3787,7 +3850,7 @@
       <c r="E397" s="1"/>
       <c r="F397" s="2"/>
     </row>
-    <row r="398" spans="1:6" ht="13">
+    <row r="398" spans="1:6" ht="12.75">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="2"/>
@@ -3795,7 +3858,7 @@
       <c r="E398" s="1"/>
       <c r="F398" s="2"/>
     </row>
-    <row r="399" spans="1:6" ht="13">
+    <row r="399" spans="1:6" ht="12.75">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="2"/>
@@ -3803,7 +3866,7 @@
       <c r="E399" s="1"/>
       <c r="F399" s="2"/>
     </row>
-    <row r="400" spans="1:6" ht="13">
+    <row r="400" spans="1:6" ht="12.75">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="2"/>
@@ -3811,7 +3874,7 @@
       <c r="E400" s="1"/>
       <c r="F400" s="2"/>
     </row>
-    <row r="401" spans="1:6" ht="13">
+    <row r="401" spans="1:6" ht="12.75">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="2"/>
@@ -3819,7 +3882,7 @@
       <c r="E401" s="1"/>
       <c r="F401" s="2"/>
     </row>
-    <row r="402" spans="1:6" ht="13">
+    <row r="402" spans="1:6" ht="12.75">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="2"/>
@@ -3827,7 +3890,7 @@
       <c r="E402" s="1"/>
       <c r="F402" s="2"/>
     </row>
-    <row r="403" spans="1:6" ht="13">
+    <row r="403" spans="1:6" ht="12.75">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="2"/>
@@ -3835,7 +3898,7 @@
       <c r="E403" s="1"/>
       <c r="F403" s="2"/>
     </row>
-    <row r="404" spans="1:6" ht="13">
+    <row r="404" spans="1:6" ht="12.75">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="2"/>
@@ -3843,7 +3906,7 @@
       <c r="E404" s="1"/>
       <c r="F404" s="2"/>
     </row>
-    <row r="405" spans="1:6" ht="13">
+    <row r="405" spans="1:6" ht="12.75">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="2"/>
@@ -3851,7 +3914,7 @@
       <c r="E405" s="1"/>
       <c r="F405" s="2"/>
     </row>
-    <row r="406" spans="1:6" ht="13">
+    <row r="406" spans="1:6" ht="12.75">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="2"/>
@@ -3859,7 +3922,7 @@
       <c r="E406" s="1"/>
       <c r="F406" s="2"/>
     </row>
-    <row r="407" spans="1:6" ht="13">
+    <row r="407" spans="1:6" ht="12.75">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="2"/>
@@ -3867,7 +3930,7 @@
       <c r="E407" s="1"/>
       <c r="F407" s="2"/>
     </row>
-    <row r="408" spans="1:6" ht="13">
+    <row r="408" spans="1:6" ht="12.75">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="2"/>
@@ -3875,7 +3938,7 @@
       <c r="E408" s="1"/>
       <c r="F408" s="2"/>
     </row>
-    <row r="409" spans="1:6" ht="13">
+    <row r="409" spans="1:6" ht="12.75">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="2"/>
@@ -3883,7 +3946,7 @@
       <c r="E409" s="1"/>
       <c r="F409" s="2"/>
     </row>
-    <row r="410" spans="1:6" ht="13">
+    <row r="410" spans="1:6" ht="12.75">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="2"/>
@@ -3891,7 +3954,7 @@
       <c r="E410" s="1"/>
       <c r="F410" s="2"/>
     </row>
-    <row r="411" spans="1:6" ht="13">
+    <row r="411" spans="1:6" ht="12.75">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="2"/>
@@ -3899,7 +3962,7 @@
       <c r="E411" s="1"/>
       <c r="F411" s="2"/>
     </row>
-    <row r="412" spans="1:6" ht="13">
+    <row r="412" spans="1:6" ht="12.75">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="2"/>
@@ -3907,7 +3970,7 @@
       <c r="E412" s="1"/>
       <c r="F412" s="2"/>
     </row>
-    <row r="413" spans="1:6" ht="13">
+    <row r="413" spans="1:6" ht="12.75">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="2"/>
@@ -3915,7 +3978,7 @@
       <c r="E413" s="1"/>
       <c r="F413" s="2"/>
     </row>
-    <row r="414" spans="1:6" ht="13">
+    <row r="414" spans="1:6" ht="12.75">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="2"/>
@@ -3923,7 +3986,7 @@
       <c r="E414" s="1"/>
       <c r="F414" s="2"/>
     </row>
-    <row r="415" spans="1:6" ht="13">
+    <row r="415" spans="1:6" ht="12.75">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="2"/>
@@ -3931,7 +3994,7 @@
       <c r="E415" s="1"/>
       <c r="F415" s="2"/>
     </row>
-    <row r="416" spans="1:6" ht="13">
+    <row r="416" spans="1:6" ht="12.75">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="2"/>
@@ -3939,7 +4002,7 @@
       <c r="E416" s="1"/>
       <c r="F416" s="2"/>
     </row>
-    <row r="417" spans="1:6" ht="13">
+    <row r="417" spans="1:6" ht="12.75">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="2"/>
@@ -3947,7 +4010,7 @@
       <c r="E417" s="1"/>
       <c r="F417" s="2"/>
     </row>
-    <row r="418" spans="1:6" ht="13">
+    <row r="418" spans="1:6" ht="12.75">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="2"/>
@@ -3955,7 +4018,7 @@
       <c r="E418" s="1"/>
       <c r="F418" s="2"/>
     </row>
-    <row r="419" spans="1:6" ht="13">
+    <row r="419" spans="1:6" ht="12.75">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="2"/>
@@ -3963,7 +4026,7 @@
       <c r="E419" s="1"/>
       <c r="F419" s="2"/>
     </row>
-    <row r="420" spans="1:6" ht="13">
+    <row r="420" spans="1:6" ht="12.75">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="2"/>
@@ -3971,7 +4034,7 @@
       <c r="E420" s="1"/>
       <c r="F420" s="2"/>
     </row>
-    <row r="421" spans="1:6" ht="13">
+    <row r="421" spans="1:6" ht="12.75">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="2"/>
@@ -3979,7 +4042,7 @@
       <c r="E421" s="1"/>
       <c r="F421" s="2"/>
     </row>
-    <row r="422" spans="1:6" ht="13">
+    <row r="422" spans="1:6" ht="12.75">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="2"/>
@@ -3987,7 +4050,7 @@
       <c r="E422" s="1"/>
       <c r="F422" s="2"/>
     </row>
-    <row r="423" spans="1:6" ht="13">
+    <row r="423" spans="1:6" ht="12.75">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="2"/>
@@ -3995,7 +4058,7 @@
       <c r="E423" s="1"/>
       <c r="F423" s="2"/>
     </row>
-    <row r="424" spans="1:6" ht="13">
+    <row r="424" spans="1:6" ht="12.75">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="2"/>
@@ -4003,7 +4066,7 @@
       <c r="E424" s="1"/>
       <c r="F424" s="2"/>
     </row>
-    <row r="425" spans="1:6" ht="13">
+    <row r="425" spans="1:6" ht="12.75">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="2"/>
@@ -4011,7 +4074,7 @@
       <c r="E425" s="1"/>
       <c r="F425" s="2"/>
     </row>
-    <row r="426" spans="1:6" ht="13">
+    <row r="426" spans="1:6" ht="12.75">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="2"/>
@@ -4019,7 +4082,7 @@
       <c r="E426" s="1"/>
       <c r="F426" s="2"/>
     </row>
-    <row r="427" spans="1:6" ht="13">
+    <row r="427" spans="1:6" ht="12.75">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="2"/>
@@ -4027,7 +4090,7 @@
       <c r="E427" s="1"/>
       <c r="F427" s="2"/>
     </row>
-    <row r="428" spans="1:6" ht="13">
+    <row r="428" spans="1:6" ht="12.75">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="2"/>
@@ -4035,7 +4098,7 @@
       <c r="E428" s="1"/>
       <c r="F428" s="2"/>
     </row>
-    <row r="429" spans="1:6" ht="13">
+    <row r="429" spans="1:6" ht="12.75">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="2"/>
@@ -4043,7 +4106,7 @@
       <c r="E429" s="1"/>
       <c r="F429" s="2"/>
     </row>
-    <row r="430" spans="1:6" ht="13">
+    <row r="430" spans="1:6" ht="12.75">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="2"/>
@@ -4051,7 +4114,7 @@
       <c r="E430" s="1"/>
       <c r="F430" s="2"/>
     </row>
-    <row r="431" spans="1:6" ht="13">
+    <row r="431" spans="1:6" ht="12.75">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="2"/>
@@ -4059,7 +4122,7 @@
       <c r="E431" s="1"/>
       <c r="F431" s="2"/>
     </row>
-    <row r="432" spans="1:6" ht="13">
+    <row r="432" spans="1:6" ht="12.75">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="2"/>
@@ -4067,7 +4130,7 @@
       <c r="E432" s="1"/>
       <c r="F432" s="2"/>
     </row>
-    <row r="433" spans="1:6" ht="13">
+    <row r="433" spans="1:6" ht="12.75">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="2"/>
@@ -4075,7 +4138,7 @@
       <c r="E433" s="1"/>
       <c r="F433" s="2"/>
     </row>
-    <row r="434" spans="1:6" ht="13">
+    <row r="434" spans="1:6" ht="12.75">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="2"/>
@@ -4083,7 +4146,7 @@
       <c r="E434" s="1"/>
       <c r="F434" s="2"/>
     </row>
-    <row r="435" spans="1:6" ht="13">
+    <row r="435" spans="1:6" ht="12.75">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="2"/>
@@ -4091,7 +4154,7 @@
       <c r="E435" s="1"/>
       <c r="F435" s="2"/>
     </row>
-    <row r="436" spans="1:6" ht="13">
+    <row r="436" spans="1:6" ht="12.75">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="2"/>
@@ -4099,7 +4162,7 @@
       <c r="E436" s="1"/>
       <c r="F436" s="2"/>
     </row>
-    <row r="437" spans="1:6" ht="13">
+    <row r="437" spans="1:6" ht="12.75">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="2"/>
@@ -4107,7 +4170,7 @@
       <c r="E437" s="1"/>
       <c r="F437" s="2"/>
     </row>
-    <row r="438" spans="1:6" ht="13">
+    <row r="438" spans="1:6" ht="12.75">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="2"/>
@@ -4115,7 +4178,7 @@
       <c r="E438" s="1"/>
       <c r="F438" s="2"/>
     </row>
-    <row r="439" spans="1:6" ht="13">
+    <row r="439" spans="1:6" ht="12.75">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="2"/>
@@ -4123,7 +4186,7 @@
       <c r="E439" s="1"/>
       <c r="F439" s="2"/>
     </row>
-    <row r="440" spans="1:6" ht="13">
+    <row r="440" spans="1:6" ht="12.75">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="2"/>
@@ -4131,7 +4194,7 @@
       <c r="E440" s="1"/>
       <c r="F440" s="2"/>
     </row>
-    <row r="441" spans="1:6" ht="13">
+    <row r="441" spans="1:6" ht="12.75">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="2"/>
@@ -4139,7 +4202,7 @@
       <c r="E441" s="1"/>
       <c r="F441" s="2"/>
     </row>
-    <row r="442" spans="1:6" ht="13">
+    <row r="442" spans="1:6" ht="12.75">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="2"/>
@@ -4147,7 +4210,7 @@
       <c r="E442" s="1"/>
       <c r="F442" s="2"/>
     </row>
-    <row r="443" spans="1:6" ht="13">
+    <row r="443" spans="1:6" ht="12.75">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="2"/>
@@ -4155,7 +4218,7 @@
       <c r="E443" s="1"/>
       <c r="F443" s="2"/>
     </row>
-    <row r="444" spans="1:6" ht="13">
+    <row r="444" spans="1:6" ht="12.75">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="2"/>
@@ -4163,7 +4226,7 @@
       <c r="E444" s="1"/>
       <c r="F444" s="2"/>
     </row>
-    <row r="445" spans="1:6" ht="13">
+    <row r="445" spans="1:6" ht="12.75">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="2"/>
@@ -4171,7 +4234,7 @@
       <c r="E445" s="1"/>
       <c r="F445" s="2"/>
     </row>
-    <row r="446" spans="1:6" ht="13">
+    <row r="446" spans="1:6" ht="12.75">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="2"/>
@@ -4179,7 +4242,7 @@
       <c r="E446" s="1"/>
       <c r="F446" s="2"/>
     </row>
-    <row r="447" spans="1:6" ht="13">
+    <row r="447" spans="1:6" ht="12.75">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="2"/>
@@ -4187,7 +4250,7 @@
       <c r="E447" s="1"/>
       <c r="F447" s="2"/>
     </row>
-    <row r="448" spans="1:6" ht="13">
+    <row r="448" spans="1:6" ht="12.75">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="2"/>
@@ -4195,7 +4258,7 @@
       <c r="E448" s="1"/>
       <c r="F448" s="2"/>
     </row>
-    <row r="449" spans="1:6" ht="13">
+    <row r="449" spans="1:6" ht="12.75">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="2"/>
@@ -4203,7 +4266,7 @@
       <c r="E449" s="1"/>
       <c r="F449" s="2"/>
     </row>
-    <row r="450" spans="1:6" ht="13">
+    <row r="450" spans="1:6" ht="12.75">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="2"/>
@@ -4211,7 +4274,7 @@
       <c r="E450" s="1"/>
       <c r="F450" s="2"/>
     </row>
-    <row r="451" spans="1:6" ht="13">
+    <row r="451" spans="1:6" ht="12.75">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="2"/>
@@ -4219,7 +4282,7 @@
       <c r="E451" s="1"/>
       <c r="F451" s="2"/>
     </row>
-    <row r="452" spans="1:6" ht="13">
+    <row r="452" spans="1:6" ht="12.75">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="2"/>
@@ -4227,7 +4290,7 @@
       <c r="E452" s="1"/>
       <c r="F452" s="2"/>
     </row>
-    <row r="453" spans="1:6" ht="13">
+    <row r="453" spans="1:6" ht="12.75">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="2"/>
@@ -4235,7 +4298,7 @@
       <c r="E453" s="1"/>
       <c r="F453" s="2"/>
     </row>
-    <row r="454" spans="1:6" ht="13">
+    <row r="454" spans="1:6" ht="12.75">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="2"/>
@@ -4243,7 +4306,7 @@
       <c r="E454" s="1"/>
       <c r="F454" s="2"/>
     </row>
-    <row r="455" spans="1:6" ht="13">
+    <row r="455" spans="1:6" ht="12.75">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="2"/>
@@ -4251,7 +4314,7 @@
       <c r="E455" s="1"/>
       <c r="F455" s="2"/>
     </row>
-    <row r="456" spans="1:6" ht="13">
+    <row r="456" spans="1:6" ht="12.75">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="2"/>
@@ -4259,7 +4322,7 @@
       <c r="E456" s="1"/>
       <c r="F456" s="2"/>
     </row>
-    <row r="457" spans="1:6" ht="13">
+    <row r="457" spans="1:6" ht="12.75">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="2"/>
@@ -4267,7 +4330,7 @@
       <c r="E457" s="1"/>
       <c r="F457" s="2"/>
     </row>
-    <row r="458" spans="1:6" ht="13">
+    <row r="458" spans="1:6" ht="12.75">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="2"/>
@@ -4275,7 +4338,7 @@
       <c r="E458" s="1"/>
       <c r="F458" s="2"/>
     </row>
-    <row r="459" spans="1:6" ht="13">
+    <row r="459" spans="1:6" ht="12.75">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="2"/>
@@ -4283,7 +4346,7 @@
       <c r="E459" s="1"/>
       <c r="F459" s="2"/>
     </row>
-    <row r="460" spans="1:6" ht="13">
+    <row r="460" spans="1:6" ht="12.75">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="2"/>
@@ -4291,7 +4354,7 @@
       <c r="E460" s="1"/>
       <c r="F460" s="2"/>
     </row>
-    <row r="461" spans="1:6" ht="13">
+    <row r="461" spans="1:6" ht="12.75">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="2"/>
@@ -4299,7 +4362,7 @@
       <c r="E461" s="1"/>
       <c r="F461" s="2"/>
     </row>
-    <row r="462" spans="1:6" ht="13">
+    <row r="462" spans="1:6" ht="12.75">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="2"/>
@@ -4307,7 +4370,7 @@
       <c r="E462" s="1"/>
       <c r="F462" s="2"/>
     </row>
-    <row r="463" spans="1:6" ht="13">
+    <row r="463" spans="1:6" ht="12.75">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="2"/>
@@ -4315,7 +4378,7 @@
       <c r="E463" s="1"/>
       <c r="F463" s="2"/>
     </row>
-    <row r="464" spans="1:6" ht="13">
+    <row r="464" spans="1:6" ht="12.75">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="2"/>
@@ -4323,7 +4386,7 @@
       <c r="E464" s="1"/>
       <c r="F464" s="2"/>
     </row>
-    <row r="465" spans="1:6" ht="13">
+    <row r="465" spans="1:6" ht="12.75">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="2"/>
@@ -4331,7 +4394,7 @@
       <c r="E465" s="1"/>
       <c r="F465" s="2"/>
     </row>
-    <row r="466" spans="1:6" ht="13">
+    <row r="466" spans="1:6" ht="12.75">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="2"/>
@@ -4339,7 +4402,7 @@
       <c r="E466" s="1"/>
       <c r="F466" s="2"/>
     </row>
-    <row r="467" spans="1:6" ht="13">
+    <row r="467" spans="1:6" ht="12.75">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="2"/>
@@ -4347,7 +4410,7 @@
       <c r="E467" s="1"/>
       <c r="F467" s="2"/>
     </row>
-    <row r="468" spans="1:6" ht="13">
+    <row r="468" spans="1:6" ht="12.75">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="2"/>
@@ -4355,7 +4418,7 @@
       <c r="E468" s="1"/>
       <c r="F468" s="2"/>
     </row>
-    <row r="469" spans="1:6" ht="13">
+    <row r="469" spans="1:6" ht="12.75">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="2"/>
@@ -4363,7 +4426,7 @@
       <c r="E469" s="1"/>
       <c r="F469" s="2"/>
     </row>
-    <row r="470" spans="1:6" ht="13">
+    <row r="470" spans="1:6" ht="12.75">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="2"/>
@@ -4371,7 +4434,7 @@
       <c r="E470" s="1"/>
       <c r="F470" s="2"/>
     </row>
-    <row r="471" spans="1:6" ht="13">
+    <row r="471" spans="1:6" ht="12.75">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="2"/>
@@ -4379,7 +4442,7 @@
       <c r="E471" s="1"/>
       <c r="F471" s="2"/>
     </row>
-    <row r="472" spans="1:6" ht="13">
+    <row r="472" spans="1:6" ht="12.75">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="2"/>
@@ -4387,7 +4450,7 @@
       <c r="E472" s="1"/>
       <c r="F472" s="2"/>
     </row>
-    <row r="473" spans="1:6" ht="13">
+    <row r="473" spans="1:6" ht="12.75">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="2"/>
@@ -4395,7 +4458,7 @@
       <c r="E473" s="1"/>
       <c r="F473" s="2"/>
     </row>
-    <row r="474" spans="1:6" ht="13">
+    <row r="474" spans="1:6" ht="12.75">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="2"/>
@@ -4403,7 +4466,7 @@
       <c r="E474" s="1"/>
       <c r="F474" s="2"/>
     </row>
-    <row r="475" spans="1:6" ht="13">
+    <row r="475" spans="1:6" ht="12.75">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="2"/>
@@ -4411,7 +4474,7 @@
       <c r="E475" s="1"/>
       <c r="F475" s="2"/>
     </row>
-    <row r="476" spans="1:6" ht="13">
+    <row r="476" spans="1:6" ht="12.75">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="2"/>
@@ -4419,7 +4482,7 @@
       <c r="E476" s="1"/>
       <c r="F476" s="2"/>
     </row>
-    <row r="477" spans="1:6" ht="13">
+    <row r="477" spans="1:6" ht="12.75">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="2"/>
@@ -4427,7 +4490,7 @@
       <c r="E477" s="1"/>
       <c r="F477" s="2"/>
     </row>
-    <row r="478" spans="1:6" ht="13">
+    <row r="478" spans="1:6" ht="12.75">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="2"/>
@@ -4435,7 +4498,7 @@
       <c r="E478" s="1"/>
       <c r="F478" s="2"/>
     </row>
-    <row r="479" spans="1:6" ht="13">
+    <row r="479" spans="1:6" ht="12.75">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="2"/>
@@ -4443,7 +4506,7 @@
       <c r="E479" s="1"/>
       <c r="F479" s="2"/>
     </row>
-    <row r="480" spans="1:6" ht="13">
+    <row r="480" spans="1:6" ht="12.75">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="2"/>
@@ -4451,7 +4514,7 @@
       <c r="E480" s="1"/>
       <c r="F480" s="2"/>
     </row>
-    <row r="481" spans="1:6" ht="13">
+    <row r="481" spans="1:6" ht="12.75">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="2"/>
@@ -4459,7 +4522,7 @@
       <c r="E481" s="1"/>
       <c r="F481" s="2"/>
     </row>
-    <row r="482" spans="1:6" ht="13">
+    <row r="482" spans="1:6" ht="12.75">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="2"/>
@@ -4467,7 +4530,7 @@
       <c r="E482" s="1"/>
       <c r="F482" s="2"/>
     </row>
-    <row r="483" spans="1:6" ht="13">
+    <row r="483" spans="1:6" ht="12.75">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="2"/>
@@ -4475,7 +4538,7 @@
       <c r="E483" s="1"/>
       <c r="F483" s="2"/>
     </row>
-    <row r="484" spans="1:6" ht="13">
+    <row r="484" spans="1:6" ht="12.75">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="2"/>
@@ -4483,7 +4546,7 @@
       <c r="E484" s="1"/>
       <c r="F484" s="2"/>
     </row>
-    <row r="485" spans="1:6" ht="13">
+    <row r="485" spans="1:6" ht="12.75">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="2"/>
@@ -4491,7 +4554,7 @@
       <c r="E485" s="1"/>
       <c r="F485" s="2"/>
     </row>
-    <row r="486" spans="1:6" ht="13">
+    <row r="486" spans="1:6" ht="12.75">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="2"/>
@@ -4499,7 +4562,7 @@
       <c r="E486" s="1"/>
       <c r="F486" s="2"/>
     </row>
-    <row r="487" spans="1:6" ht="13">
+    <row r="487" spans="1:6" ht="12.75">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="2"/>
@@ -4507,7 +4570,7 @@
       <c r="E487" s="1"/>
       <c r="F487" s="2"/>
     </row>
-    <row r="488" spans="1:6" ht="13">
+    <row r="488" spans="1:6" ht="12.75">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="2"/>
@@ -4515,7 +4578,7 @@
       <c r="E488" s="1"/>
       <c r="F488" s="2"/>
     </row>
-    <row r="489" spans="1:6" ht="13">
+    <row r="489" spans="1:6" ht="12.75">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="2"/>
@@ -4523,7 +4586,7 @@
       <c r="E489" s="1"/>
       <c r="F489" s="2"/>
     </row>
-    <row r="490" spans="1:6" ht="13">
+    <row r="490" spans="1:6" ht="12.75">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="2"/>
@@ -4531,7 +4594,7 @@
       <c r="E490" s="1"/>
       <c r="F490" s="2"/>
     </row>
-    <row r="491" spans="1:6" ht="13">
+    <row r="491" spans="1:6" ht="12.75">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="2"/>
@@ -4539,7 +4602,7 @@
       <c r="E491" s="1"/>
       <c r="F491" s="2"/>
     </row>
-    <row r="492" spans="1:6" ht="13">
+    <row r="492" spans="1:6" ht="12.75">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="2"/>
@@ -4547,7 +4610,7 @@
       <c r="E492" s="1"/>
       <c r="F492" s="2"/>
     </row>
-    <row r="493" spans="1:6" ht="13">
+    <row r="493" spans="1:6" ht="12.75">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="2"/>
@@ -4555,7 +4618,7 @@
       <c r="E493" s="1"/>
       <c r="F493" s="2"/>
     </row>
-    <row r="494" spans="1:6" ht="13">
+    <row r="494" spans="1:6" ht="12.75">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="2"/>
@@ -4563,7 +4626,7 @@
       <c r="E494" s="1"/>
       <c r="F494" s="2"/>
     </row>
-    <row r="495" spans="1:6" ht="13">
+    <row r="495" spans="1:6" ht="12.75">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="2"/>
@@ -4571,7 +4634,7 @@
       <c r="E495" s="1"/>
       <c r="F495" s="2"/>
     </row>
-    <row r="496" spans="1:6" ht="13">
+    <row r="496" spans="1:6" ht="12.75">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="2"/>
@@ -4579,7 +4642,7 @@
       <c r="E496" s="1"/>
       <c r="F496" s="2"/>
     </row>
-    <row r="497" spans="1:6" ht="13">
+    <row r="497" spans="1:6" ht="12.75">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="2"/>
@@ -4587,7 +4650,7 @@
       <c r="E497" s="1"/>
       <c r="F497" s="2"/>
     </row>
-    <row r="498" spans="1:6" ht="13">
+    <row r="498" spans="1:6" ht="12.75">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="2"/>
@@ -4595,7 +4658,7 @@
       <c r="E498" s="1"/>
       <c r="F498" s="2"/>
     </row>
-    <row r="499" spans="1:6" ht="13">
+    <row r="499" spans="1:6" ht="12.75">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="2"/>
@@ -4603,7 +4666,7 @@
       <c r="E499" s="1"/>
       <c r="F499" s="2"/>
     </row>
-    <row r="500" spans="1:6" ht="13">
+    <row r="500" spans="1:6" ht="12.75">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="2"/>
@@ -4611,7 +4674,7 @@
       <c r="E500" s="1"/>
       <c r="F500" s="2"/>
     </row>
-    <row r="501" spans="1:6" ht="13">
+    <row r="501" spans="1:6" ht="12.75">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="2"/>
@@ -4619,7 +4682,7 @@
       <c r="E501" s="1"/>
       <c r="F501" s="2"/>
     </row>
-    <row r="502" spans="1:6" ht="13">
+    <row r="502" spans="1:6" ht="12.75">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="2"/>
@@ -4627,7 +4690,7 @@
       <c r="E502" s="1"/>
       <c r="F502" s="2"/>
     </row>
-    <row r="503" spans="1:6" ht="13">
+    <row r="503" spans="1:6" ht="12.75">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="2"/>
@@ -4635,7 +4698,7 @@
       <c r="E503" s="1"/>
       <c r="F503" s="2"/>
     </row>
-    <row r="504" spans="1:6" ht="13">
+    <row r="504" spans="1:6" ht="12.75">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="2"/>
@@ -4643,7 +4706,7 @@
       <c r="E504" s="1"/>
       <c r="F504" s="2"/>
     </row>
-    <row r="505" spans="1:6" ht="13">
+    <row r="505" spans="1:6" ht="12.75">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="2"/>
@@ -4651,7 +4714,7 @@
       <c r="E505" s="1"/>
       <c r="F505" s="2"/>
     </row>
-    <row r="506" spans="1:6" ht="13">
+    <row r="506" spans="1:6" ht="12.75">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="2"/>
@@ -4659,7 +4722,7 @@
       <c r="E506" s="1"/>
       <c r="F506" s="2"/>
     </row>
-    <row r="507" spans="1:6" ht="13">
+    <row r="507" spans="1:6" ht="12.75">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="2"/>
@@ -4667,7 +4730,7 @@
       <c r="E507" s="1"/>
       <c r="F507" s="2"/>
     </row>
-    <row r="508" spans="1:6" ht="13">
+    <row r="508" spans="1:6" ht="12.75">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="2"/>
@@ -4675,7 +4738,7 @@
       <c r="E508" s="1"/>
       <c r="F508" s="2"/>
     </row>
-    <row r="509" spans="1:6" ht="13">
+    <row r="509" spans="1:6" ht="12.75">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="2"/>
@@ -4683,7 +4746,7 @@
       <c r="E509" s="1"/>
       <c r="F509" s="2"/>
     </row>
-    <row r="510" spans="1:6" ht="13">
+    <row r="510" spans="1:6" ht="12.75">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="2"/>
@@ -4691,7 +4754,7 @@
       <c r="E510" s="1"/>
       <c r="F510" s="2"/>
     </row>
-    <row r="511" spans="1:6" ht="13">
+    <row r="511" spans="1:6" ht="12.75">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="2"/>
@@ -4699,7 +4762,7 @@
       <c r="E511" s="1"/>
       <c r="F511" s="2"/>
     </row>
-    <row r="512" spans="1:6" ht="13">
+    <row r="512" spans="1:6" ht="12.75">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="2"/>
@@ -4707,7 +4770,7 @@
       <c r="E512" s="1"/>
       <c r="F512" s="2"/>
     </row>
-    <row r="513" spans="1:6" ht="13">
+    <row r="513" spans="1:6" ht="12.75">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="2"/>
@@ -4715,7 +4778,7 @@
       <c r="E513" s="1"/>
       <c r="F513" s="2"/>
     </row>
-    <row r="514" spans="1:6" ht="13">
+    <row r="514" spans="1:6" ht="12.75">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="2"/>
@@ -4723,7 +4786,7 @@
       <c r="E514" s="1"/>
       <c r="F514" s="2"/>
     </row>
-    <row r="515" spans="1:6" ht="13">
+    <row r="515" spans="1:6" ht="12.75">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="2"/>
@@ -4731,7 +4794,7 @@
       <c r="E515" s="1"/>
       <c r="F515" s="2"/>
     </row>
-    <row r="516" spans="1:6" ht="13">
+    <row r="516" spans="1:6" ht="12.75">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="2"/>
@@ -4739,7 +4802,7 @@
       <c r="E516" s="1"/>
       <c r="F516" s="2"/>
     </row>
-    <row r="517" spans="1:6" ht="13">
+    <row r="517" spans="1:6" ht="12.75">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="2"/>
@@ -4747,7 +4810,7 @@
       <c r="E517" s="1"/>
       <c r="F517" s="2"/>
     </row>
-    <row r="518" spans="1:6" ht="13">
+    <row r="518" spans="1:6" ht="12.75">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="2"/>
@@ -4755,7 +4818,7 @@
       <c r="E518" s="1"/>
       <c r="F518" s="2"/>
     </row>
-    <row r="519" spans="1:6" ht="13">
+    <row r="519" spans="1:6" ht="12.75">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="2"/>
@@ -4763,7 +4826,7 @@
       <c r="E519" s="1"/>
       <c r="F519" s="2"/>
     </row>
-    <row r="520" spans="1:6" ht="13">
+    <row r="520" spans="1:6" ht="12.75">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="2"/>
@@ -4771,7 +4834,7 @@
       <c r="E520" s="1"/>
       <c r="F520" s="2"/>
     </row>
-    <row r="521" spans="1:6" ht="13">
+    <row r="521" spans="1:6" ht="12.75">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="2"/>
@@ -4779,7 +4842,7 @@
       <c r="E521" s="1"/>
       <c r="F521" s="2"/>
     </row>
-    <row r="522" spans="1:6" ht="13">
+    <row r="522" spans="1:6" ht="12.75">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="2"/>
@@ -4787,7 +4850,7 @@
       <c r="E522" s="1"/>
       <c r="F522" s="2"/>
     </row>
-    <row r="523" spans="1:6" ht="13">
+    <row r="523" spans="1:6" ht="12.75">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="2"/>
@@ -4795,7 +4858,7 @@
       <c r="E523" s="1"/>
       <c r="F523" s="2"/>
     </row>
-    <row r="524" spans="1:6" ht="13">
+    <row r="524" spans="1:6" ht="12.75">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="2"/>
@@ -4803,7 +4866,7 @@
       <c r="E524" s="1"/>
       <c r="F524" s="2"/>
     </row>
-    <row r="525" spans="1:6" ht="13">
+    <row r="525" spans="1:6" ht="12.75">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="2"/>
@@ -4811,7 +4874,7 @@
       <c r="E525" s="1"/>
       <c r="F525" s="2"/>
     </row>
-    <row r="526" spans="1:6" ht="13">
+    <row r="526" spans="1:6" ht="12.75">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="2"/>
@@ -4819,7 +4882,7 @@
       <c r="E526" s="1"/>
       <c r="F526" s="2"/>
     </row>
-    <row r="527" spans="1:6" ht="13">
+    <row r="527" spans="1:6" ht="12.75">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="2"/>
@@ -4827,7 +4890,7 @@
       <c r="E527" s="1"/>
       <c r="F527" s="2"/>
     </row>
-    <row r="528" spans="1:6" ht="13">
+    <row r="528" spans="1:6" ht="12.75">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="2"/>
@@ -4835,7 +4898,7 @@
       <c r="E528" s="1"/>
       <c r="F528" s="2"/>
     </row>
-    <row r="529" spans="1:6" ht="13">
+    <row r="529" spans="1:6" ht="12.75">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="2"/>
@@ -4843,7 +4906,7 @@
       <c r="E529" s="1"/>
       <c r="F529" s="2"/>
     </row>
-    <row r="530" spans="1:6" ht="13">
+    <row r="530" spans="1:6" ht="12.75">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="2"/>
@@ -4851,7 +4914,7 @@
       <c r="E530" s="1"/>
       <c r="F530" s="2"/>
     </row>
-    <row r="531" spans="1:6" ht="13">
+    <row r="531" spans="1:6" ht="12.75">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="2"/>
@@ -4859,7 +4922,7 @@
       <c r="E531" s="1"/>
       <c r="F531" s="2"/>
     </row>
-    <row r="532" spans="1:6" ht="13">
+    <row r="532" spans="1:6" ht="12.75">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="2"/>
@@ -4867,7 +4930,7 @@
       <c r="E532" s="1"/>
       <c r="F532" s="2"/>
     </row>
-    <row r="533" spans="1:6" ht="13">
+    <row r="533" spans="1:6" ht="12.75">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="2"/>
@@ -4875,7 +4938,7 @@
       <c r="E533" s="1"/>
       <c r="F533" s="2"/>
     </row>
-    <row r="534" spans="1:6" ht="13">
+    <row r="534" spans="1:6" ht="12.75">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="2"/>
@@ -4883,7 +4946,7 @@
       <c r="E534" s="1"/>
       <c r="F534" s="2"/>
     </row>
-    <row r="535" spans="1:6" ht="13">
+    <row r="535" spans="1:6" ht="12.75">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="2"/>
@@ -4891,7 +4954,7 @@
       <c r="E535" s="1"/>
       <c r="F535" s="2"/>
     </row>
-    <row r="536" spans="1:6" ht="13">
+    <row r="536" spans="1:6" ht="12.75">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="2"/>
@@ -4899,7 +4962,7 @@
       <c r="E536" s="1"/>
       <c r="F536" s="2"/>
     </row>
-    <row r="537" spans="1:6" ht="13">
+    <row r="537" spans="1:6" ht="12.75">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="2"/>
@@ -4907,7 +4970,7 @@
       <c r="E537" s="1"/>
       <c r="F537" s="2"/>
     </row>
-    <row r="538" spans="1:6" ht="13">
+    <row r="538" spans="1:6" ht="12.75">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="2"/>
@@ -4915,7 +4978,7 @@
       <c r="E538" s="1"/>
       <c r="F538" s="2"/>
     </row>
-    <row r="539" spans="1:6" ht="13">
+    <row r="539" spans="1:6" ht="12.75">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="2"/>
@@ -4923,7 +4986,7 @@
       <c r="E539" s="1"/>
       <c r="F539" s="2"/>
     </row>
-    <row r="540" spans="1:6" ht="13">
+    <row r="540" spans="1:6" ht="12.75">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="2"/>
@@ -4931,7 +4994,7 @@
       <c r="E540" s="1"/>
       <c r="F540" s="2"/>
     </row>
-    <row r="541" spans="1:6" ht="13">
+    <row r="541" spans="1:6" ht="12.75">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="2"/>
@@ -4939,7 +5002,7 @@
       <c r="E541" s="1"/>
       <c r="F541" s="2"/>
     </row>
-    <row r="542" spans="1:6" ht="13">
+    <row r="542" spans="1:6" ht="12.75">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="2"/>
@@ -4947,7 +5010,7 @@
       <c r="E542" s="1"/>
       <c r="F542" s="2"/>
     </row>
-    <row r="543" spans="1:6" ht="13">
+    <row r="543" spans="1:6" ht="12.75">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="2"/>
@@ -4955,7 +5018,7 @@
       <c r="E543" s="1"/>
       <c r="F543" s="2"/>
     </row>
-    <row r="544" spans="1:6" ht="13">
+    <row r="544" spans="1:6" ht="12.75">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="2"/>
@@ -4963,7 +5026,7 @@
       <c r="E544" s="1"/>
       <c r="F544" s="2"/>
     </row>
-    <row r="545" spans="1:6" ht="13">
+    <row r="545" spans="1:6" ht="12.75">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="2"/>
@@ -4971,7 +5034,7 @@
       <c r="E545" s="1"/>
       <c r="F545" s="2"/>
     </row>
-    <row r="546" spans="1:6" ht="13">
+    <row r="546" spans="1:6" ht="12.75">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="2"/>
@@ -4979,7 +5042,7 @@
       <c r="E546" s="1"/>
       <c r="F546" s="2"/>
     </row>
-    <row r="547" spans="1:6" ht="13">
+    <row r="547" spans="1:6" ht="12.75">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="2"/>
@@ -4987,7 +5050,7 @@
       <c r="E547" s="1"/>
       <c r="F547" s="2"/>
     </row>
-    <row r="548" spans="1:6" ht="13">
+    <row r="548" spans="1:6" ht="12.75">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="2"/>
@@ -4995,7 +5058,7 @@
       <c r="E548" s="1"/>
       <c r="F548" s="2"/>
     </row>
-    <row r="549" spans="1:6" ht="13">
+    <row r="549" spans="1:6" ht="12.75">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="2"/>
@@ -5003,7 +5066,7 @@
       <c r="E549" s="1"/>
       <c r="F549" s="2"/>
     </row>
-    <row r="550" spans="1:6" ht="13">
+    <row r="550" spans="1:6" ht="12.75">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="2"/>
@@ -5011,7 +5074,7 @@
       <c r="E550" s="1"/>
       <c r="F550" s="2"/>
     </row>
-    <row r="551" spans="1:6" ht="13">
+    <row r="551" spans="1:6" ht="12.75">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="2"/>
@@ -5019,7 +5082,7 @@
       <c r="E551" s="1"/>
       <c r="F551" s="2"/>
     </row>
-    <row r="552" spans="1:6" ht="13">
+    <row r="552" spans="1:6" ht="12.75">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="2"/>
@@ -5027,7 +5090,7 @@
       <c r="E552" s="1"/>
       <c r="F552" s="2"/>
     </row>
-    <row r="553" spans="1:6" ht="13">
+    <row r="553" spans="1:6" ht="12.75">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="2"/>
@@ -5035,7 +5098,7 @@
       <c r="E553" s="1"/>
       <c r="F553" s="2"/>
     </row>
-    <row r="554" spans="1:6" ht="13">
+    <row r="554" spans="1:6" ht="12.75">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="2"/>
@@ -5043,7 +5106,7 @@
       <c r="E554" s="1"/>
       <c r="F554" s="2"/>
     </row>
-    <row r="555" spans="1:6" ht="13">
+    <row r="555" spans="1:6" ht="12.75">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="2"/>
@@ -5051,7 +5114,7 @@
       <c r="E555" s="1"/>
       <c r="F555" s="2"/>
     </row>
-    <row r="556" spans="1:6" ht="13">
+    <row r="556" spans="1:6" ht="12.75">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="2"/>
@@ -5059,7 +5122,7 @@
       <c r="E556" s="1"/>
       <c r="F556" s="2"/>
     </row>
-    <row r="557" spans="1:6" ht="13">
+    <row r="557" spans="1:6" ht="12.75">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="2"/>
@@ -5067,7 +5130,7 @@
       <c r="E557" s="1"/>
       <c r="F557" s="2"/>
     </row>
-    <row r="558" spans="1:6" ht="13">
+    <row r="558" spans="1:6" ht="12.75">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="2"/>
@@ -5075,7 +5138,7 @@
       <c r="E558" s="1"/>
       <c r="F558" s="2"/>
     </row>
-    <row r="559" spans="1:6" ht="13">
+    <row r="559" spans="1:6" ht="12.75">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="2"/>
@@ -5083,7 +5146,7 @@
       <c r="E559" s="1"/>
       <c r="F559" s="2"/>
     </row>
-    <row r="560" spans="1:6" ht="13">
+    <row r="560" spans="1:6" ht="12.75">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="2"/>
@@ -5091,7 +5154,7 @@
       <c r="E560" s="1"/>
       <c r="F560" s="2"/>
     </row>
-    <row r="561" spans="1:6" ht="13">
+    <row r="561" spans="1:6" ht="12.75">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="2"/>
@@ -5099,7 +5162,7 @@
       <c r="E561" s="1"/>
       <c r="F561" s="2"/>
     </row>
-    <row r="562" spans="1:6" ht="13">
+    <row r="562" spans="1:6" ht="12.75">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="2"/>
@@ -5107,7 +5170,7 @@
       <c r="E562" s="1"/>
       <c r="F562" s="2"/>
     </row>
-    <row r="563" spans="1:6" ht="13">
+    <row r="563" spans="1:6" ht="12.75">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="2"/>
@@ -5115,7 +5178,7 @@
       <c r="E563" s="1"/>
       <c r="F563" s="2"/>
     </row>
-    <row r="564" spans="1:6" ht="13">
+    <row r="564" spans="1:6" ht="12.75">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="2"/>
@@ -5123,7 +5186,7 @@
       <c r="E564" s="1"/>
       <c r="F564" s="2"/>
     </row>
-    <row r="565" spans="1:6" ht="13">
+    <row r="565" spans="1:6" ht="12.75">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="2"/>
@@ -5131,7 +5194,7 @@
       <c r="E565" s="1"/>
       <c r="F565" s="2"/>
     </row>
-    <row r="566" spans="1:6" ht="13">
+    <row r="566" spans="1:6" ht="12.75">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="2"/>
@@ -5139,7 +5202,7 @@
       <c r="E566" s="1"/>
       <c r="F566" s="2"/>
     </row>
-    <row r="567" spans="1:6" ht="13">
+    <row r="567" spans="1:6" ht="12.75">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="2"/>
@@ -5147,7 +5210,7 @@
       <c r="E567" s="1"/>
       <c r="F567" s="2"/>
     </row>
-    <row r="568" spans="1:6" ht="13">
+    <row r="568" spans="1:6" ht="12.75">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="2"/>
@@ -5155,7 +5218,7 @@
       <c r="E568" s="1"/>
       <c r="F568" s="2"/>
     </row>
-    <row r="569" spans="1:6" ht="13">
+    <row r="569" spans="1:6" ht="12.75">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="2"/>
@@ -5163,7 +5226,7 @@
       <c r="E569" s="1"/>
       <c r="F569" s="2"/>
     </row>
-    <row r="570" spans="1:6" ht="13">
+    <row r="570" spans="1:6" ht="12.75">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="2"/>
@@ -5171,7 +5234,7 @@
       <c r="E570" s="1"/>
       <c r="F570" s="2"/>
     </row>
-    <row r="571" spans="1:6" ht="13">
+    <row r="571" spans="1:6" ht="12.75">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="2"/>
@@ -5179,7 +5242,7 @@
       <c r="E571" s="1"/>
       <c r="F571" s="2"/>
     </row>
-    <row r="572" spans="1:6" ht="13">
+    <row r="572" spans="1:6" ht="12.75">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="2"/>
@@ -5187,7 +5250,7 @@
       <c r="E572" s="1"/>
       <c r="F572" s="2"/>
     </row>
-    <row r="573" spans="1:6" ht="13">
+    <row r="573" spans="1:6" ht="12.75">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="2"/>
@@ -5195,7 +5258,7 @@
       <c r="E573" s="1"/>
       <c r="F573" s="2"/>
     </row>
-    <row r="574" spans="1:6" ht="13">
+    <row r="574" spans="1:6" ht="12.75">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="2"/>
@@ -5203,7 +5266,7 @@
       <c r="E574" s="1"/>
       <c r="F574" s="2"/>
     </row>
-    <row r="575" spans="1:6" ht="13">
+    <row r="575" spans="1:6" ht="12.75">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="2"/>
@@ -5211,7 +5274,7 @@
       <c r="E575" s="1"/>
       <c r="F575" s="2"/>
     </row>
-    <row r="576" spans="1:6" ht="13">
+    <row r="576" spans="1:6" ht="12.75">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="2"/>
@@ -5219,7 +5282,7 @@
       <c r="E576" s="1"/>
       <c r="F576" s="2"/>
     </row>
-    <row r="577" spans="1:6" ht="13">
+    <row r="577" spans="1:6" ht="12.75">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="2"/>
@@ -5227,7 +5290,7 @@
       <c r="E577" s="1"/>
       <c r="F577" s="2"/>
     </row>
-    <row r="578" spans="1:6" ht="13">
+    <row r="578" spans="1:6" ht="12.75">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="2"/>
@@ -5235,7 +5298,7 @@
       <c r="E578" s="1"/>
       <c r="F578" s="2"/>
     </row>
-    <row r="579" spans="1:6" ht="13">
+    <row r="579" spans="1:6" ht="12.75">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="2"/>
@@ -5243,7 +5306,7 @@
       <c r="E579" s="1"/>
       <c r="F579" s="2"/>
     </row>
-    <row r="580" spans="1:6" ht="13">
+    <row r="580" spans="1:6" ht="12.75">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="2"/>
@@ -5251,7 +5314,7 @@
       <c r="E580" s="1"/>
       <c r="F580" s="2"/>
     </row>
-    <row r="581" spans="1:6" ht="13">
+    <row r="581" spans="1:6" ht="12.75">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="2"/>
@@ -5259,7 +5322,7 @@
       <c r="E581" s="1"/>
       <c r="F581" s="2"/>
     </row>
-    <row r="582" spans="1:6" ht="13">
+    <row r="582" spans="1:6" ht="12.75">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="2"/>
@@ -5267,7 +5330,7 @@
       <c r="E582" s="1"/>
       <c r="F582" s="2"/>
     </row>
-    <row r="583" spans="1:6" ht="13">
+    <row r="583" spans="1:6" ht="12.75">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="2"/>
@@ -5275,7 +5338,7 @@
       <c r="E583" s="1"/>
       <c r="F583" s="2"/>
     </row>
-    <row r="584" spans="1:6" ht="13">
+    <row r="584" spans="1:6" ht="12.75">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="2"/>
@@ -5283,7 +5346,7 @@
       <c r="E584" s="1"/>
       <c r="F584" s="2"/>
     </row>
-    <row r="585" spans="1:6" ht="13">
+    <row r="585" spans="1:6" ht="12.75">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="2"/>
@@ -5291,7 +5354,7 @@
       <c r="E585" s="1"/>
       <c r="F585" s="2"/>
     </row>
-    <row r="586" spans="1:6" ht="13">
+    <row r="586" spans="1:6" ht="12.75">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="2"/>
@@ -5299,7 +5362,7 @@
       <c r="E586" s="1"/>
       <c r="F586" s="2"/>
     </row>
-    <row r="587" spans="1:6" ht="13">
+    <row r="587" spans="1:6" ht="12.75">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="2"/>
@@ -5307,7 +5370,7 @@
       <c r="E587" s="1"/>
       <c r="F587" s="2"/>
     </row>
-    <row r="588" spans="1:6" ht="13">
+    <row r="588" spans="1:6" ht="12.75">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="2"/>
@@ -5315,7 +5378,7 @@
       <c r="E588" s="1"/>
       <c r="F588" s="2"/>
     </row>
-    <row r="589" spans="1:6" ht="13">
+    <row r="589" spans="1:6" ht="12.75">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="2"/>
@@ -5323,7 +5386,7 @@
       <c r="E589" s="1"/>
       <c r="F589" s="2"/>
     </row>
-    <row r="590" spans="1:6" ht="13">
+    <row r="590" spans="1:6" ht="12.75">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="2"/>
@@ -5331,7 +5394,7 @@
       <c r="E590" s="1"/>
       <c r="F590" s="2"/>
     </row>
-    <row r="591" spans="1:6" ht="13">
+    <row r="591" spans="1:6" ht="12.75">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="2"/>
@@ -5339,7 +5402,7 @@
       <c r="E591" s="1"/>
       <c r="F591" s="2"/>
     </row>
-    <row r="592" spans="1:6" ht="13">
+    <row r="592" spans="1:6" ht="12.75">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="2"/>
@@ -5347,7 +5410,7 @@
       <c r="E592" s="1"/>
       <c r="F592" s="2"/>
     </row>
-    <row r="593" spans="1:6" ht="13">
+    <row r="593" spans="1:6" ht="12.75">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="2"/>
@@ -5355,7 +5418,7 @@
       <c r="E593" s="1"/>
       <c r="F593" s="2"/>
     </row>
-    <row r="594" spans="1:6" ht="13">
+    <row r="594" spans="1:6" ht="12.75">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="2"/>
@@ -5363,7 +5426,7 @@
       <c r="E594" s="1"/>
       <c r="F594" s="2"/>
     </row>
-    <row r="595" spans="1:6" ht="13">
+    <row r="595" spans="1:6" ht="12.75">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="2"/>
@@ -5371,7 +5434,7 @@
       <c r="E595" s="1"/>
       <c r="F595" s="2"/>
     </row>
-    <row r="596" spans="1:6" ht="13">
+    <row r="596" spans="1:6" ht="12.75">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="2"/>
@@ -5379,7 +5442,7 @@
       <c r="E596" s="1"/>
       <c r="F596" s="2"/>
     </row>
-    <row r="597" spans="1:6" ht="13">
+    <row r="597" spans="1:6" ht="12.75">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="2"/>
@@ -5387,7 +5450,7 @@
       <c r="E597" s="1"/>
       <c r="F597" s="2"/>
     </row>
-    <row r="598" spans="1:6" ht="13">
+    <row r="598" spans="1:6" ht="12.75">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="2"/>
@@ -5395,7 +5458,7 @@
       <c r="E598" s="1"/>
       <c r="F598" s="2"/>
     </row>
-    <row r="599" spans="1:6" ht="13">
+    <row r="599" spans="1:6" ht="12.75">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="2"/>
@@ -5403,7 +5466,7 @@
       <c r="E599" s="1"/>
       <c r="F599" s="2"/>
     </row>
-    <row r="600" spans="1:6" ht="13">
+    <row r="600" spans="1:6" ht="12.75">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="2"/>
@@ -5411,7 +5474,7 @@
       <c r="E600" s="1"/>
       <c r="F600" s="2"/>
     </row>
-    <row r="601" spans="1:6" ht="13">
+    <row r="601" spans="1:6" ht="12.75">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="2"/>
@@ -5419,7 +5482,7 @@
       <c r="E601" s="1"/>
       <c r="F601" s="2"/>
     </row>
-    <row r="602" spans="1:6" ht="13">
+    <row r="602" spans="1:6" ht="12.75">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="2"/>
@@ -5427,7 +5490,7 @@
       <c r="E602" s="1"/>
       <c r="F602" s="2"/>
     </row>
-    <row r="603" spans="1:6" ht="13">
+    <row r="603" spans="1:6" ht="12.75">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="2"/>
@@ -5435,7 +5498,7 @@
       <c r="E603" s="1"/>
       <c r="F603" s="2"/>
     </row>
-    <row r="604" spans="1:6" ht="13">
+    <row r="604" spans="1:6" ht="12.75">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="2"/>
@@ -5443,7 +5506,7 @@
       <c r="E604" s="1"/>
       <c r="F604" s="2"/>
     </row>
-    <row r="605" spans="1:6" ht="13">
+    <row r="605" spans="1:6" ht="12.75">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="2"/>
@@ -5451,7 +5514,7 @@
       <c r="E605" s="1"/>
       <c r="F605" s="2"/>
     </row>
-    <row r="606" spans="1:6" ht="13">
+    <row r="606" spans="1:6" ht="12.75">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="2"/>
@@ -5459,7 +5522,7 @@
       <c r="E606" s="1"/>
       <c r="F606" s="2"/>
     </row>
-    <row r="607" spans="1:6" ht="13">
+    <row r="607" spans="1:6" ht="12.75">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="2"/>
@@ -5467,7 +5530,7 @@
       <c r="E607" s="1"/>
       <c r="F607" s="2"/>
     </row>
-    <row r="608" spans="1:6" ht="13">
+    <row r="608" spans="1:6" ht="12.75">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="2"/>
@@ -5475,7 +5538,7 @@
       <c r="E608" s="1"/>
       <c r="F608" s="2"/>
     </row>
-    <row r="609" spans="1:6" ht="13">
+    <row r="609" spans="1:6" ht="12.75">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="2"/>
@@ -5483,7 +5546,7 @@
       <c r="E609" s="1"/>
       <c r="F609" s="2"/>
     </row>
-    <row r="610" spans="1:6" ht="13">
+    <row r="610" spans="1:6" ht="12.75">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="2"/>
@@ -5491,7 +5554,7 @@
       <c r="E610" s="1"/>
       <c r="F610" s="2"/>
     </row>
-    <row r="611" spans="1:6" ht="13">
+    <row r="611" spans="1:6" ht="12.75">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="2"/>
@@ -5499,7 +5562,7 @@
       <c r="E611" s="1"/>
       <c r="F611" s="2"/>
     </row>
-    <row r="612" spans="1:6" ht="13">
+    <row r="612" spans="1:6" ht="12.75">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="2"/>
@@ -5507,7 +5570,7 @@
       <c r="E612" s="1"/>
       <c r="F612" s="2"/>
     </row>
-    <row r="613" spans="1:6" ht="13">
+    <row r="613" spans="1:6" ht="12.75">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="2"/>
@@ -5515,7 +5578,7 @@
       <c r="E613" s="1"/>
       <c r="F613" s="2"/>
     </row>
-    <row r="614" spans="1:6" ht="13">
+    <row r="614" spans="1:6" ht="12.75">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="2"/>
@@ -5523,7 +5586,7 @@
       <c r="E614" s="1"/>
       <c r="F614" s="2"/>
     </row>
-    <row r="615" spans="1:6" ht="13">
+    <row r="615" spans="1:6" ht="12.75">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="2"/>
@@ -5531,7 +5594,7 @@
       <c r="E615" s="1"/>
       <c r="F615" s="2"/>
     </row>
-    <row r="616" spans="1:6" ht="13">
+    <row r="616" spans="1:6" ht="12.75">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="2"/>
@@ -5539,7 +5602,7 @@
       <c r="E616" s="1"/>
       <c r="F616" s="2"/>
     </row>
-    <row r="617" spans="1:6" ht="13">
+    <row r="617" spans="1:6" ht="12.75">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="2"/>
@@ -5547,7 +5610,7 @@
       <c r="E617" s="1"/>
       <c r="F617" s="2"/>
     </row>
-    <row r="618" spans="1:6" ht="13">
+    <row r="618" spans="1:6" ht="12.75">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="2"/>
@@ -5555,7 +5618,7 @@
       <c r="E618" s="1"/>
       <c r="F618" s="2"/>
     </row>
-    <row r="619" spans="1:6" ht="13">
+    <row r="619" spans="1:6" ht="12.75">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="2"/>
@@ -5563,7 +5626,7 @@
       <c r="E619" s="1"/>
       <c r="F619" s="2"/>
     </row>
-    <row r="620" spans="1:6" ht="13">
+    <row r="620" spans="1:6" ht="12.75">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="2"/>
@@ -5571,7 +5634,7 @@
       <c r="E620" s="1"/>
       <c r="F620" s="2"/>
     </row>
-    <row r="621" spans="1:6" ht="13">
+    <row r="621" spans="1:6" ht="12.75">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="2"/>
@@ -5579,7 +5642,7 @@
       <c r="E621" s="1"/>
       <c r="F621" s="2"/>
     </row>
-    <row r="622" spans="1:6" ht="13">
+    <row r="622" spans="1:6" ht="12.75">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="2"/>
@@ -5587,7 +5650,7 @@
       <c r="E622" s="1"/>
       <c r="F622" s="2"/>
     </row>
-    <row r="623" spans="1:6" ht="13">
+    <row r="623" spans="1:6" ht="12.75">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="2"/>
@@ -5595,7 +5658,7 @@
       <c r="E623" s="1"/>
       <c r="F623" s="2"/>
     </row>
-    <row r="624" spans="1:6" ht="13">
+    <row r="624" spans="1:6" ht="12.75">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="2"/>
@@ -5603,7 +5666,7 @@
       <c r="E624" s="1"/>
       <c r="F624" s="2"/>
     </row>
-    <row r="625" spans="1:6" ht="13">
+    <row r="625" spans="1:6" ht="12.75">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="2"/>
@@ -5611,7 +5674,7 @@
       <c r="E625" s="1"/>
       <c r="F625" s="2"/>
     </row>
-    <row r="626" spans="1:6" ht="13">
+    <row r="626" spans="1:6" ht="12.75">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="2"/>
@@ -5619,7 +5682,7 @@
       <c r="E626" s="1"/>
       <c r="F626" s="2"/>
     </row>
-    <row r="627" spans="1:6" ht="13">
+    <row r="627" spans="1:6" ht="12.75">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="2"/>
@@ -5627,7 +5690,7 @@
       <c r="E627" s="1"/>
       <c r="F627" s="2"/>
     </row>
-    <row r="628" spans="1:6" ht="13">
+    <row r="628" spans="1:6" ht="12.75">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="2"/>
@@ -5635,7 +5698,7 @@
       <c r="E628" s="1"/>
       <c r="F628" s="2"/>
     </row>
-    <row r="629" spans="1:6" ht="13">
+    <row r="629" spans="1:6" ht="12.75">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="2"/>
@@ -5643,7 +5706,7 @@
       <c r="E629" s="1"/>
       <c r="F629" s="2"/>
     </row>
-    <row r="630" spans="1:6" ht="13">
+    <row r="630" spans="1:6" ht="12.75">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="2"/>
@@ -5651,7 +5714,7 @@
       <c r="E630" s="1"/>
       <c r="F630" s="2"/>
     </row>
-    <row r="631" spans="1:6" ht="13">
+    <row r="631" spans="1:6" ht="12.75">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="2"/>
@@ -5659,7 +5722,7 @@
       <c r="E631" s="1"/>
       <c r="F631" s="2"/>
     </row>
-    <row r="632" spans="1:6" ht="13">
+    <row r="632" spans="1:6" ht="12.75">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="2"/>
@@ -5667,7 +5730,7 @@
       <c r="E632" s="1"/>
       <c r="F632" s="2"/>
     </row>
-    <row r="633" spans="1:6" ht="13">
+    <row r="633" spans="1:6" ht="12.75">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="2"/>
@@ -5675,7 +5738,7 @@
       <c r="E633" s="1"/>
       <c r="F633" s="2"/>
     </row>
-    <row r="634" spans="1:6" ht="13">
+    <row r="634" spans="1:6" ht="12.75">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="2"/>
@@ -5683,7 +5746,7 @@
       <c r="E634" s="1"/>
       <c r="F634" s="2"/>
     </row>
-    <row r="635" spans="1:6" ht="13">
+    <row r="635" spans="1:6" ht="12.75">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="2"/>
@@ -5691,7 +5754,7 @@
       <c r="E635" s="1"/>
       <c r="F635" s="2"/>
     </row>
-    <row r="636" spans="1:6" ht="13">
+    <row r="636" spans="1:6" ht="12.75">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="2"/>
@@ -5699,7 +5762,7 @@
       <c r="E636" s="1"/>
       <c r="F636" s="2"/>
     </row>
-    <row r="637" spans="1:6" ht="13">
+    <row r="637" spans="1:6" ht="12.75">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="2"/>
@@ -5707,7 +5770,7 @@
       <c r="E637" s="1"/>
       <c r="F637" s="2"/>
     </row>
-    <row r="638" spans="1:6" ht="13">
+    <row r="638" spans="1:6" ht="12.75">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="2"/>
@@ -5715,7 +5778,7 @@
       <c r="E638" s="1"/>
       <c r="F638" s="2"/>
     </row>
-    <row r="639" spans="1:6" ht="13">
+    <row r="639" spans="1:6" ht="12.75">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="2"/>
@@ -5723,7 +5786,7 @@
       <c r="E639" s="1"/>
       <c r="F639" s="2"/>
     </row>
-    <row r="640" spans="1:6" ht="13">
+    <row r="640" spans="1:6" ht="12.75">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="2"/>
@@ -5731,7 +5794,7 @@
       <c r="E640" s="1"/>
       <c r="F640" s="2"/>
     </row>
-    <row r="641" spans="1:6" ht="13">
+    <row r="641" spans="1:6" ht="12.75">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="2"/>
@@ -5739,7 +5802,7 @@
       <c r="E641" s="1"/>
       <c r="F641" s="2"/>
     </row>
-    <row r="642" spans="1:6" ht="13">
+    <row r="642" spans="1:6" ht="12.75">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="2"/>
@@ -5747,7 +5810,7 @@
       <c r="E642" s="1"/>
       <c r="F642" s="2"/>
     </row>
-    <row r="643" spans="1:6" ht="13">
+    <row r="643" spans="1:6" ht="12.75">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="2"/>
@@ -5755,7 +5818,7 @@
       <c r="E643" s="1"/>
       <c r="F643" s="2"/>
     </row>
-    <row r="644" spans="1:6" ht="13">
+    <row r="644" spans="1:6" ht="12.75">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="2"/>
@@ -5763,7 +5826,7 @@
       <c r="E644" s="1"/>
       <c r="F644" s="2"/>
     </row>
-    <row r="645" spans="1:6" ht="13">
+    <row r="645" spans="1:6" ht="12.75">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="2"/>
@@ -5771,7 +5834,7 @@
       <c r="E645" s="1"/>
       <c r="F645" s="2"/>
     </row>
-    <row r="646" spans="1:6" ht="13">
+    <row r="646" spans="1:6" ht="12.75">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="2"/>
@@ -5779,7 +5842,7 @@
       <c r="E646" s="1"/>
       <c r="F646" s="2"/>
     </row>
-    <row r="647" spans="1:6" ht="13">
+    <row r="647" spans="1:6" ht="12.75">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="2"/>
@@ -5787,7 +5850,7 @@
       <c r="E647" s="1"/>
       <c r="F647" s="2"/>
     </row>
-    <row r="648" spans="1:6" ht="13">
+    <row r="648" spans="1:6" ht="12.75">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="2"/>
@@ -5795,7 +5858,7 @@
       <c r="E648" s="1"/>
       <c r="F648" s="2"/>
     </row>
-    <row r="649" spans="1:6" ht="13">
+    <row r="649" spans="1:6" ht="12.75">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="2"/>
@@ -5803,7 +5866,7 @@
       <c r="E649" s="1"/>
       <c r="F649" s="2"/>
     </row>
-    <row r="650" spans="1:6" ht="13">
+    <row r="650" spans="1:6" ht="12.75">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="2"/>
@@ -5811,7 +5874,7 @@
       <c r="E650" s="1"/>
       <c r="F650" s="2"/>
     </row>
-    <row r="651" spans="1:6" ht="13">
+    <row r="651" spans="1:6" ht="12.75">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="2"/>
@@ -5819,7 +5882,7 @@
       <c r="E651" s="1"/>
       <c r="F651" s="2"/>
     </row>
-    <row r="652" spans="1:6" ht="13">
+    <row r="652" spans="1:6" ht="12.75">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="2"/>
@@ -5827,7 +5890,7 @@
       <c r="E652" s="1"/>
       <c r="F652" s="2"/>
     </row>
-    <row r="653" spans="1:6" ht="13">
+    <row r="653" spans="1:6" ht="12.75">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="2"/>
@@ -5835,7 +5898,7 @@
       <c r="E653" s="1"/>
       <c r="F653" s="2"/>
     </row>
-    <row r="654" spans="1:6" ht="13">
+    <row r="654" spans="1:6" ht="12.75">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="2"/>
@@ -5843,7 +5906,7 @@
       <c r="E654" s="1"/>
       <c r="F654" s="2"/>
     </row>
-    <row r="655" spans="1:6" ht="13">
+    <row r="655" spans="1:6" ht="12.75">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="2"/>
@@ -5851,7 +5914,7 @@
       <c r="E655" s="1"/>
       <c r="F655" s="2"/>
     </row>
-    <row r="656" spans="1:6" ht="13">
+    <row r="656" spans="1:6" ht="12.75">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="2"/>
@@ -5859,7 +5922,7 @@
       <c r="E656" s="1"/>
       <c r="F656" s="2"/>
     </row>
-    <row r="657" spans="1:6" ht="13">
+    <row r="657" spans="1:6" ht="12.75">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="2"/>
@@ -5867,7 +5930,7 @@
       <c r="E657" s="1"/>
       <c r="F657" s="2"/>
     </row>
-    <row r="658" spans="1:6" ht="13">
+    <row r="658" spans="1:6" ht="12.75">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="2"/>
@@ -5875,7 +5938,7 @@
       <c r="E658" s="1"/>
       <c r="F658" s="2"/>
     </row>
-    <row r="659" spans="1:6" ht="13">
+    <row r="659" spans="1:6" ht="12.75">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="2"/>
@@ -5883,7 +5946,7 @@
       <c r="E659" s="1"/>
       <c r="F659" s="2"/>
     </row>
-    <row r="660" spans="1:6" ht="13">
+    <row r="660" spans="1:6" ht="12.75">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="2"/>
@@ -5891,7 +5954,7 @@
       <c r="E660" s="1"/>
       <c r="F660" s="2"/>
     </row>
-    <row r="661" spans="1:6" ht="13">
+    <row r="661" spans="1:6" ht="12.75">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="2"/>
@@ -5899,7 +5962,7 @@
       <c r="E661" s="1"/>
       <c r="F661" s="2"/>
     </row>
-    <row r="662" spans="1:6" ht="13">
+    <row r="662" spans="1:6" ht="12.75">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="2"/>
@@ -5907,7 +5970,7 @@
       <c r="E662" s="1"/>
       <c r="F662" s="2"/>
     </row>
-    <row r="663" spans="1:6" ht="13">
+    <row r="663" spans="1:6" ht="12.75">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="2"/>
@@ -5915,7 +5978,7 @@
       <c r="E663" s="1"/>
       <c r="F663" s="2"/>
     </row>
-    <row r="664" spans="1:6" ht="13">
+    <row r="664" spans="1:6" ht="12.75">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="2"/>
@@ -5923,7 +5986,7 @@
       <c r="E664" s="1"/>
       <c r="F664" s="2"/>
     </row>
-    <row r="665" spans="1:6" ht="13">
+    <row r="665" spans="1:6" ht="12.75">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="2"/>
@@ -5931,7 +5994,7 @@
       <c r="E665" s="1"/>
       <c r="F665" s="2"/>
     </row>
-    <row r="666" spans="1:6" ht="13">
+    <row r="666" spans="1:6" ht="12.75">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="2"/>
@@ -5939,7 +6002,7 @@
       <c r="E666" s="1"/>
       <c r="F666" s="2"/>
     </row>
-    <row r="667" spans="1:6" ht="13">
+    <row r="667" spans="1:6" ht="12.75">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="2"/>
@@ -5947,7 +6010,7 @@
       <c r="E667" s="1"/>
       <c r="F667" s="2"/>
     </row>
-    <row r="668" spans="1:6" ht="13">
+    <row r="668" spans="1:6" ht="12.75">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="2"/>
@@ -5955,7 +6018,7 @@
       <c r="E668" s="1"/>
       <c r="F668" s="2"/>
     </row>
-    <row r="669" spans="1:6" ht="13">
+    <row r="669" spans="1:6" ht="12.75">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="2"/>
@@ -5963,7 +6026,7 @@
       <c r="E669" s="1"/>
       <c r="F669" s="2"/>
     </row>
-    <row r="670" spans="1:6" ht="13">
+    <row r="670" spans="1:6" ht="12.75">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="2"/>
@@ -5971,7 +6034,7 @@
       <c r="E670" s="1"/>
       <c r="F670" s="2"/>
     </row>
-    <row r="671" spans="1:6" ht="13">
+    <row r="671" spans="1:6" ht="12.75">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="2"/>
@@ -5979,7 +6042,7 @@
       <c r="E671" s="1"/>
       <c r="F671" s="2"/>
     </row>
-    <row r="672" spans="1:6" ht="13">
+    <row r="672" spans="1:6" ht="12.75">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="2"/>
@@ -5987,7 +6050,7 @@
       <c r="E672" s="1"/>
       <c r="F672" s="2"/>
     </row>
-    <row r="673" spans="1:6" ht="13">
+    <row r="673" spans="1:6" ht="12.75">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="2"/>
@@ -5995,7 +6058,7 @@
       <c r="E673" s="1"/>
       <c r="F673" s="2"/>
     </row>
-    <row r="674" spans="1:6" ht="13">
+    <row r="674" spans="1:6" ht="12.75">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="2"/>
@@ -6003,7 +6066,7 @@
       <c r="E674" s="1"/>
       <c r="F674" s="2"/>
     </row>
-    <row r="675" spans="1:6" ht="13">
+    <row r="675" spans="1:6" ht="12.75">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="2"/>
@@ -6011,7 +6074,7 @@
       <c r="E675" s="1"/>
       <c r="F675" s="2"/>
     </row>
-    <row r="676" spans="1:6" ht="13">
+    <row r="676" spans="1:6" ht="12.75">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="2"/>
@@ -6019,7 +6082,7 @@
       <c r="E676" s="1"/>
       <c r="F676" s="2"/>
     </row>
-    <row r="677" spans="1:6" ht="13">
+    <row r="677" spans="1:6" ht="12.75">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="2"/>
@@ -6027,7 +6090,7 @@
       <c r="E677" s="1"/>
       <c r="F677" s="2"/>
     </row>
-    <row r="678" spans="1:6" ht="13">
+    <row r="678" spans="1:6" ht="12.75">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="2"/>
@@ -6035,7 +6098,7 @@
       <c r="E678" s="1"/>
       <c r="F678" s="2"/>
     </row>
-    <row r="679" spans="1:6" ht="13">
+    <row r="679" spans="1:6" ht="12.75">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="2"/>
@@ -6043,7 +6106,7 @@
       <c r="E679" s="1"/>
       <c r="F679" s="2"/>
     </row>
-    <row r="680" spans="1:6" ht="13">
+    <row r="680" spans="1:6" ht="12.75">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="2"/>
@@ -6051,7 +6114,7 @@
       <c r="E680" s="1"/>
       <c r="F680" s="2"/>
     </row>
-    <row r="681" spans="1:6" ht="13">
+    <row r="681" spans="1:6" ht="12.75">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="2"/>
@@ -6059,7 +6122,7 @@
       <c r="E681" s="1"/>
       <c r="F681" s="2"/>
     </row>
-    <row r="682" spans="1:6" ht="13">
+    <row r="682" spans="1:6" ht="12.75">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="2"/>
@@ -6067,7 +6130,7 @@
       <c r="E682" s="1"/>
       <c r="F682" s="2"/>
     </row>
-    <row r="683" spans="1:6" ht="13">
+    <row r="683" spans="1:6" ht="12.75">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="2"/>
@@ -6075,7 +6138,7 @@
       <c r="E683" s="1"/>
       <c r="F683" s="2"/>
     </row>
-    <row r="684" spans="1:6" ht="13">
+    <row r="684" spans="1:6" ht="12.75">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="2"/>
@@ -6083,7 +6146,7 @@
       <c r="E684" s="1"/>
       <c r="F684" s="2"/>
     </row>
-    <row r="685" spans="1:6" ht="13">
+    <row r="685" spans="1:6" ht="12.75">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="2"/>
@@ -6091,7 +6154,7 @@
       <c r="E685" s="1"/>
       <c r="F685" s="2"/>
     </row>
-    <row r="686" spans="1:6" ht="13">
+    <row r="686" spans="1:6" ht="12.75">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="2"/>
@@ -6099,7 +6162,7 @@
       <c r="E686" s="1"/>
       <c r="F686" s="2"/>
     </row>
-    <row r="687" spans="1:6" ht="13">
+    <row r="687" spans="1:6" ht="12.75">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="2"/>
@@ -6107,7 +6170,7 @@
       <c r="E687" s="1"/>
       <c r="F687" s="2"/>
     </row>
-    <row r="688" spans="1:6" ht="13">
+    <row r="688" spans="1:6" ht="12.75">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="2"/>
@@ -6115,7 +6178,7 @@
       <c r="E688" s="1"/>
       <c r="F688" s="2"/>
     </row>
-    <row r="689" spans="1:6" ht="13">
+    <row r="689" spans="1:6" ht="12.75">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="2"/>
@@ -6123,7 +6186,7 @@
       <c r="E689" s="1"/>
       <c r="F689" s="2"/>
     </row>
-    <row r="690" spans="1:6" ht="13">
+    <row r="690" spans="1:6" ht="12.75">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="2"/>
@@ -6131,7 +6194,7 @@
       <c r="E690" s="1"/>
       <c r="F690" s="2"/>
     </row>
-    <row r="691" spans="1:6" ht="13">
+    <row r="691" spans="1:6" ht="12.75">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="2"/>
@@ -6139,7 +6202,7 @@
       <c r="E691" s="1"/>
       <c r="F691" s="2"/>
     </row>
-    <row r="692" spans="1:6" ht="13">
+    <row r="692" spans="1:6" ht="12.75">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="2"/>
@@ -6147,7 +6210,7 @@
       <c r="E692" s="1"/>
       <c r="F692" s="2"/>
     </row>
-    <row r="693" spans="1:6" ht="13">
+    <row r="693" spans="1:6" ht="12.75">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="2"/>
@@ -6155,7 +6218,7 @@
       <c r="E693" s="1"/>
       <c r="F693" s="2"/>
     </row>
-    <row r="694" spans="1:6" ht="13">
+    <row r="694" spans="1:6" ht="12.75">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="2"/>
@@ -6163,7 +6226,7 @@
       <c r="E694" s="1"/>
       <c r="F694" s="2"/>
     </row>
-    <row r="695" spans="1:6" ht="13">
+    <row r="695" spans="1:6" ht="12.75">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="2"/>
@@ -6171,7 +6234,7 @@
       <c r="E695" s="1"/>
       <c r="F695" s="2"/>
     </row>
-    <row r="696" spans="1:6" ht="13">
+    <row r="696" spans="1:6" ht="12.75">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="2"/>
@@ -6179,7 +6242,7 @@
       <c r="E696" s="1"/>
       <c r="F696" s="2"/>
     </row>
-    <row r="697" spans="1:6" ht="13">
+    <row r="697" spans="1:6" ht="12.75">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="2"/>
@@ -6187,7 +6250,7 @@
       <c r="E697" s="1"/>
       <c r="F697" s="2"/>
     </row>
-    <row r="698" spans="1:6" ht="13">
+    <row r="698" spans="1:6" ht="12.75">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="2"/>
@@ -6195,7 +6258,7 @@
       <c r="E698" s="1"/>
       <c r="F698" s="2"/>
     </row>
-    <row r="699" spans="1:6" ht="13">
+    <row r="699" spans="1:6" ht="12.75">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="2"/>
@@ -6203,7 +6266,7 @@
       <c r="E699" s="1"/>
       <c r="F699" s="2"/>
     </row>
-    <row r="700" spans="1:6" ht="13">
+    <row r="700" spans="1:6" ht="12.75">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="2"/>
@@ -6211,7 +6274,7 @@
       <c r="E700" s="1"/>
       <c r="F700" s="2"/>
     </row>
-    <row r="701" spans="1:6" ht="13">
+    <row r="701" spans="1:6" ht="12.75">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="2"/>
@@ -6219,7 +6282,7 @@
       <c r="E701" s="1"/>
       <c r="F701" s="2"/>
     </row>
-    <row r="702" spans="1:6" ht="13">
+    <row r="702" spans="1:6" ht="12.75">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="2"/>
@@ -6227,7 +6290,7 @@
       <c r="E702" s="1"/>
       <c r="F702" s="2"/>
     </row>
-    <row r="703" spans="1:6" ht="13">
+    <row r="703" spans="1:6" ht="12.75">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="2"/>
@@ -6235,7 +6298,7 @@
       <c r="E703" s="1"/>
       <c r="F703" s="2"/>
     </row>
-    <row r="704" spans="1:6" ht="13">
+    <row r="704" spans="1:6" ht="12.75">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="2"/>
@@ -6243,7 +6306,7 @@
       <c r="E704" s="1"/>
       <c r="F704" s="2"/>
     </row>
-    <row r="705" spans="1:6" ht="13">
+    <row r="705" spans="1:6" ht="12.75">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="2"/>
@@ -6251,7 +6314,7 @@
       <c r="E705" s="1"/>
       <c r="F705" s="2"/>
     </row>
-    <row r="706" spans="1:6" ht="13">
+    <row r="706" spans="1:6" ht="12.75">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="2"/>
@@ -6259,7 +6322,7 @@
       <c r="E706" s="1"/>
       <c r="F706" s="2"/>
     </row>
-    <row r="707" spans="1:6" ht="13">
+    <row r="707" spans="1:6" ht="12.75">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="2"/>
@@ -6267,7 +6330,7 @@
       <c r="E707" s="1"/>
       <c r="F707" s="2"/>
     </row>
-    <row r="708" spans="1:6" ht="13">
+    <row r="708" spans="1:6" ht="12.75">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="2"/>
@@ -6275,7 +6338,7 @@
       <c r="E708" s="1"/>
       <c r="F708" s="2"/>
     </row>
-    <row r="709" spans="1:6" ht="13">
+    <row r="709" spans="1:6" ht="12.75">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="2"/>
@@ -6283,7 +6346,7 @@
       <c r="E709" s="1"/>
       <c r="F709" s="2"/>
     </row>
-    <row r="710" spans="1:6" ht="13">
+    <row r="710" spans="1:6" ht="12.75">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="2"/>
@@ -6291,7 +6354,7 @@
       <c r="E710" s="1"/>
       <c r="F710" s="2"/>
     </row>
-    <row r="711" spans="1:6" ht="13">
+    <row r="711" spans="1:6" ht="12.75">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="2"/>
@@ -6299,7 +6362,7 @@
       <c r="E711" s="1"/>
       <c r="F711" s="2"/>
     </row>
-    <row r="712" spans="1:6" ht="13">
+    <row r="712" spans="1:6" ht="12.75">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="2"/>
@@ -6307,7 +6370,7 @@
       <c r="E712" s="1"/>
       <c r="F712" s="2"/>
     </row>
-    <row r="713" spans="1:6" ht="13">
+    <row r="713" spans="1:6" ht="12.75">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="2"/>
@@ -6315,7 +6378,7 @@
       <c r="E713" s="1"/>
       <c r="F713" s="2"/>
     </row>
-    <row r="714" spans="1:6" ht="13">
+    <row r="714" spans="1:6" ht="12.75">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="2"/>
@@ -6323,7 +6386,7 @@
       <c r="E714" s="1"/>
       <c r="F714" s="2"/>
     </row>
-    <row r="715" spans="1:6" ht="13">
+    <row r="715" spans="1:6" ht="12.75">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="2"/>
@@ -6331,7 +6394,7 @@
       <c r="E715" s="1"/>
       <c r="F715" s="2"/>
     </row>
-    <row r="716" spans="1:6" ht="13">
+    <row r="716" spans="1:6" ht="12.75">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="2"/>
@@ -6339,7 +6402,7 @@
       <c r="E716" s="1"/>
       <c r="F716" s="2"/>
     </row>
-    <row r="717" spans="1:6" ht="13">
+    <row r="717" spans="1:6" ht="12.75">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="2"/>
@@ -6347,7 +6410,7 @@
       <c r="E717" s="1"/>
       <c r="F717" s="2"/>
     </row>
-    <row r="718" spans="1:6" ht="13">
+    <row r="718" spans="1:6" ht="12.75">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="2"/>
@@ -6355,7 +6418,7 @@
       <c r="E718" s="1"/>
       <c r="F718" s="2"/>
     </row>
-    <row r="719" spans="1:6" ht="13">
+    <row r="719" spans="1:6" ht="12.75">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="2"/>
@@ -6363,7 +6426,7 @@
       <c r="E719" s="1"/>
       <c r="F719" s="2"/>
     </row>
-    <row r="720" spans="1:6" ht="13">
+    <row r="720" spans="1:6" ht="12.75">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="2"/>
@@ -6371,7 +6434,7 @@
       <c r="E720" s="1"/>
       <c r="F720" s="2"/>
     </row>
-    <row r="721" spans="1:6" ht="13">
+    <row r="721" spans="1:6" ht="12.75">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="2"/>
@@ -6379,7 +6442,7 @@
       <c r="E721" s="1"/>
       <c r="F721" s="2"/>
     </row>
-    <row r="722" spans="1:6" ht="13">
+    <row r="722" spans="1:6" ht="12.75">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="2"/>
@@ -6387,7 +6450,7 @@
       <c r="E722" s="1"/>
       <c r="F722" s="2"/>
     </row>
-    <row r="723" spans="1:6" ht="13">
+    <row r="723" spans="1:6" ht="12.75">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="2"/>
@@ -6395,7 +6458,7 @@
       <c r="E723" s="1"/>
       <c r="F723" s="2"/>
     </row>
-    <row r="724" spans="1:6" ht="13">
+    <row r="724" spans="1:6" ht="12.75">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="2"/>
@@ -6403,7 +6466,7 @@
       <c r="E724" s="1"/>
       <c r="F724" s="2"/>
     </row>
-    <row r="725" spans="1:6" ht="13">
+    <row r="725" spans="1:6" ht="12.75">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="2"/>
@@ -6411,7 +6474,7 @@
       <c r="E725" s="1"/>
       <c r="F725" s="2"/>
     </row>
-    <row r="726" spans="1:6" ht="13">
+    <row r="726" spans="1:6" ht="12.75">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="2"/>
@@ -6419,7 +6482,7 @@
       <c r="E726" s="1"/>
       <c r="F726" s="2"/>
     </row>
-    <row r="727" spans="1:6" ht="13">
+    <row r="727" spans="1:6" ht="12.75">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="2"/>
@@ -6427,7 +6490,7 @@
       <c r="E727" s="1"/>
       <c r="F727" s="2"/>
     </row>
-    <row r="728" spans="1:6" ht="13">
+    <row r="728" spans="1:6" ht="12.75">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="2"/>
@@ -6435,7 +6498,7 @@
       <c r="E728" s="1"/>
       <c r="F728" s="2"/>
     </row>
-    <row r="729" spans="1:6" ht="13">
+    <row r="729" spans="1:6" ht="12.75">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="2"/>
@@ -6443,7 +6506,7 @@
       <c r="E729" s="1"/>
       <c r="F729" s="2"/>
     </row>
-    <row r="730" spans="1:6" ht="13">
+    <row r="730" spans="1:6" ht="12.75">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="2"/>
@@ -6451,7 +6514,7 @@
       <c r="E730" s="1"/>
       <c r="F730" s="2"/>
     </row>
-    <row r="731" spans="1:6" ht="13">
+    <row r="731" spans="1:6" ht="12.75">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="2"/>
@@ -6459,7 +6522,7 @@
       <c r="E731" s="1"/>
       <c r="F731" s="2"/>
     </row>
-    <row r="732" spans="1:6" ht="13">
+    <row r="732" spans="1:6" ht="12.75">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="2"/>
@@ -6467,7 +6530,7 @@
       <c r="E732" s="1"/>
       <c r="F732" s="2"/>
     </row>
-    <row r="733" spans="1:6" ht="13">
+    <row r="733" spans="1:6" ht="12.75">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="2"/>
@@ -6475,7 +6538,7 @@
       <c r="E733" s="1"/>
       <c r="F733" s="2"/>
     </row>
-    <row r="734" spans="1:6" ht="13">
+    <row r="734" spans="1:6" ht="12.75">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="2"/>
@@ -6483,7 +6546,7 @@
       <c r="E734" s="1"/>
       <c r="F734" s="2"/>
     </row>
-    <row r="735" spans="1:6" ht="13">
+    <row r="735" spans="1:6" ht="12.75">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="2"/>
@@ -6491,7 +6554,7 @@
       <c r="E735" s="1"/>
       <c r="F735" s="2"/>
     </row>
-    <row r="736" spans="1:6" ht="13">
+    <row r="736" spans="1:6" ht="12.75">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="2"/>
@@ -6499,7 +6562,7 @@
       <c r="E736" s="1"/>
       <c r="F736" s="2"/>
     </row>
-    <row r="737" spans="1:6" ht="13">
+    <row r="737" spans="1:6" ht="12.75">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="2"/>
@@ -6507,7 +6570,7 @@
       <c r="E737" s="1"/>
       <c r="F737" s="2"/>
     </row>
-    <row r="738" spans="1:6" ht="13">
+    <row r="738" spans="1:6" ht="12.75">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="2"/>
@@ -6515,7 +6578,7 @@
       <c r="E738" s="1"/>
       <c r="F738" s="2"/>
     </row>
-    <row r="739" spans="1:6" ht="13">
+    <row r="739" spans="1:6" ht="12.75">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="2"/>
@@ -6523,7 +6586,7 @@
       <c r="E739" s="1"/>
       <c r="F739" s="2"/>
     </row>
-    <row r="740" spans="1:6" ht="13">
+    <row r="740" spans="1:6" ht="12.75">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="2"/>
@@ -6531,7 +6594,7 @@
       <c r="E740" s="1"/>
       <c r="F740" s="2"/>
     </row>
-    <row r="741" spans="1:6" ht="13">
+    <row r="741" spans="1:6" ht="12.75">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="2"/>
@@ -6539,7 +6602,7 @@
       <c r="E741" s="1"/>
       <c r="F741" s="2"/>
     </row>
-    <row r="742" spans="1:6" ht="13">
+    <row r="742" spans="1:6" ht="12.75">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="2"/>
@@ -6547,7 +6610,7 @@
       <c r="E742" s="1"/>
       <c r="F742" s="2"/>
     </row>
-    <row r="743" spans="1:6" ht="13">
+    <row r="743" spans="1:6" ht="12.75">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="2"/>
@@ -6555,7 +6618,7 @@
       <c r="E743" s="1"/>
       <c r="F743" s="2"/>
     </row>
-    <row r="744" spans="1:6" ht="13">
+    <row r="744" spans="1:6" ht="12.75">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="2"/>
@@ -6563,7 +6626,7 @@
       <c r="E744" s="1"/>
       <c r="F744" s="2"/>
     </row>
-    <row r="745" spans="1:6" ht="13">
+    <row r="745" spans="1:6" ht="12.75">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="2"/>
@@ -6571,7 +6634,7 @@
       <c r="E745" s="1"/>
       <c r="F745" s="2"/>
     </row>
-    <row r="746" spans="1:6" ht="13">
+    <row r="746" spans="1:6" ht="12.75">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="2"/>
@@ -6579,7 +6642,7 @@
       <c r="E746" s="1"/>
       <c r="F746" s="2"/>
     </row>
-    <row r="747" spans="1:6" ht="13">
+    <row r="747" spans="1:6" ht="12.75">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="2"/>
@@ -6587,7 +6650,7 @@
       <c r="E747" s="1"/>
       <c r="F747" s="2"/>
     </row>
-    <row r="748" spans="1:6" ht="13">
+    <row r="748" spans="1:6" ht="12.75">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="2"/>
@@ -6595,7 +6658,7 @@
       <c r="E748" s="1"/>
       <c r="F748" s="2"/>
     </row>
-    <row r="749" spans="1:6" ht="13">
+    <row r="749" spans="1:6" ht="12.75">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="2"/>
@@ -6603,7 +6666,7 @@
       <c r="E749" s="1"/>
       <c r="F749" s="2"/>
     </row>
-    <row r="750" spans="1:6" ht="13">
+    <row r="750" spans="1:6" ht="12.75">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="2"/>
@@ -6611,7 +6674,7 @@
       <c r="E750" s="1"/>
       <c r="F750" s="2"/>
     </row>
-    <row r="751" spans="1:6" ht="13">
+    <row r="751" spans="1:6" ht="12.75">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="2"/>
@@ -6619,7 +6682,7 @@
       <c r="E751" s="1"/>
       <c r="F751" s="2"/>
     </row>
-    <row r="752" spans="1:6" ht="13">
+    <row r="752" spans="1:6" ht="12.75">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="2"/>
@@ -6627,7 +6690,7 @@
       <c r="E752" s="1"/>
       <c r="F752" s="2"/>
     </row>
-    <row r="753" spans="1:6" ht="13">
+    <row r="753" spans="1:6" ht="12.75">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="2"/>
@@ -6635,7 +6698,7 @@
       <c r="E753" s="1"/>
       <c r="F753" s="2"/>
     </row>
-    <row r="754" spans="1:6" ht="13">
+    <row r="754" spans="1:6" ht="12.75">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="2"/>
@@ -6643,7 +6706,7 @@
       <c r="E754" s="1"/>
       <c r="F754" s="2"/>
     </row>
-    <row r="755" spans="1:6" ht="13">
+    <row r="755" spans="1:6" ht="12.75">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="2"/>
@@ -6651,7 +6714,7 @@
       <c r="E755" s="1"/>
       <c r="F755" s="2"/>
     </row>
-    <row r="756" spans="1:6" ht="13">
+    <row r="756" spans="1:6" ht="12.75">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="2"/>
@@ -6659,7 +6722,7 @@
       <c r="E756" s="1"/>
       <c r="F756" s="2"/>
     </row>
-    <row r="757" spans="1:6" ht="13">
+    <row r="757" spans="1:6" ht="12.75">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="2"/>
@@ -6667,7 +6730,7 @@
       <c r="E757" s="1"/>
       <c r="F757" s="2"/>
     </row>
-    <row r="758" spans="1:6" ht="13">
+    <row r="758" spans="1:6" ht="12.75">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="2"/>
@@ -6675,7 +6738,7 @@
       <c r="E758" s="1"/>
       <c r="F758" s="2"/>
     </row>
-    <row r="759" spans="1:6" ht="13">
+    <row r="759" spans="1:6" ht="12.75">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="2"/>
@@ -6683,7 +6746,7 @@
       <c r="E759" s="1"/>
       <c r="F759" s="2"/>
     </row>
-    <row r="760" spans="1:6" ht="13">
+    <row r="760" spans="1:6" ht="12.75">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="2"/>
@@ -6691,7 +6754,7 @@
       <c r="E760" s="1"/>
       <c r="F760" s="2"/>
     </row>
-    <row r="761" spans="1:6" ht="13">
+    <row r="761" spans="1:6" ht="12.75">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="2"/>
@@ -6699,7 +6762,7 @@
       <c r="E761" s="1"/>
       <c r="F761" s="2"/>
     </row>
-    <row r="762" spans="1:6" ht="13">
+    <row r="762" spans="1:6" ht="12.75">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="2"/>
@@ -6707,7 +6770,7 @@
       <c r="E762" s="1"/>
       <c r="F762" s="2"/>
     </row>
-    <row r="763" spans="1:6" ht="13">
+    <row r="763" spans="1:6" ht="12.75">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="2"/>
@@ -6715,7 +6778,7 @@
       <c r="E763" s="1"/>
       <c r="F763" s="2"/>
     </row>
-    <row r="764" spans="1:6" ht="13">
+    <row r="764" spans="1:6" ht="12.75">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="2"/>
@@ -6723,7 +6786,7 @@
       <c r="E764" s="1"/>
       <c r="F764" s="2"/>
     </row>
-    <row r="765" spans="1:6" ht="13">
+    <row r="765" spans="1:6" ht="12.75">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="2"/>
@@ -6731,7 +6794,7 @@
       <c r="E765" s="1"/>
       <c r="F765" s="2"/>
     </row>
-    <row r="766" spans="1:6" ht="13">
+    <row r="766" spans="1:6" ht="12.75">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="2"/>
@@ -6739,7 +6802,7 @@
       <c r="E766" s="1"/>
       <c r="F766" s="2"/>
     </row>
-    <row r="767" spans="1:6" ht="13">
+    <row r="767" spans="1:6" ht="12.75">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="2"/>
@@ -6747,7 +6810,7 @@
       <c r="E767" s="1"/>
       <c r="F767" s="2"/>
     </row>
-    <row r="768" spans="1:6" ht="13">
+    <row r="768" spans="1:6" ht="12.75">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="2"/>
@@ -6755,7 +6818,7 @@
       <c r="E768" s="1"/>
       <c r="F768" s="2"/>
     </row>
-    <row r="769" spans="1:6" ht="13">
+    <row r="769" spans="1:6" ht="12.75">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="2"/>
@@ -6763,7 +6826,7 @@
       <c r="E769" s="1"/>
       <c r="F769" s="2"/>
     </row>
-    <row r="770" spans="1:6" ht="13">
+    <row r="770" spans="1:6" ht="12.75">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="2"/>
@@ -6771,7 +6834,7 @@
       <c r="E770" s="1"/>
       <c r="F770" s="2"/>
     </row>
-    <row r="771" spans="1:6" ht="13">
+    <row r="771" spans="1:6" ht="12.75">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="2"/>
@@ -6779,7 +6842,7 @@
       <c r="E771" s="1"/>
       <c r="F771" s="2"/>
     </row>
-    <row r="772" spans="1:6" ht="13">
+    <row r="772" spans="1:6" ht="12.75">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="2"/>
@@ -6787,7 +6850,7 @@
       <c r="E772" s="1"/>
       <c r="F772" s="2"/>
     </row>
-    <row r="773" spans="1:6" ht="13">
+    <row r="773" spans="1:6" ht="12.75">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="2"/>
@@ -6795,7 +6858,7 @@
       <c r="E773" s="1"/>
       <c r="F773" s="2"/>
     </row>
-    <row r="774" spans="1:6" ht="13">
+    <row r="774" spans="1:6" ht="12.75">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="2"/>
@@ -6803,7 +6866,7 @@
       <c r="E774" s="1"/>
       <c r="F774" s="2"/>
     </row>
-    <row r="775" spans="1:6" ht="13">
+    <row r="775" spans="1:6" ht="12.75">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="2"/>
@@ -6811,7 +6874,7 @@
       <c r="E775" s="1"/>
       <c r="F775" s="2"/>
     </row>
-    <row r="776" spans="1:6" ht="13">
+    <row r="776" spans="1:6" ht="12.75">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="2"/>
@@ -6819,7 +6882,7 @@
       <c r="E776" s="1"/>
       <c r="F776" s="2"/>
     </row>
-    <row r="777" spans="1:6" ht="13">
+    <row r="777" spans="1:6" ht="12.75">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="2"/>
@@ -6827,7 +6890,7 @@
       <c r="E777" s="1"/>
       <c r="F777" s="2"/>
     </row>
-    <row r="778" spans="1:6" ht="13">
+    <row r="778" spans="1:6" ht="12.75">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="2"/>
@@ -6835,7 +6898,7 @@
       <c r="E778" s="1"/>
       <c r="F778" s="2"/>
     </row>
-    <row r="779" spans="1:6" ht="13">
+    <row r="779" spans="1:6" ht="12.75">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="2"/>
@@ -6843,7 +6906,7 @@
       <c r="E779" s="1"/>
       <c r="F779" s="2"/>
     </row>
-    <row r="780" spans="1:6" ht="13">
+    <row r="780" spans="1:6" ht="12.75">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="2"/>
@@ -6851,7 +6914,7 @@
       <c r="E780" s="1"/>
       <c r="F780" s="2"/>
     </row>
-    <row r="781" spans="1:6" ht="13">
+    <row r="781" spans="1:6" ht="12.75">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="2"/>
@@ -6859,7 +6922,7 @@
       <c r="E781" s="1"/>
       <c r="F781" s="2"/>
     </row>
-    <row r="782" spans="1:6" ht="13">
+    <row r="782" spans="1:6" ht="12.75">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="2"/>
@@ -6867,7 +6930,7 @@
       <c r="E782" s="1"/>
       <c r="F782" s="2"/>
     </row>
-    <row r="783" spans="1:6" ht="13">
+    <row r="783" spans="1:6" ht="12.75">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="2"/>
@@ -6875,7 +6938,7 @@
       <c r="E783" s="1"/>
       <c r="F783" s="2"/>
     </row>
-    <row r="784" spans="1:6" ht="13">
+    <row r="784" spans="1:6" ht="12.75">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="2"/>
@@ -6883,7 +6946,7 @@
       <c r="E784" s="1"/>
       <c r="F784" s="2"/>
     </row>
-    <row r="785" spans="1:6" ht="13">
+    <row r="785" spans="1:6" ht="12.75">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="2"/>
@@ -6891,7 +6954,7 @@
       <c r="E785" s="1"/>
       <c r="F785" s="2"/>
     </row>
-    <row r="786" spans="1:6" ht="13">
+    <row r="786" spans="1:6" ht="12.75">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="2"/>
@@ -6899,7 +6962,7 @@
       <c r="E786" s="1"/>
       <c r="F786" s="2"/>
     </row>
-    <row r="787" spans="1:6" ht="13">
+    <row r="787" spans="1:6" ht="12.75">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="2"/>
@@ -6907,7 +6970,7 @@
       <c r="E787" s="1"/>
       <c r="F787" s="2"/>
     </row>
-    <row r="788" spans="1:6" ht="13">
+    <row r="788" spans="1:6" ht="12.75">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="2"/>
@@ -6915,7 +6978,7 @@
       <c r="E788" s="1"/>
       <c r="F788" s="2"/>
     </row>
-    <row r="789" spans="1:6" ht="13">
+    <row r="789" spans="1:6" ht="12.75">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="2"/>
@@ -6923,7 +6986,7 @@
       <c r="E789" s="1"/>
       <c r="F789" s="2"/>
     </row>
-    <row r="790" spans="1:6" ht="13">
+    <row r="790" spans="1:6" ht="12.75">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="2"/>
@@ -6931,7 +6994,7 @@
       <c r="E790" s="1"/>
       <c r="F790" s="2"/>
     </row>
-    <row r="791" spans="1:6" ht="13">
+    <row r="791" spans="1:6" ht="12.75">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="2"/>
@@ -6939,7 +7002,7 @@
       <c r="E791" s="1"/>
       <c r="F791" s="2"/>
     </row>
-    <row r="792" spans="1:6" ht="13">
+    <row r="792" spans="1:6" ht="12.75">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="2"/>
@@ -6947,7 +7010,7 @@
       <c r="E792" s="1"/>
       <c r="F792" s="2"/>
     </row>
-    <row r="793" spans="1:6" ht="13">
+    <row r="793" spans="1:6" ht="12.75">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="2"/>
@@ -6955,7 +7018,7 @@
       <c r="E793" s="1"/>
       <c r="F793" s="2"/>
     </row>
-    <row r="794" spans="1:6" ht="13">
+    <row r="794" spans="1:6" ht="12.75">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="2"/>
@@ -6963,7 +7026,7 @@
       <c r="E794" s="1"/>
       <c r="F794" s="2"/>
     </row>
-    <row r="795" spans="1:6" ht="13">
+    <row r="795" spans="1:6" ht="12.75">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="2"/>
@@ -6971,7 +7034,7 @@
       <c r="E795" s="1"/>
       <c r="F795" s="2"/>
     </row>
-    <row r="796" spans="1:6" ht="13">
+    <row r="796" spans="1:6" ht="12.75">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="2"/>
@@ -6979,7 +7042,7 @@
       <c r="E796" s="1"/>
       <c r="F796" s="2"/>
     </row>
-    <row r="797" spans="1:6" ht="13">
+    <row r="797" spans="1:6" ht="12.75">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="2"/>
@@ -6987,7 +7050,7 @@
       <c r="E797" s="1"/>
       <c r="F797" s="2"/>
     </row>
-    <row r="798" spans="1:6" ht="13">
+    <row r="798" spans="1:6" ht="12.75">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="2"/>
@@ -6995,7 +7058,7 @@
       <c r="E798" s="1"/>
       <c r="F798" s="2"/>
     </row>
-    <row r="799" spans="1:6" ht="13">
+    <row r="799" spans="1:6" ht="12.75">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="2"/>
@@ -7003,7 +7066,7 @@
       <c r="E799" s="1"/>
       <c r="F799" s="2"/>
     </row>
-    <row r="800" spans="1:6" ht="13">
+    <row r="800" spans="1:6" ht="12.75">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="2"/>
@@ -7011,7 +7074,7 @@
       <c r="E800" s="1"/>
       <c r="F800" s="2"/>
     </row>
-    <row r="801" spans="1:6" ht="13">
+    <row r="801" spans="1:6" ht="12.75">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="2"/>
@@ -7019,7 +7082,7 @@
       <c r="E801" s="1"/>
       <c r="F801" s="2"/>
     </row>
-    <row r="802" spans="1:6" ht="13">
+    <row r="802" spans="1:6" ht="12.75">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="2"/>
@@ -7027,7 +7090,7 @@
       <c r="E802" s="1"/>
       <c r="F802" s="2"/>
     </row>
-    <row r="803" spans="1:6" ht="13">
+    <row r="803" spans="1:6" ht="12.75">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="2"/>
@@ -7035,7 +7098,7 @@
       <c r="E803" s="1"/>
       <c r="F803" s="2"/>
     </row>
-    <row r="804" spans="1:6" ht="13">
+    <row r="804" spans="1:6" ht="12.75">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="2"/>
@@ -7043,7 +7106,7 @@
       <c r="E804" s="1"/>
       <c r="F804" s="2"/>
     </row>
-    <row r="805" spans="1:6" ht="13">
+    <row r="805" spans="1:6" ht="12.75">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="2"/>
@@ -7051,7 +7114,7 @@
       <c r="E805" s="1"/>
       <c r="F805" s="2"/>
     </row>
-    <row r="806" spans="1:6" ht="13">
+    <row r="806" spans="1:6" ht="12.75">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="2"/>
@@ -7059,7 +7122,7 @@
       <c r="E806" s="1"/>
       <c r="F806" s="2"/>
     </row>
-    <row r="807" spans="1:6" ht="13">
+    <row r="807" spans="1:6" ht="12.75">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="2"/>
@@ -7067,7 +7130,7 @@
       <c r="E807" s="1"/>
       <c r="F807" s="2"/>
     </row>
-    <row r="808" spans="1:6" ht="13">
+    <row r="808" spans="1:6" ht="12.75">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="2"/>
@@ -7075,7 +7138,7 @@
       <c r="E808" s="1"/>
       <c r="F808" s="2"/>
     </row>
-    <row r="809" spans="1:6" ht="13">
+    <row r="809" spans="1:6" ht="12.75">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="2"/>
@@ -7083,7 +7146,7 @@
       <c r="E809" s="1"/>
       <c r="F809" s="2"/>
     </row>
-    <row r="810" spans="1:6" ht="13">
+    <row r="810" spans="1:6" ht="12.75">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="2"/>
@@ -7091,7 +7154,7 @@
       <c r="E810" s="1"/>
       <c r="F810" s="2"/>
     </row>
-    <row r="811" spans="1:6" ht="13">
+    <row r="811" spans="1:6" ht="12.75">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="2"/>
@@ -7099,7 +7162,7 @@
       <c r="E811" s="1"/>
       <c r="F811" s="2"/>
     </row>
-    <row r="812" spans="1:6" ht="13">
+    <row r="812" spans="1:6" ht="12.75">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="2"/>
@@ -7107,7 +7170,7 @@
       <c r="E812" s="1"/>
       <c r="F812" s="2"/>
     </row>
-    <row r="813" spans="1:6" ht="13">
+    <row r="813" spans="1:6" ht="12.75">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="2"/>
@@ -7115,7 +7178,7 @@
       <c r="E813" s="1"/>
       <c r="F813" s="2"/>
     </row>
-    <row r="814" spans="1:6" ht="13">
+    <row r="814" spans="1:6" ht="12.75">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="2"/>
@@ -7123,7 +7186,7 @@
       <c r="E814" s="1"/>
       <c r="F814" s="2"/>
     </row>
-    <row r="815" spans="1:6" ht="13">
+    <row r="815" spans="1:6" ht="12.75">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="2"/>
@@ -7131,7 +7194,7 @@
       <c r="E815" s="1"/>
       <c r="F815" s="2"/>
     </row>
-    <row r="816" spans="1:6" ht="13">
+    <row r="816" spans="1:6" ht="12.75">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="2"/>
@@ -7139,7 +7202,7 @@
       <c r="E816" s="1"/>
       <c r="F816" s="2"/>
     </row>
-    <row r="817" spans="1:6" ht="13">
+    <row r="817" spans="1:6" ht="12.75">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="2"/>
@@ -7147,7 +7210,7 @@
       <c r="E817" s="1"/>
       <c r="F817" s="2"/>
     </row>
-    <row r="818" spans="1:6" ht="13">
+    <row r="818" spans="1:6" ht="12.75">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="2"/>
@@ -7155,7 +7218,7 @@
       <c r="E818" s="1"/>
       <c r="F818" s="2"/>
     </row>
-    <row r="819" spans="1:6" ht="13">
+    <row r="819" spans="1:6" ht="12.75">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="2"/>
@@ -7163,7 +7226,7 @@
       <c r="E819" s="1"/>
       <c r="F819" s="2"/>
     </row>
-    <row r="820" spans="1:6" ht="13">
+    <row r="820" spans="1:6" ht="12.75">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="2"/>
@@ -7171,7 +7234,7 @@
       <c r="E820" s="1"/>
       <c r="F820" s="2"/>
     </row>
-    <row r="821" spans="1:6" ht="13">
+    <row r="821" spans="1:6" ht="12.75">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="2"/>
@@ -7179,7 +7242,7 @@
       <c r="E821" s="1"/>
       <c r="F821" s="2"/>
     </row>
-    <row r="822" spans="1:6" ht="13">
+    <row r="822" spans="1:6" ht="12.75">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="2"/>
@@ -7187,7 +7250,7 @@
       <c r="E822" s="1"/>
       <c r="F822" s="2"/>
     </row>
-    <row r="823" spans="1:6" ht="13">
+    <row r="823" spans="1:6" ht="12.75">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="2"/>
@@ -7195,7 +7258,7 @@
       <c r="E823" s="1"/>
       <c r="F823" s="2"/>
     </row>
-    <row r="824" spans="1:6" ht="13">
+    <row r="824" spans="1:6" ht="12.75">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="2"/>
@@ -7203,7 +7266,7 @@
       <c r="E824" s="1"/>
       <c r="F824" s="2"/>
     </row>
-    <row r="825" spans="1:6" ht="13">
+    <row r="825" spans="1:6" ht="12.75">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="2"/>
@@ -7211,7 +7274,7 @@
       <c r="E825" s="1"/>
       <c r="F825" s="2"/>
     </row>
-    <row r="826" spans="1:6" ht="13">
+    <row r="826" spans="1:6" ht="12.75">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="2"/>
@@ -7219,7 +7282,7 @@
       <c r="E826" s="1"/>
       <c r="F826" s="2"/>
     </row>
-    <row r="827" spans="1:6" ht="13">
+    <row r="827" spans="1:6" ht="12.75">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="2"/>
@@ -7227,7 +7290,7 @@
       <c r="E827" s="1"/>
       <c r="F827" s="2"/>
     </row>
-    <row r="828" spans="1:6" ht="13">
+    <row r="828" spans="1:6" ht="12.75">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="2"/>
@@ -7235,7 +7298,7 @@
       <c r="E828" s="1"/>
       <c r="F828" s="2"/>
     </row>
-    <row r="829" spans="1:6" ht="13">
+    <row r="829" spans="1:6" ht="12.75">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="2"/>
@@ -7243,7 +7306,7 @@
       <c r="E829" s="1"/>
       <c r="F829" s="2"/>
     </row>
-    <row r="830" spans="1:6" ht="13">
+    <row r="830" spans="1:6" ht="12.75">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="2"/>
@@ -7251,7 +7314,7 @@
       <c r="E830" s="1"/>
       <c r="F830" s="2"/>
     </row>
-    <row r="831" spans="1:6" ht="13">
+    <row r="831" spans="1:6" ht="12.75">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="2"/>
@@ -7259,7 +7322,7 @@
       <c r="E831" s="1"/>
       <c r="F831" s="2"/>
     </row>
-    <row r="832" spans="1:6" ht="13">
+    <row r="832" spans="1:6" ht="12.75">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="2"/>
@@ -7267,7 +7330,7 @@
       <c r="E832" s="1"/>
       <c r="F832" s="2"/>
     </row>
-    <row r="833" spans="1:6" ht="13">
+    <row r="833" spans="1:6" ht="12.75">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="2"/>
@@ -7275,7 +7338,7 @@
       <c r="E833" s="1"/>
       <c r="F833" s="2"/>
     </row>
-    <row r="834" spans="1:6" ht="13">
+    <row r="834" spans="1:6" ht="12.75">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="2"/>
@@ -7283,7 +7346,7 @@
       <c r="E834" s="1"/>
       <c r="F834" s="2"/>
     </row>
-    <row r="835" spans="1:6" ht="13">
+    <row r="835" spans="1:6" ht="12.75">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="2"/>
@@ -7291,7 +7354,7 @@
       <c r="E835" s="1"/>
       <c r="F835" s="2"/>
     </row>
-    <row r="836" spans="1:6" ht="13">
+    <row r="836" spans="1:6" ht="12.75">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="2"/>
@@ -7299,7 +7362,7 @@
       <c r="E836" s="1"/>
       <c r="F836" s="2"/>
     </row>
-    <row r="837" spans="1:6" ht="13">
+    <row r="837" spans="1:6" ht="12.75">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="2"/>
@@ -7307,7 +7370,7 @@
       <c r="E837" s="1"/>
       <c r="F837" s="2"/>
     </row>
-    <row r="838" spans="1:6" ht="13">
+    <row r="838" spans="1:6" ht="12.75">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="2"/>
@@ -7315,7 +7378,7 @@
       <c r="E838" s="1"/>
       <c r="F838" s="2"/>
     </row>
-    <row r="839" spans="1:6" ht="13">
+    <row r="839" spans="1:6" ht="12.75">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="2"/>
@@ -7323,7 +7386,7 @@
       <c r="E839" s="1"/>
       <c r="F839" s="2"/>
     </row>
-    <row r="840" spans="1:6" ht="13">
+    <row r="840" spans="1:6" ht="12.75">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="2"/>
@@ -7331,7 +7394,7 @@
       <c r="E840" s="1"/>
       <c r="F840" s="2"/>
     </row>
-    <row r="841" spans="1:6" ht="13">
+    <row r="841" spans="1:6" ht="12.75">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="2"/>
@@ -7339,7 +7402,7 @@
       <c r="E841" s="1"/>
       <c r="F841" s="2"/>
     </row>
-    <row r="842" spans="1:6" ht="13">
+    <row r="842" spans="1:6" ht="12.75">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="2"/>
@@ -7347,7 +7410,7 @@
       <c r="E842" s="1"/>
       <c r="F842" s="2"/>
     </row>
-    <row r="843" spans="1:6" ht="13">
+    <row r="843" spans="1:6" ht="12.75">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="2"/>
@@ -7355,7 +7418,7 @@
       <c r="E843" s="1"/>
       <c r="F843" s="2"/>
     </row>
-    <row r="844" spans="1:6" ht="13">
+    <row r="844" spans="1:6" ht="12.75">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="2"/>
@@ -7363,7 +7426,7 @@
       <c r="E844" s="1"/>
       <c r="F844" s="2"/>
     </row>
-    <row r="845" spans="1:6" ht="13">
+    <row r="845" spans="1:6" ht="12.75">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="2"/>
@@ -7371,7 +7434,7 @@
       <c r="E845" s="1"/>
       <c r="F845" s="2"/>
     </row>
-    <row r="846" spans="1:6" ht="13">
+    <row r="846" spans="1:6" ht="12.75">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="2"/>
@@ -7379,7 +7442,7 @@
       <c r="E846" s="1"/>
       <c r="F846" s="2"/>
     </row>
-    <row r="847" spans="1:6" ht="13">
+    <row r="847" spans="1:6" ht="12.75">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="2"/>
@@ -7387,7 +7450,7 @@
       <c r="E847" s="1"/>
       <c r="F847" s="2"/>
     </row>
-    <row r="848" spans="1:6" ht="13">
+    <row r="848" spans="1:6" ht="12.75">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="2"/>
@@ -7395,7 +7458,7 @@
       <c r="E848" s="1"/>
       <c r="F848" s="2"/>
     </row>
-    <row r="849" spans="1:6" ht="13">
+    <row r="849" spans="1:6" ht="12.75">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="2"/>
@@ -7403,7 +7466,7 @@
       <c r="E849" s="1"/>
       <c r="F849" s="2"/>
     </row>
-    <row r="850" spans="1:6" ht="13">
+    <row r="850" spans="1:6" ht="12.75">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="2"/>
@@ -7411,7 +7474,7 @@
       <c r="E850" s="1"/>
       <c r="F850" s="2"/>
     </row>
-    <row r="851" spans="1:6" ht="13">
+    <row r="851" spans="1:6" ht="12.75">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="2"/>
@@ -7419,7 +7482,7 @@
       <c r="E851" s="1"/>
       <c r="F851" s="2"/>
     </row>
-    <row r="852" spans="1:6" ht="13">
+    <row r="852" spans="1:6" ht="12.75">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="2"/>
@@ -7427,7 +7490,7 @@
       <c r="E852" s="1"/>
       <c r="F852" s="2"/>
     </row>
-    <row r="853" spans="1:6" ht="13">
+    <row r="853" spans="1:6" ht="12.75">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="2"/>
@@ -7435,7 +7498,7 @@
       <c r="E853" s="1"/>
       <c r="F853" s="2"/>
     </row>
-    <row r="854" spans="1:6" ht="13">
+    <row r="854" spans="1:6" ht="12.75">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="2"/>
@@ -7443,7 +7506,7 @@
       <c r="E854" s="1"/>
       <c r="F854" s="2"/>
     </row>
-    <row r="855" spans="1:6" ht="13">
+    <row r="855" spans="1:6" ht="12.75">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="2"/>
@@ -7451,7 +7514,7 @@
       <c r="E855" s="1"/>
       <c r="F855" s="2"/>
     </row>
-    <row r="856" spans="1:6" ht="13">
+    <row r="856" spans="1:6" ht="12.75">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="2"/>
@@ -7459,7 +7522,7 @@
       <c r="E856" s="1"/>
       <c r="F856" s="2"/>
     </row>
-    <row r="857" spans="1:6" ht="13">
+    <row r="857" spans="1:6" ht="12.75">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="2"/>
@@ -7467,7 +7530,7 @@
       <c r="E857" s="1"/>
       <c r="F857" s="2"/>
     </row>
-    <row r="858" spans="1:6" ht="13">
+    <row r="858" spans="1:6" ht="12.75">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="2"/>
@@ -7475,7 +7538,7 @@
       <c r="E858" s="1"/>
       <c r="F858" s="2"/>
     </row>
-    <row r="859" spans="1:6" ht="13">
+    <row r="859" spans="1:6" ht="12.75">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="2"/>
@@ -7483,7 +7546,7 @@
       <c r="E859" s="1"/>
       <c r="F859" s="2"/>
     </row>
-    <row r="860" spans="1:6" ht="13">
+    <row r="860" spans="1:6" ht="12.75">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="2"/>
@@ -7491,7 +7554,7 @@
       <c r="E860" s="1"/>
       <c r="F860" s="2"/>
     </row>
-    <row r="861" spans="1:6" ht="13">
+    <row r="861" spans="1:6" ht="12.75">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="2"/>
@@ -7499,7 +7562,7 @@
       <c r="E861" s="1"/>
       <c r="F861" s="2"/>
     </row>
-    <row r="862" spans="1:6" ht="13">
+    <row r="862" spans="1:6" ht="12.75">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="2"/>
@@ -7507,7 +7570,7 @@
       <c r="E862" s="1"/>
       <c r="F862" s="2"/>
     </row>
-    <row r="863" spans="1:6" ht="13">
+    <row r="863" spans="1:6" ht="12.75">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="2"/>
@@ -7515,7 +7578,7 @@
       <c r="E863" s="1"/>
       <c r="F863" s="2"/>
     </row>
-    <row r="864" spans="1:6" ht="13">
+    <row r="864" spans="1:6" ht="12.75">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="2"/>
@@ -7523,7 +7586,7 @@
       <c r="E864" s="1"/>
       <c r="F864" s="2"/>
     </row>
-    <row r="865" spans="1:6" ht="13">
+    <row r="865" spans="1:6" ht="12.75">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="2"/>
@@ -7531,7 +7594,7 @@
       <c r="E865" s="1"/>
       <c r="F865" s="2"/>
     </row>
-    <row r="866" spans="1:6" ht="13">
+    <row r="866" spans="1:6" ht="12.75">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="2"/>
@@ -7539,7 +7602,7 @@
       <c r="E866" s="1"/>
       <c r="F866" s="2"/>
     </row>
-    <row r="867" spans="1:6" ht="13">
+    <row r="867" spans="1:6" ht="12.75">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="2"/>
@@ -7547,7 +7610,7 @@
       <c r="E867" s="1"/>
       <c r="F867" s="2"/>
     </row>
-    <row r="868" spans="1:6" ht="13">
+    <row r="868" spans="1:6" ht="12.75">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="2"/>
@@ -7555,7 +7618,7 @@
       <c r="E868" s="1"/>
       <c r="F868" s="2"/>
     </row>
-    <row r="869" spans="1:6" ht="13">
+    <row r="869" spans="1:6" ht="12.75">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="2"/>
@@ -7563,7 +7626,7 @@
       <c r="E869" s="1"/>
       <c r="F869" s="2"/>
     </row>
-    <row r="870" spans="1:6" ht="13">
+    <row r="870" spans="1:6" ht="12.75">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="2"/>
@@ -7571,7 +7634,7 @@
       <c r="E870" s="1"/>
       <c r="F870" s="2"/>
     </row>
-    <row r="871" spans="1:6" ht="13">
+    <row r="871" spans="1:6" ht="12.75">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="2"/>
@@ -7579,7 +7642,7 @@
       <c r="E871" s="1"/>
       <c r="F871" s="2"/>
     </row>
-    <row r="872" spans="1:6" ht="13">
+    <row r="872" spans="1:6" ht="12.75">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="2"/>
@@ -7587,7 +7650,7 @@
       <c r="E872" s="1"/>
       <c r="F872" s="2"/>
     </row>
-    <row r="873" spans="1:6" ht="13">
+    <row r="873" spans="1:6" ht="12.75">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="2"/>
@@ -7595,7 +7658,7 @@
       <c r="E873" s="1"/>
       <c r="F873" s="2"/>
     </row>
-    <row r="874" spans="1:6" ht="13">
+    <row r="874" spans="1:6" ht="12.75">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="2"/>
@@ -7603,7 +7666,7 @@
       <c r="E874" s="1"/>
       <c r="F874" s="2"/>
     </row>
-    <row r="875" spans="1:6" ht="13">
+    <row r="875" spans="1:6" ht="12.75">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="2"/>
@@ -7611,7 +7674,7 @@
       <c r="E875" s="1"/>
       <c r="F875" s="2"/>
     </row>
-    <row r="876" spans="1:6" ht="13">
+    <row r="876" spans="1:6" ht="12.75">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="2"/>
@@ -7619,7 +7682,7 @@
       <c r="E876" s="1"/>
       <c r="F876" s="2"/>
     </row>
-    <row r="877" spans="1:6" ht="13">
+    <row r="877" spans="1:6" ht="12.75">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="2"/>
@@ -7627,7 +7690,7 @@
       <c r="E877" s="1"/>
       <c r="F877" s="2"/>
     </row>
-    <row r="878" spans="1:6" ht="13">
+    <row r="878" spans="1:6" ht="12.75">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="2"/>
@@ -7635,7 +7698,7 @@
       <c r="E878" s="1"/>
       <c r="F878" s="2"/>
     </row>
-    <row r="879" spans="1:6" ht="13">
+    <row r="879" spans="1:6" ht="12.75">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="2"/>
@@ -7643,7 +7706,7 @@
       <c r="E879" s="1"/>
       <c r="F879" s="2"/>
     </row>
-    <row r="880" spans="1:6" ht="13">
+    <row r="880" spans="1:6" ht="12.75">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="2"/>
@@ -7651,7 +7714,7 @@
       <c r="E880" s="1"/>
       <c r="F880" s="2"/>
     </row>
-    <row r="881" spans="1:6" ht="13">
+    <row r="881" spans="1:6" ht="12.75">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="2"/>
@@ -7659,7 +7722,7 @@
       <c r="E881" s="1"/>
       <c r="F881" s="2"/>
     </row>
-    <row r="882" spans="1:6" ht="13">
+    <row r="882" spans="1:6" ht="12.75">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="2"/>
@@ -7667,7 +7730,7 @@
       <c r="E882" s="1"/>
       <c r="F882" s="2"/>
     </row>
-    <row r="883" spans="1:6" ht="13">
+    <row r="883" spans="1:6" ht="12.75">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="2"/>
@@ -7675,7 +7738,7 @@
       <c r="E883" s="1"/>
       <c r="F883" s="2"/>
     </row>
-    <row r="884" spans="1:6" ht="13">
+    <row r="884" spans="1:6" ht="12.75">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="2"/>
@@ -7683,7 +7746,7 @@
       <c r="E884" s="1"/>
       <c r="F884" s="2"/>
     </row>
-    <row r="885" spans="1:6" ht="13">
+    <row r="885" spans="1:6" ht="12.75">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="2"/>
@@ -7691,7 +7754,7 @@
       <c r="E885" s="1"/>
       <c r="F885" s="2"/>
     </row>
-    <row r="886" spans="1:6" ht="13">
+    <row r="886" spans="1:6" ht="12.75">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="2"/>
@@ -7699,7 +7762,7 @@
       <c r="E886" s="1"/>
       <c r="F886" s="2"/>
     </row>
-    <row r="887" spans="1:6" ht="13">
+    <row r="887" spans="1:6" ht="12.75">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="2"/>
@@ -7707,7 +7770,7 @@
       <c r="E887" s="1"/>
       <c r="F887" s="2"/>
     </row>
-    <row r="888" spans="1:6" ht="13">
+    <row r="888" spans="1:6" ht="12.75">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="2"/>
@@ -7715,7 +7778,7 @@
       <c r="E888" s="1"/>
       <c r="F888" s="2"/>
     </row>
-    <row r="889" spans="1:6" ht="13">
+    <row r="889" spans="1:6" ht="12.75">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="2"/>
@@ -7723,7 +7786,7 @@
       <c r="E889" s="1"/>
       <c r="F889" s="2"/>
     </row>
-    <row r="890" spans="1:6" ht="13">
+    <row r="890" spans="1:6" ht="12.75">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="2"/>
@@ -7731,7 +7794,7 @@
       <c r="E890" s="1"/>
       <c r="F890" s="2"/>
     </row>
-    <row r="891" spans="1:6" ht="13">
+    <row r="891" spans="1:6" ht="12.75">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="2"/>
@@ -7739,7 +7802,7 @@
       <c r="E891" s="1"/>
       <c r="F891" s="2"/>
     </row>
-    <row r="892" spans="1:6" ht="13">
+    <row r="892" spans="1:6" ht="12.75">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="2"/>
@@ -7747,7 +7810,7 @@
       <c r="E892" s="1"/>
       <c r="F892" s="2"/>
     </row>
-    <row r="893" spans="1:6" ht="13">
+    <row r="893" spans="1:6" ht="12.75">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="2"/>
@@ -7755,7 +7818,7 @@
       <c r="E893" s="1"/>
       <c r="F893" s="2"/>
     </row>
-    <row r="894" spans="1:6" ht="13">
+    <row r="894" spans="1:6" ht="12.75">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="2"/>
@@ -7763,7 +7826,7 @@
       <c r="E894" s="1"/>
       <c r="F894" s="2"/>
     </row>
-    <row r="895" spans="1:6" ht="13">
+    <row r="895" spans="1:6" ht="12.75">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="2"/>
@@ -7771,7 +7834,7 @@
       <c r="E895" s="1"/>
       <c r="F895" s="2"/>
     </row>
-    <row r="896" spans="1:6" ht="13">
+    <row r="896" spans="1:6" ht="12.75">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="2"/>
@@ -7779,7 +7842,7 @@
       <c r="E896" s="1"/>
       <c r="F896" s="2"/>
     </row>
-    <row r="897" spans="1:6" ht="13">
+    <row r="897" spans="1:6" ht="12.75">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="2"/>
@@ -7787,7 +7850,7 @@
       <c r="E897" s="1"/>
       <c r="F897" s="2"/>
     </row>
-    <row r="898" spans="1:6" ht="13">
+    <row r="898" spans="1:6" ht="12.75">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="2"/>
@@ -7795,7 +7858,7 @@
       <c r="E898" s="1"/>
       <c r="F898" s="2"/>
     </row>
-    <row r="899" spans="1:6" ht="13">
+    <row r="899" spans="1:6" ht="12.75">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="2"/>
@@ -7803,7 +7866,7 @@
       <c r="E899" s="1"/>
       <c r="F899" s="2"/>
     </row>
-    <row r="900" spans="1:6" ht="13">
+    <row r="900" spans="1:6" ht="12.75">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="2"/>
@@ -7811,7 +7874,7 @@
       <c r="E900" s="1"/>
       <c r="F900" s="2"/>
     </row>
-    <row r="901" spans="1:6" ht="13">
+    <row r="901" spans="1:6" ht="12.75">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="2"/>
@@ -7819,7 +7882,7 @@
       <c r="E901" s="1"/>
       <c r="F901" s="2"/>
     </row>
-    <row r="902" spans="1:6" ht="13">
+    <row r="902" spans="1:6" ht="12.75">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="2"/>
@@ -7827,7 +7890,7 @@
       <c r="E902" s="1"/>
       <c r="F902" s="2"/>
     </row>
-    <row r="903" spans="1:6" ht="13">
+    <row r="903" spans="1:6" ht="12.75">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="2"/>
@@ -7835,7 +7898,7 @@
       <c r="E903" s="1"/>
       <c r="F903" s="2"/>
     </row>
-    <row r="904" spans="1:6" ht="13">
+    <row r="904" spans="1:6" ht="12.75">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="2"/>
@@ -7843,7 +7906,7 @@
       <c r="E904" s="1"/>
       <c r="F904" s="2"/>
     </row>
-    <row r="905" spans="1:6" ht="13">
+    <row r="905" spans="1:6" ht="12.75">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="2"/>
@@ -7851,7 +7914,7 @@
       <c r="E905" s="1"/>
       <c r="F905" s="2"/>
     </row>
-    <row r="906" spans="1:6" ht="13">
+    <row r="906" spans="1:6" ht="12.75">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="2"/>
@@ -7859,7 +7922,7 @@
       <c r="E906" s="1"/>
       <c r="F906" s="2"/>
     </row>
-    <row r="907" spans="1:6" ht="13">
+    <row r="907" spans="1:6" ht="12.75">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="2"/>
@@ -7867,7 +7930,7 @@
       <c r="E907" s="1"/>
       <c r="F907" s="2"/>
     </row>
-    <row r="908" spans="1:6" ht="13">
+    <row r="908" spans="1:6" ht="12.75">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="2"/>
@@ -7875,7 +7938,7 @@
       <c r="E908" s="1"/>
       <c r="F908" s="2"/>
     </row>
-    <row r="909" spans="1:6" ht="13">
+    <row r="909" spans="1:6" ht="12.75">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="2"/>
@@ -7883,7 +7946,7 @@
       <c r="E909" s="1"/>
       <c r="F909" s="2"/>
     </row>
-    <row r="910" spans="1:6" ht="13">
+    <row r="910" spans="1:6" ht="12.75">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="2"/>
@@ -7891,7 +7954,7 @@
       <c r="E910" s="1"/>
       <c r="F910" s="2"/>
     </row>
-    <row r="911" spans="1:6" ht="13">
+    <row r="911" spans="1:6" ht="12.75">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="2"/>
@@ -7899,7 +7962,7 @@
       <c r="E911" s="1"/>
       <c r="F911" s="2"/>
     </row>
-    <row r="912" spans="1:6" ht="13">
+    <row r="912" spans="1:6" ht="12.75">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="2"/>
@@ -7907,7 +7970,7 @@
       <c r="E912" s="1"/>
       <c r="F912" s="2"/>
     </row>
-    <row r="913" spans="1:6" ht="13">
+    <row r="913" spans="1:6" ht="12.75">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="2"/>
@@ -7915,7 +7978,7 @@
       <c r="E913" s="1"/>
       <c r="F913" s="2"/>
     </row>
-    <row r="914" spans="1:6" ht="13">
+    <row r="914" spans="1:6" ht="12.75">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="2"/>
@@ -7923,7 +7986,7 @@
       <c r="E914" s="1"/>
       <c r="F914" s="2"/>
     </row>
-    <row r="915" spans="1:6" ht="13">
+    <row r="915" spans="1:6" ht="12.75">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="2"/>
@@ -7931,7 +7994,7 @@
       <c r="E915" s="1"/>
       <c r="F915" s="2"/>
     </row>
-    <row r="916" spans="1:6" ht="13">
+    <row r="916" spans="1:6" ht="12.75">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="2"/>
@@ -7939,7 +8002,7 @@
       <c r="E916" s="1"/>
       <c r="F916" s="2"/>
     </row>
-    <row r="917" spans="1:6" ht="13">
+    <row r="917" spans="1:6" ht="12.75">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="2"/>
@@ -7947,7 +8010,7 @@
       <c r="E917" s="1"/>
       <c r="F917" s="2"/>
     </row>
-    <row r="918" spans="1:6" ht="13">
+    <row r="918" spans="1:6" ht="12.75">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="2"/>
@@ -7955,7 +8018,7 @@
       <c r="E918" s="1"/>
       <c r="F918" s="2"/>
     </row>
-    <row r="919" spans="1:6" ht="13">
+    <row r="919" spans="1:6" ht="12.75">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="2"/>
@@ -7963,7 +8026,7 @@
       <c r="E919" s="1"/>
       <c r="F919" s="2"/>
     </row>
-    <row r="920" spans="1:6" ht="13">
+    <row r="920" spans="1:6" ht="12.75">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="2"/>
@@ -7971,7 +8034,7 @@
       <c r="E920" s="1"/>
       <c r="F920" s="2"/>
     </row>
-    <row r="921" spans="1:6" ht="13">
+    <row r="921" spans="1:6" ht="12.75">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="2"/>
@@ -7979,7 +8042,7 @@
       <c r="E921" s="1"/>
       <c r="F921" s="2"/>
     </row>
-    <row r="922" spans="1:6" ht="13">
+    <row r="922" spans="1:6" ht="12.75">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="2"/>
@@ -7987,7 +8050,7 @@
       <c r="E922" s="1"/>
       <c r="F922" s="2"/>
     </row>
-    <row r="923" spans="1:6" ht="13">
+    <row r="923" spans="1:6" ht="12.75">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="2"/>
@@ -7995,7 +8058,7 @@
       <c r="E923" s="1"/>
       <c r="F923" s="2"/>
     </row>
-    <row r="924" spans="1:6" ht="13">
+    <row r="924" spans="1:6" ht="12.75">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="2"/>
@@ -8003,7 +8066,7 @@
       <c r="E924" s="1"/>
       <c r="F924" s="2"/>
     </row>
-    <row r="925" spans="1:6" ht="13">
+    <row r="925" spans="1:6" ht="12.75">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="2"/>
@@ -8011,7 +8074,7 @@
       <c r="E925" s="1"/>
       <c r="F925" s="2"/>
     </row>
-    <row r="926" spans="1:6" ht="13">
+    <row r="926" spans="1:6" ht="12.75">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="2"/>
@@ -8019,7 +8082,7 @@
       <c r="E926" s="1"/>
       <c r="F926" s="2"/>
     </row>
-    <row r="927" spans="1:6" ht="13">
+    <row r="927" spans="1:6" ht="12.75">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="2"/>
@@ -8027,7 +8090,7 @@
       <c r="E927" s="1"/>
       <c r="F927" s="2"/>
     </row>
-    <row r="928" spans="1:6" ht="13">
+    <row r="928" spans="1:6" ht="12.75">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="2"/>
@@ -8035,7 +8098,7 @@
       <c r="E928" s="1"/>
       <c r="F928" s="2"/>
     </row>
-    <row r="929" spans="1:6" ht="13">
+    <row r="929" spans="1:6" ht="12.75">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="2"/>
@@ -8043,7 +8106,7 @@
       <c r="E929" s="1"/>
       <c r="F929" s="2"/>
     </row>
-    <row r="930" spans="1:6" ht="13">
+    <row r="930" spans="1:6" ht="12.75">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="2"/>
@@ -8051,7 +8114,7 @@
       <c r="E930" s="1"/>
       <c r="F930" s="2"/>
     </row>
-    <row r="931" spans="1:6" ht="13">
+    <row r="931" spans="1:6" ht="12.75">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="2"/>
@@ -8059,7 +8122,7 @@
       <c r="E931" s="1"/>
       <c r="F931" s="2"/>
     </row>
-    <row r="932" spans="1:6" ht="13">
+    <row r="932" spans="1:6" ht="12.75">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="2"/>
@@ -8067,7 +8130,7 @@
       <c r="E932" s="1"/>
       <c r="F932" s="2"/>
     </row>
-    <row r="933" spans="1:6" ht="13">
+    <row r="933" spans="1:6" ht="12.75">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="2"/>
@@ -8075,7 +8138,7 @@
       <c r="E933" s="1"/>
       <c r="F933" s="2"/>
     </row>
-    <row r="934" spans="1:6" ht="13">
+    <row r="934" spans="1:6" ht="12.75">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="2"/>
@@ -8083,7 +8146,7 @@
       <c r="E934" s="1"/>
       <c r="F934" s="2"/>
     </row>
-    <row r="935" spans="1:6" ht="13">
+    <row r="935" spans="1:6" ht="12.75">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="2"/>
@@ -8091,7 +8154,7 @@
       <c r="E935" s="1"/>
       <c r="F935" s="2"/>
     </row>
-    <row r="936" spans="1:6" ht="13">
+    <row r="936" spans="1:6" ht="12.75">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="2"/>
@@ -8099,7 +8162,7 @@
       <c r="E936" s="1"/>
       <c r="F936" s="2"/>
     </row>
-    <row r="937" spans="1:6" ht="13">
+    <row r="937" spans="1:6" ht="12.75">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="2"/>
@@ -8107,7 +8170,7 @@
       <c r="E937" s="1"/>
       <c r="F937" s="2"/>
     </row>
-    <row r="938" spans="1:6" ht="13">
+    <row r="938" spans="1:6" ht="12.75">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="2"/>
@@ -8115,7 +8178,7 @@
       <c r="E938" s="1"/>
       <c r="F938" s="2"/>
     </row>
-    <row r="939" spans="1:6" ht="13">
+    <row r="939" spans="1:6" ht="12.75">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="2"/>
@@ -8123,7 +8186,7 @@
       <c r="E939" s="1"/>
       <c r="F939" s="2"/>
     </row>
-    <row r="940" spans="1:6" ht="13">
+    <row r="940" spans="1:6" ht="12.75">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="2"/>
@@ -8131,7 +8194,7 @@
       <c r="E940" s="1"/>
       <c r="F940" s="2"/>
     </row>
-    <row r="941" spans="1:6" ht="13">
+    <row r="941" spans="1:6" ht="12.75">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="2"/>
@@ -8139,7 +8202,7 @@
       <c r="E941" s="1"/>
       <c r="F941" s="2"/>
     </row>
-    <row r="942" spans="1:6" ht="13">
+    <row r="942" spans="1:6" ht="12.75">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="2"/>
@@ -8147,7 +8210,7 @@
       <c r="E942" s="1"/>
       <c r="F942" s="2"/>
     </row>
-    <row r="943" spans="1:6" ht="13">
+    <row r="943" spans="1:6" ht="12.75">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="2"/>
@@ -8155,7 +8218,7 @@
       <c r="E943" s="1"/>
       <c r="F943" s="2"/>
     </row>
-    <row r="944" spans="1:6" ht="13">
+    <row r="944" spans="1:6" ht="12.75">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="2"/>
@@ -8163,7 +8226,7 @@
       <c r="E944" s="1"/>
       <c r="F944" s="2"/>
     </row>
-    <row r="945" spans="1:6" ht="13">
+    <row r="945" spans="1:6" ht="12.75">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="2"/>
@@ -8171,7 +8234,7 @@
       <c r="E945" s="1"/>
       <c r="F945" s="2"/>
     </row>
-    <row r="946" spans="1:6" ht="13">
+    <row r="946" spans="1:6" ht="12.75">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="2"/>
@@ -8179,7 +8242,7 @@
       <c r="E946" s="1"/>
       <c r="F946" s="2"/>
     </row>
-    <row r="947" spans="1:6" ht="13">
+    <row r="947" spans="1:6" ht="12.75">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="2"/>
@@ -8187,7 +8250,7 @@
       <c r="E947" s="1"/>
       <c r="F947" s="2"/>
     </row>
-    <row r="948" spans="1:6" ht="13">
+    <row r="948" spans="1:6" ht="12.75">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="2"/>
@@ -8195,7 +8258,7 @@
       <c r="E948" s="1"/>
       <c r="F948" s="2"/>
     </row>
-    <row r="949" spans="1:6" ht="13">
+    <row r="949" spans="1:6" ht="12.75">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="2"/>
@@ -8203,7 +8266,7 @@
       <c r="E949" s="1"/>
       <c r="F949" s="2"/>
     </row>
-    <row r="950" spans="1:6" ht="13">
+    <row r="950" spans="1:6" ht="12.75">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="2"/>
@@ -8211,7 +8274,7 @@
       <c r="E950" s="1"/>
       <c r="F950" s="2"/>
     </row>
-    <row r="951" spans="1:6" ht="13">
+    <row r="951" spans="1:6" ht="12.75">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="2"/>
@@ -8219,7 +8282,7 @@
       <c r="E951" s="1"/>
       <c r="F951" s="2"/>
     </row>
-    <row r="952" spans="1:6" ht="13">
+    <row r="952" spans="1:6" ht="12.75">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="2"/>
@@ -8227,7 +8290,7 @@
       <c r="E952" s="1"/>
       <c r="F952" s="2"/>
     </row>
-    <row r="953" spans="1:6" ht="13">
+    <row r="953" spans="1:6" ht="12.75">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="2"/>
@@ -8235,7 +8298,7 @@
       <c r="E953" s="1"/>
       <c r="F953" s="2"/>
     </row>
-    <row r="954" spans="1:6" ht="13">
+    <row r="954" spans="1:6" ht="12.75">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="2"/>
@@ -8243,7 +8306,7 @@
       <c r="E954" s="1"/>
       <c r="F954" s="2"/>
     </row>
-    <row r="955" spans="1:6" ht="13">
+    <row r="955" spans="1:6" ht="12.75">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="2"/>
@@ -8251,7 +8314,7 @@
       <c r="E955" s="1"/>
       <c r="F955" s="2"/>
     </row>
-    <row r="956" spans="1:6" ht="13">
+    <row r="956" spans="1:6" ht="12.75">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="2"/>
@@ -8259,7 +8322,7 @@
       <c r="E956" s="1"/>
       <c r="F956" s="2"/>
     </row>
-    <row r="957" spans="1:6" ht="13">
+    <row r="957" spans="1:6" ht="12.75">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="2"/>
@@ -8267,7 +8330,7 @@
       <c r="E957" s="1"/>
       <c r="F957" s="2"/>
     </row>
-    <row r="958" spans="1:6" ht="13">
+    <row r="958" spans="1:6" ht="12.75">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="2"/>
@@ -8275,7 +8338,7 @@
       <c r="E958" s="1"/>
       <c r="F958" s="2"/>
     </row>
-    <row r="959" spans="1:6" ht="13">
+    <row r="959" spans="1:6" ht="12.75">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="2"/>
@@ -8283,7 +8346,7 @@
       <c r="E959" s="1"/>
       <c r="F959" s="2"/>
     </row>
-    <row r="960" spans="1:6" ht="13">
+    <row r="960" spans="1:6" ht="12.75">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="2"/>
@@ -8291,7 +8354,7 @@
       <c r="E960" s="1"/>
       <c r="F960" s="2"/>
     </row>
-    <row r="961" spans="1:6" ht="13">
+    <row r="961" spans="1:6" ht="12.75">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="2"/>
@@ -8299,7 +8362,7 @@
       <c r="E961" s="1"/>
       <c r="F961" s="2"/>
     </row>
-    <row r="962" spans="1:6" ht="13">
+    <row r="962" spans="1:6" ht="12.75">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="2"/>
@@ -8307,7 +8370,7 @@
       <c r="E962" s="1"/>
       <c r="F962" s="2"/>
     </row>
-    <row r="963" spans="1:6" ht="13">
+    <row r="963" spans="1:6" ht="12.75">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="2"/>
@@ -8315,7 +8378,7 @@
       <c r="E963" s="1"/>
       <c r="F963" s="2"/>
     </row>
-    <row r="964" spans="1:6" ht="13">
+    <row r="964" spans="1:6" ht="12.75">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="2"/>
@@ -8323,7 +8386,7 @@
       <c r="E964" s="1"/>
       <c r="F964" s="2"/>
     </row>
-    <row r="965" spans="1:6" ht="13">
+    <row r="965" spans="1:6" ht="12.75">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="2"/>
@@ -8331,7 +8394,7 @@
       <c r="E965" s="1"/>
       <c r="F965" s="2"/>
     </row>
-    <row r="966" spans="1:6" ht="13">
+    <row r="966" spans="1:6" ht="12.75">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="2"/>
@@ -8339,7 +8402,7 @@
       <c r="E966" s="1"/>
       <c r="F966" s="2"/>
     </row>
-    <row r="967" spans="1:6" ht="13">
+    <row r="967" spans="1:6" ht="12.75">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="2"/>
@@ -8347,7 +8410,7 @@
       <c r="E967" s="1"/>
       <c r="F967" s="2"/>
     </row>
-    <row r="968" spans="1:6" ht="13">
+    <row r="968" spans="1:6" ht="12.75">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="2"/>
@@ -8355,7 +8418,7 @@
       <c r="E968" s="1"/>
       <c r="F968" s="2"/>
     </row>
-    <row r="969" spans="1:6" ht="13">
+    <row r="969" spans="1:6" ht="12.75">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="2"/>
@@ -8363,7 +8426,7 @@
       <c r="E969" s="1"/>
       <c r="F969" s="2"/>
     </row>
-    <row r="970" spans="1:6" ht="13">
+    <row r="970" spans="1:6" ht="12.75">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="2"/>
@@ -8371,7 +8434,7 @@
       <c r="E970" s="1"/>
       <c r="F970" s="2"/>
     </row>
-    <row r="971" spans="1:6" ht="13">
+    <row r="971" spans="1:6" ht="12.75">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="2"/>
@@ -8379,7 +8442,7 @@
       <c r="E971" s="1"/>
       <c r="F971" s="2"/>
     </row>
-    <row r="972" spans="1:6" ht="13">
+    <row r="972" spans="1:6" ht="12.75">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="2"/>
@@ -8387,7 +8450,7 @@
       <c r="E972" s="1"/>
       <c r="F972" s="2"/>
     </row>
-    <row r="973" spans="1:6" ht="13">
+    <row r="973" spans="1:6" ht="12.75">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="2"/>
@@ -8395,7 +8458,7 @@
       <c r="E973" s="1"/>
       <c r="F973" s="2"/>
     </row>
-    <row r="974" spans="1:6" ht="13">
+    <row r="974" spans="1:6" ht="12.75">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="2"/>
@@ -8403,7 +8466,7 @@
       <c r="E974" s="1"/>
       <c r="F974" s="2"/>
     </row>
-    <row r="975" spans="1:6" ht="13">
+    <row r="975" spans="1:6" ht="12.75">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="2"/>
@@ -8411,7 +8474,7 @@
       <c r="E975" s="1"/>
       <c r="F975" s="2"/>
     </row>
-    <row r="976" spans="1:6" ht="13">
+    <row r="976" spans="1:6" ht="12.75">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="2"/>
@@ -8419,7 +8482,7 @@
       <c r="E976" s="1"/>
       <c r="F976" s="2"/>
     </row>
-    <row r="977" spans="1:6" ht="13">
+    <row r="977" spans="1:6" ht="12.75">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="2"/>
@@ -8427,7 +8490,7 @@
       <c r="E977" s="1"/>
       <c r="F977" s="2"/>
     </row>
-    <row r="978" spans="1:6" ht="13">
+    <row r="978" spans="1:6" ht="12.75">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="2"/>
@@ -8435,7 +8498,7 @@
       <c r="E978" s="1"/>
       <c r="F978" s="2"/>
     </row>
-    <row r="979" spans="1:6" ht="13">
+    <row r="979" spans="1:6" ht="12.75">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="2"/>
@@ -8443,7 +8506,7 @@
       <c r="E979" s="1"/>
       <c r="F979" s="2"/>
     </row>
-    <row r="980" spans="1:6" ht="13">
+    <row r="980" spans="1:6" ht="12.75">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="2"/>
@@ -8451,7 +8514,7 @@
       <c r="E980" s="1"/>
       <c r="F980" s="2"/>
     </row>
-    <row r="981" spans="1:6" ht="13">
+    <row r="981" spans="1:6" ht="12.75">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="2"/>
@@ -8459,7 +8522,7 @@
       <c r="E981" s="1"/>
       <c r="F981" s="2"/>
     </row>
-    <row r="982" spans="1:6" ht="13">
+    <row r="982" spans="1:6" ht="12.75">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="2"/>
@@ -8467,7 +8530,7 @@
       <c r="E982" s="1"/>
       <c r="F982" s="2"/>
     </row>
-    <row r="983" spans="1:6" ht="13">
+    <row r="983" spans="1:6" ht="12.75">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="2"/>
@@ -8475,7 +8538,7 @@
       <c r="E983" s="1"/>
       <c r="F983" s="2"/>
     </row>
-    <row r="984" spans="1:6" ht="13">
+    <row r="984" spans="1:6" ht="12.75">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="2"/>
@@ -8483,7 +8546,7 @@
       <c r="E984" s="1"/>
       <c r="F984" s="2"/>
     </row>
-    <row r="985" spans="1:6" ht="13">
+    <row r="985" spans="1:6" ht="12.75">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="2"/>
@@ -8491,7 +8554,7 @@
       <c r="E985" s="1"/>
       <c r="F985" s="2"/>
     </row>
-    <row r="986" spans="1:6" ht="13">
+    <row r="986" spans="1:6" ht="12.75">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="2"/>
@@ -8499,7 +8562,7 @@
       <c r="E986" s="1"/>
       <c r="F986" s="2"/>
     </row>
-    <row r="987" spans="1:6" ht="13">
+    <row r="987" spans="1:6" ht="12.75">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="2"/>
@@ -8507,7 +8570,7 @@
       <c r="E987" s="1"/>
       <c r="F987" s="2"/>
     </row>
-    <row r="988" spans="1:6" ht="13">
+    <row r="988" spans="1:6" ht="12.75">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="2"/>
@@ -8515,7 +8578,7 @@
       <c r="E988" s="1"/>
       <c r="F988" s="2"/>
     </row>
-    <row r="989" spans="1:6" ht="13">
+    <row r="989" spans="1:6" ht="12.75">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="2"/>
@@ -8523,7 +8586,7 @@
       <c r="E989" s="1"/>
       <c r="F989" s="2"/>
     </row>
-    <row r="990" spans="1:6" ht="13">
+    <row r="990" spans="1:6" ht="12.75">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="2"/>
@@ -8531,7 +8594,7 @@
       <c r="E990" s="1"/>
       <c r="F990" s="2"/>
     </row>
-    <row r="991" spans="1:6" ht="13">
+    <row r="991" spans="1:6" ht="12.75">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="2"/>
@@ -8539,7 +8602,7 @@
       <c r="E991" s="1"/>
       <c r="F991" s="2"/>
     </row>
-    <row r="992" spans="1:6" ht="13">
+    <row r="992" spans="1:6" ht="12.75">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="2"/>
@@ -8547,7 +8610,7 @@
       <c r="E992" s="1"/>
       <c r="F992" s="2"/>
     </row>
-    <row r="993" spans="1:6" ht="13">
+    <row r="993" spans="1:6" ht="12.75">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="2"/>
@@ -8555,7 +8618,7 @@
       <c r="E993" s="1"/>
       <c r="F993" s="2"/>
     </row>
-    <row r="994" spans="1:6" ht="13">
+    <row r="994" spans="1:6" ht="12.75">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="2"/>
@@ -8563,7 +8626,7 @@
       <c r="E994" s="1"/>
       <c r="F994" s="2"/>
     </row>
-    <row r="995" spans="1:6" ht="13">
+    <row r="995" spans="1:6" ht="12.75">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="2"/>
@@ -8571,7 +8634,7 @@
       <c r="E995" s="1"/>
       <c r="F995" s="2"/>
     </row>
-    <row r="996" spans="1:6" ht="13">
+    <row r="996" spans="1:6" ht="12.75">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="2"/>
@@ -8579,7 +8642,7 @@
       <c r="E996" s="1"/>
       <c r="F996" s="2"/>
     </row>
-    <row r="997" spans="1:6" ht="13">
+    <row r="997" spans="1:6" ht="12.75">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="2"/>
@@ -8587,7 +8650,7 @@
       <c r="E997" s="1"/>
       <c r="F997" s="2"/>
     </row>
-    <row r="998" spans="1:6" ht="13">
+    <row r="998" spans="1:6" ht="12.75">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="2"/>
@@ -8595,7 +8658,7 @@
       <c r="E998" s="1"/>
       <c r="F998" s="2"/>
     </row>
-    <row r="999" spans="1:6" ht="13">
+    <row r="999" spans="1:6" ht="12.75">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="2"/>
@@ -8603,7 +8666,7 @@
       <c r="E999" s="1"/>
       <c r="F999" s="2"/>
     </row>
-    <row r="1000" spans="1:6" ht="13">
+    <row r="1000" spans="1:6" ht="12.75">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="2"/>
@@ -8611,7 +8674,7 @@
       <c r="E1000" s="1"/>
       <c r="F1000" s="2"/>
     </row>
-    <row r="1001" spans="1:6" ht="13">
+    <row r="1001" spans="1:6" ht="12.75">
       <c r="A1001" s="1"/>
       <c r="B1001" s="1"/>
       <c r="C1001" s="2"/>
@@ -8619,7 +8682,7 @@
       <c r="E1001" s="1"/>
       <c r="F1001" s="2"/>
     </row>
-    <row r="1002" spans="1:6" ht="13">
+    <row r="1002" spans="1:6" ht="12.75">
       <c r="A1002" s="1"/>
       <c r="B1002" s="1"/>
       <c r="C1002" s="2"/>
@@ -8627,7 +8690,7 @@
       <c r="E1002" s="1"/>
       <c r="F1002" s="2"/>
     </row>
-    <row r="1003" spans="1:6" ht="13">
+    <row r="1003" spans="1:6" ht="12.75">
       <c r="A1003" s="1"/>
       <c r="B1003" s="1"/>
       <c r="C1003" s="2"/>
@@ -8648,6 +8711,8 @@
     <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="D12" r:id="rId11" xr:uid="{9EBC2F4E-D79E-2A4B-B261-288A3CA01CE5}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{8DFCC21E-23A2-4F3E-81BA-DE7A52122DB2}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{3EFDFCD7-00E4-46DF-8E5A-25013001060E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
